--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E34D6-EE5F-43C3-8114-02C321D3622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DC964-4A80-4C56-B147-4769C1CF059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
     <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,214 +52,400 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>3.191,31 EUR</t>
+  </si>
+  <si>
+    <t>9.506,05 EUR</t>
+  </si>
+  <si>
+    <t>286,06 EUR</t>
+  </si>
+  <si>
+    <t>261,41 EUR</t>
+  </si>
+  <si>
+    <t>2.402,04 EUR</t>
+  </si>
+  <si>
+    <t>247,00 EUR</t>
+  </si>
+  <si>
+    <t>7.328,99 EUR</t>
+  </si>
+  <si>
+    <t>476,33 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>1.122,69 EUR</t>
+  </si>
+  <si>
+    <t>410,91 EUR</t>
+  </si>
+  <si>
+    <t>561,59 EUR</t>
+  </si>
+  <si>
+    <t>329,81 EUR</t>
+  </si>
+  <si>
+    <t>3.450,52 EUR</t>
+  </si>
+  <si>
+    <t>321,87 EUR</t>
+  </si>
+  <si>
+    <t>279,21 EUR</t>
+  </si>
+  <si>
+    <t>7.570,94 EUR</t>
+  </si>
+  <si>
+    <t>129,58 EUR</t>
+  </si>
+  <si>
+    <t>194,20 EUR</t>
+  </si>
+  <si>
+    <t>3.480,28 EUR</t>
+  </si>
+  <si>
+    <t>354,81 EUR</t>
+  </si>
+  <si>
+    <t>332,71 EUR</t>
+  </si>
+  <si>
+    <t>2.132,19 EUR</t>
+  </si>
+  <si>
+    <t>578,98 EUR</t>
+  </si>
+  <si>
+    <t>5.278,43 EUR</t>
+  </si>
+  <si>
+    <t>18,73 EUR</t>
+  </si>
+  <si>
+    <t>548,57 EUR</t>
+  </si>
+  <si>
+    <t>4.269,33 EUR</t>
+  </si>
+  <si>
+    <t>1.081,42 EUR</t>
+  </si>
+  <si>
+    <t>691,72 EUR</t>
+  </si>
+  <si>
+    <t>3.258,23 EUR</t>
+  </si>
+  <si>
+    <t>239,34 EUR</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>2.565,03 EUR</t>
+  </si>
+  <si>
+    <t>423,91 EUR</t>
+  </si>
+  <si>
+    <t>127,95 EUR</t>
+  </si>
+  <si>
+    <t>361,74 EUR</t>
+  </si>
+  <si>
+    <t>1.688,58 EUR</t>
+  </si>
+  <si>
+    <t>381,86 EUR</t>
+  </si>
+  <si>
+    <t>2.577,78 EUR</t>
+  </si>
+  <si>
+    <t>789,82 EUR</t>
+  </si>
+  <si>
+    <t>72,14 EUR</t>
+  </si>
+  <si>
+    <t>1.895,74 EUR</t>
+  </si>
+  <si>
+    <t>315,35 EUR</t>
+  </si>
+  <si>
+    <t>354,31 EUR</t>
+  </si>
+  <si>
+    <t>4.773,22 EUR</t>
+  </si>
+  <si>
+    <t>326,06 EUR</t>
+  </si>
+  <si>
+    <t>2.020,63 EUR</t>
+  </si>
+  <si>
+    <t>6.010,66 EUR</t>
+  </si>
+  <si>
+    <t>238,79 EUR</t>
+  </si>
+  <si>
+    <t>402,15 EUR</t>
+  </si>
+  <si>
+    <t>1.589,20 EUR</t>
+  </si>
+  <si>
+    <t>777,42 EUR</t>
+  </si>
+  <si>
+    <t>1.262,61 EUR</t>
+  </si>
+  <si>
+    <t>338,24 EUR</t>
+  </si>
+  <si>
+    <t>2.002,35 EUR</t>
+  </si>
+  <si>
+    <t>18,06 EUR</t>
+  </si>
+  <si>
+    <t>282,29 EUR</t>
+  </si>
+  <si>
     <t>1.440,81 EUR</t>
   </si>
   <si>
     <t>159,25 EUR</t>
   </si>
   <si>
-    <t>354,31 EUR</t>
-  </si>
-  <si>
-    <t>1.262,61 EUR</t>
-  </si>
-  <si>
-    <t>338,24 EUR</t>
-  </si>
-  <si>
-    <t>247,00 EUR</t>
-  </si>
-  <si>
-    <t>2.002,35 EUR</t>
-  </si>
-  <si>
-    <t>18,06 EUR</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>13-01-2022</t>
-  </si>
-  <si>
-    <t>1.122,69 EUR</t>
-  </si>
-  <si>
-    <t>410,91 EUR</t>
-  </si>
-  <si>
-    <t>561,59 EUR</t>
-  </si>
-  <si>
-    <t>329,81 EUR</t>
-  </si>
-  <si>
-    <t>14-01-2022</t>
-  </si>
-  <si>
-    <t>3.450,52 EUR</t>
-  </si>
-  <si>
-    <t>321,87 EUR</t>
-  </si>
-  <si>
-    <t>279,21 EUR</t>
-  </si>
-  <si>
-    <t>15-01-2022</t>
-  </si>
-  <si>
-    <t>7.570,94 EUR</t>
-  </si>
-  <si>
-    <t>129,58 EUR</t>
-  </si>
-  <si>
-    <t>194,20 EUR</t>
-  </si>
-  <si>
-    <t>18-01-2022</t>
-  </si>
-  <si>
-    <t>3.480,28 EUR</t>
-  </si>
-  <si>
-    <t>354,81 EUR</t>
-  </si>
-  <si>
-    <t>17-01-2022</t>
-  </si>
-  <si>
-    <t>332,71 EUR</t>
-  </si>
-  <si>
-    <t>19-01-2022</t>
-  </si>
-  <si>
-    <t>2.132,19 EUR</t>
-  </si>
-  <si>
-    <t>578,98 EUR</t>
-  </si>
-  <si>
-    <t>20-01-2022</t>
-  </si>
-  <si>
-    <t>5.278,43 EUR</t>
-  </si>
-  <si>
-    <t>18,73 EUR</t>
-  </si>
-  <si>
-    <t>548,57 EUR</t>
-  </si>
-  <si>
-    <t>21-01-2022</t>
-  </si>
-  <si>
-    <t>4.269,33 EUR</t>
-  </si>
-  <si>
-    <t>1.081,42 EUR</t>
-  </si>
-  <si>
-    <t>691,72 EUR</t>
-  </si>
-  <si>
-    <t>22-01-2022</t>
-  </si>
-  <si>
-    <t>3.258,23 EUR</t>
-  </si>
-  <si>
-    <t>239,34 EUR</t>
-  </si>
-  <si>
-    <t>25-01-2022</t>
-  </si>
-  <si>
-    <t>47,95 EUR</t>
-  </si>
-  <si>
-    <t>2.565,03 EUR</t>
-  </si>
-  <si>
-    <t>423,91 EUR</t>
-  </si>
-  <si>
-    <t>24-01-2022</t>
-  </si>
-  <si>
-    <t>127,95 EUR</t>
-  </si>
-  <si>
-    <t>26-01-2022</t>
-  </si>
-  <si>
-    <t>361,74 EUR</t>
-  </si>
-  <si>
-    <t>1.688,58 EUR</t>
-  </si>
-  <si>
-    <t>381,86 EUR</t>
-  </si>
-  <si>
-    <t>2.577,78 EUR</t>
-  </si>
-  <si>
-    <t>27-01-2022</t>
-  </si>
-  <si>
-    <t>789,82 EUR</t>
-  </si>
-  <si>
-    <t>72,14 EUR</t>
-  </si>
-  <si>
-    <t>28-01-2022</t>
-  </si>
-  <si>
-    <t>1.895,74 EUR</t>
-  </si>
-  <si>
-    <t>315,35 EUR</t>
-  </si>
-  <si>
-    <t>29-01-2022</t>
-  </si>
-  <si>
-    <t>4.773,22 EUR</t>
-  </si>
-  <si>
-    <t>326,06 EUR</t>
-  </si>
-  <si>
-    <t>2.020,63 EUR</t>
-  </si>
-  <si>
-    <t>6.010,66 EUR</t>
-  </si>
-  <si>
-    <t>238,79 EUR</t>
-  </si>
-  <si>
-    <t>31-01-2022</t>
-  </si>
-  <si>
-    <t>402,15 EUR</t>
-  </si>
-  <si>
-    <t>1.589,20 EUR</t>
-  </si>
-  <si>
-    <t>777,42 EUR</t>
-  </si>
-  <si>
-    <t>282,29 EUR</t>
+    <t>1.901,44 EUR</t>
+  </si>
+  <si>
+    <t>73,15 EUR</t>
+  </si>
+  <si>
+    <t>147,35 EUR</t>
+  </si>
+  <si>
+    <t>431,30 EUR</t>
+  </si>
+  <si>
+    <t>1.424,80 EUR</t>
+  </si>
+  <si>
+    <t>141,15 EUR</t>
+  </si>
+  <si>
+    <t>1.223,83 EUR</t>
+  </si>
+  <si>
+    <t>802,97 EUR</t>
+  </si>
+  <si>
+    <t>401,12 EUR</t>
+  </si>
+  <si>
+    <t>1.949,79 EUR</t>
+  </si>
+  <si>
+    <t>478,20 EUR</t>
+  </si>
+  <si>
+    <t>384,31 EUR</t>
+  </si>
+  <si>
+    <t>1.226,67 EUR</t>
+  </si>
+  <si>
+    <t>235,74 EUR</t>
+  </si>
+  <si>
+    <t>995,45 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>4.765,99 EUR</t>
+  </si>
+  <si>
+    <t>2.148,31 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>284,46 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.688,80 EUR</t>
+  </si>
+  <si>
+    <t>68,43 EUR</t>
+  </si>
+  <si>
+    <t>441,80 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>3.523,64 EUR</t>
+  </si>
+  <si>
+    <t>28,95 EUR</t>
+  </si>
+  <si>
+    <t>172,73 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>2.009,04 EUR</t>
+  </si>
+  <si>
+    <t>1.947,46 EUR</t>
+  </si>
+  <si>
+    <t>331,53 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>2.493,77 EUR</t>
+  </si>
+  <si>
+    <t>165,45 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>2.346,97 EUR</t>
+  </si>
+  <si>
+    <t>609,50 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>1.078,38 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>9.415,96 EUR</t>
+  </si>
+  <si>
+    <t>197,71 EUR</t>
+  </si>
+  <si>
+    <t>283,65 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>4.616,37 EUR</t>
+  </si>
+  <si>
+    <t>121,39 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>1.780,69 EUR</t>
+  </si>
+  <si>
+    <t>265,14 EUR</t>
+  </si>
+  <si>
+    <t>4.684,82 EUR</t>
+  </si>
+  <si>
+    <t>220,87 EUR</t>
+  </si>
+  <si>
+    <t>1.080,03 EUR</t>
+  </si>
+  <si>
+    <t>62,68 EUR</t>
+  </si>
+  <si>
+    <t>245,59 EUR</t>
+  </si>
+  <si>
+    <t>615,88 EUR</t>
+  </si>
+  <si>
+    <t>734,27 EUR</t>
+  </si>
+  <si>
+    <t>497,45 EUR</t>
+  </si>
+  <si>
+    <t>124,87 EUR</t>
+  </si>
+  <si>
+    <t>386,31 EUR</t>
+  </si>
+  <si>
+    <t>400,24 EUR</t>
+  </si>
+  <si>
+    <t>167,19 EUR</t>
+  </si>
+  <si>
+    <t>1.821,41 EUR</t>
+  </si>
+  <si>
+    <t>1.825,31 EUR</t>
+  </si>
+  <si>
+    <t>155,80 EUR</t>
+  </si>
+  <si>
+    <t>1.195,49 EUR</t>
+  </si>
+  <si>
+    <t>111,39 EUR</t>
+  </si>
+  <si>
+    <t>976,25 EUR</t>
+  </si>
+  <si>
+    <t>2.272,74 EUR</t>
+  </si>
+  <si>
+    <t>703,43 EUR</t>
+  </si>
+  <si>
+    <t>1.465,45 EUR</t>
   </si>
 </sst>
 </file>
@@ -624,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,6 +867,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -689,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,11 +1093,11 @@
       <c r="A18" s="1">
         <v>8865085</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>44574</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>22880540</v>
@@ -912,11 +1107,11 @@
       <c r="A19" s="1">
         <v>8865084</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+      <c r="B19" s="3">
+        <v>44574</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>22880561</v>
@@ -926,11 +1121,11 @@
       <c r="A20" s="1">
         <v>8865075</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
+      <c r="B20" s="3">
+        <v>44574</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <v>22880565</v>
@@ -940,11 +1135,11 @@
       <c r="A21" s="1">
         <v>8865074</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
+      <c r="B21" s="3">
+        <v>44574</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>22880602</v>
@@ -954,11 +1149,11 @@
       <c r="A22" s="1">
         <v>8865817</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
+      <c r="B22" s="3">
+        <v>44575</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>22883949</v>
@@ -968,11 +1163,11 @@
       <c r="A23" s="1">
         <v>8865816</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="3">
+        <v>44575</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>22883970</v>
@@ -982,11 +1177,11 @@
       <c r="A24" s="1">
         <v>8865692</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
+      <c r="B24" s="3">
+        <v>44574</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
         <v>22884000</v>
@@ -996,11 +1191,11 @@
       <c r="A25" s="1">
         <v>8866588</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
+      <c r="B25" s="3">
+        <v>44576</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>22887862</v>
@@ -1010,11 +1205,11 @@
       <c r="A26" s="1">
         <v>8866587</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
+      <c r="B26" s="3">
+        <v>44576</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1">
         <v>22887865</v>
@@ -1024,11 +1219,11 @@
       <c r="A27" s="1">
         <v>8866435</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>19</v>
+      <c r="B27" s="3">
+        <v>44575</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>22887900</v>
@@ -1038,11 +1233,11 @@
       <c r="A28" s="1">
         <v>8867363</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
+      <c r="B28" s="3">
+        <v>44579</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
         <v>22892132</v>
@@ -1052,11 +1247,11 @@
       <c r="A29" s="1">
         <v>8867362</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
+      <c r="B29" s="3">
+        <v>44579</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
         <v>22892162</v>
@@ -1066,11 +1261,11 @@
       <c r="A30" s="1">
         <v>8867156</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
+      <c r="B30" s="3">
+        <v>44578</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
         <v>22892167</v>
@@ -1080,11 +1275,11 @@
       <c r="A31" s="1">
         <v>8868087</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>32</v>
+      <c r="B31" s="3">
+        <v>44580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1">
         <v>22896062</v>
@@ -1094,11 +1289,11 @@
       <c r="A32" s="1">
         <v>8868086</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
+      <c r="B32" s="3">
+        <v>44580</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>22896075</v>
@@ -1108,11 +1303,11 @@
       <c r="A33" s="1">
         <v>8868818</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
+      <c r="B33" s="3">
+        <v>44581</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1">
         <v>22900131</v>
@@ -1122,11 +1317,11 @@
       <c r="A34" s="1">
         <v>8868817</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
+      <c r="B34" s="3">
+        <v>44581</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1">
         <v>22900150</v>
@@ -1136,11 +1331,11 @@
       <c r="A35" s="1">
         <v>8868646</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
+      <c r="B35" s="3">
+        <v>44580</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>22900154</v>
@@ -1150,11 +1345,11 @@
       <c r="A36" s="1">
         <v>8869534</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
+      <c r="B36" s="3">
+        <v>44582</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>22903020</v>
@@ -1164,11 +1359,11 @@
       <c r="A37" s="1">
         <v>8869533</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>39</v>
+      <c r="B37" s="3">
+        <v>44582</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>22903061</v>
@@ -1178,11 +1373,11 @@
       <c r="A38" s="1">
         <v>8869387</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3">
+        <v>44581</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>22903068</v>
@@ -1192,11 +1387,11 @@
       <c r="A39" s="1">
         <v>8870315</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>43</v>
+      <c r="B39" s="3">
+        <v>44583</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>22907522</v>
@@ -1206,11 +1401,11 @@
       <c r="A40" s="1">
         <v>8870314</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
+      <c r="B40" s="3">
+        <v>44583</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>22907540</v>
@@ -1220,11 +1415,11 @@
       <c r="A41" s="1">
         <v>8871042</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>46</v>
+      <c r="B41" s="3">
+        <v>44586</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>22913240</v>
@@ -1234,11 +1429,11 @@
       <c r="A42" s="1">
         <v>8871011</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
+      <c r="B42" s="3">
+        <v>44586</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>22913262</v>
@@ -1248,11 +1443,11 @@
       <c r="A43" s="1">
         <v>8871010</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
+      <c r="B43" s="3">
+        <v>44586</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>22913330</v>
@@ -1262,11 +1457,11 @@
       <c r="A44" s="1">
         <v>8870869</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>50</v>
+      <c r="B44" s="3">
+        <v>44585</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
         <v>22913351</v>
@@ -1276,11 +1471,11 @@
       <c r="A45" s="1">
         <v>8871804</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
+      <c r="B45" s="3">
+        <v>44587</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>22915442</v>
@@ -1290,11 +1485,11 @@
       <c r="A46" s="1">
         <v>8871800</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>52</v>
+      <c r="B46" s="3">
+        <v>44587</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>22915470</v>
@@ -1304,11 +1499,11 @@
       <c r="A47" s="1">
         <v>8871799</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>52</v>
+      <c r="B47" s="3">
+        <v>44587</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1">
         <v>22915474</v>
@@ -1318,11 +1513,11 @@
       <c r="A48" s="1">
         <v>8871588</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>46</v>
+      <c r="B48" s="3">
+        <v>44586</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
         <v>22915478</v>
@@ -1332,11 +1527,11 @@
       <c r="A49" s="1">
         <v>8872551</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>57</v>
+      <c r="B49" s="3">
+        <v>44588</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>22920250</v>
@@ -1346,11 +1541,11 @@
       <c r="A50" s="1">
         <v>8872550</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>57</v>
+      <c r="B50" s="3">
+        <v>44588</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>22920256</v>
@@ -1360,11 +1555,11 @@
       <c r="A51" s="1">
         <v>8873276</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>60</v>
+      <c r="B51" s="3">
+        <v>44589</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>22925080</v>
@@ -1374,11 +1569,11 @@
       <c r="A52" s="1">
         <v>8873275</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>60</v>
+      <c r="B52" s="3">
+        <v>44589</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>22925082</v>
@@ -1388,11 +1583,11 @@
       <c r="A53" s="1">
         <v>8873095</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>57</v>
+      <c r="B53" s="3">
+        <v>44588</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>22925100</v>
@@ -1402,11 +1597,11 @@
       <c r="A54" s="1">
         <v>8873987</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>63</v>
+      <c r="B54" s="3">
+        <v>44590</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1">
         <v>22928530</v>
@@ -1416,11 +1611,11 @@
       <c r="A55" s="1">
         <v>8873986</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>63</v>
+      <c r="B55" s="3">
+        <v>44590</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
         <v>22928610</v>
@@ -1430,11 +1625,11 @@
       <c r="A56" s="1">
         <v>8873777</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>60</v>
+      <c r="B56" s="3">
+        <v>44589</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
         <v>22928680</v>
@@ -1448,7 +1643,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>22934681</v>
@@ -1462,7 +1657,7 @@
         <v>44593</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>22934700</v>
@@ -1472,11 +1667,11 @@
       <c r="A59" s="1">
         <v>8874479</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>69</v>
+      <c r="B59" s="3">
+        <v>44592</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
         <v>22934741</v>
@@ -1490,7 +1685,7 @@
         <v>44594</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
         <v>22952915</v>
@@ -1504,7 +1699,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1">
         <v>22952930</v>
@@ -1518,7 +1713,7 @@
         <v>44596</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
         <v>22961961</v>
@@ -1532,7 +1727,7 @@
         <v>44596</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1">
         <v>22961983</v>
@@ -1560,7 +1755,7 @@
         <v>44595</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1">
         <v>22961990</v>
@@ -1574,7 +1769,7 @@
         <v>44595</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D66" s="1">
         <v>22961998</v>
@@ -1588,7 +1783,7 @@
         <v>44595</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1">
         <v>22962006</v>
@@ -1599,10 +1794,10 @@
         <v>8877676</v>
       </c>
       <c r="B68" s="3">
-        <v>44683</v>
+        <v>44597</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D68" s="1">
         <v>22965320</v>
@@ -1613,10 +1808,10 @@
         <v>8877675</v>
       </c>
       <c r="B69" s="3">
-        <v>44683</v>
+        <v>44597</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1">
         <v>22965343</v>
@@ -1627,17 +1822,983 @@
         <v>8877493</v>
       </c>
       <c r="B70" s="3">
-        <v>44653</v>
+        <v>44596</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D70" s="1">
         <v>22965382</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>8878383</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44600</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>22971260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>8878382</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44600</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>22971265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>8878231</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44599</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>22971280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>8879148</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44601</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>22975346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>8879147</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44601</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>22975349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>8878963</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44601</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1">
+        <v>22975373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>8879901</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
+        <v>22979490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>8879900</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1">
+        <v>22979500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>8879730</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44601</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>22979527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>8880647</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22982976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>8880646</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>22983000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>8880464</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44602</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <v>22983026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>8881313</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44604</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1">
+        <v>22986180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8881312</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44604</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1">
+        <v>22986189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8881206</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>22986192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>8882092</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1">
+        <v>22991973</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>8882091</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1">
+        <v>22991992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>8881914</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="1">
+        <v>22992010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>8882828</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="1">
+        <v>22996430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>8882827</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" s="1">
+        <v>22996432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>8882641</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="1">
+        <v>22996470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>8883577</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="1">
+        <v>23001020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>8883576</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="1">
+        <v>23001041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>8883467</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="1">
+        <v>23001062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>8884309</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="1">
+        <v>23003013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>8884308</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="1">
+        <v>23003017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>8884126</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="1">
+        <v>23003030</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>8885007</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="1">
+        <v>23007111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>8885006</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="1">
+        <v>23007492</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>8885722</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="1">
+        <v>23011250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>8885721</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="1">
+        <v>23011272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>8885610</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="1">
+        <v>23011293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>8886502</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="1">
+        <v>23015272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>8886501</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="1">
+        <v>23015303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>8886283</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="1">
+        <v>23015350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>8887204</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="1">
+        <v>23018820</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>8887203</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="1">
+        <v>23018861</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>8887882</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="1">
+        <v>23023023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>8887706</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="1">
+        <v>23023271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>8889237</v>
+      </c>
+      <c r="B110" s="3">
+        <v>44621</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="1">
+        <v>23029770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>8889236</v>
+      </c>
+      <c r="B111" s="3">
+        <v>44621</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="1">
+        <v>23029775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>8888435</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="1">
+        <v>23029813</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>8887881</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="1">
+        <v>23023041</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>8889970</v>
+      </c>
+      <c r="B114" s="3">
+        <v>44622</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="1">
+        <v>23033790</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8889969</v>
+      </c>
+      <c r="B115" s="3">
+        <v>44622</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="1">
+        <v>23033841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>8889786</v>
+      </c>
+      <c r="B116" s="3">
+        <v>44621</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="1">
+        <v>23033846</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>8890603</v>
+      </c>
+      <c r="B117" s="3">
+        <v>44623</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="1">
+        <v>23036470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>8890602</v>
+      </c>
+      <c r="B118" s="3">
+        <v>44623</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="1">
+        <v>23036473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>8890439</v>
+      </c>
+      <c r="B119" s="3">
+        <v>44622</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="1">
+        <v>23036479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>8891271</v>
+      </c>
+      <c r="B120" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="1">
+        <v>23040676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>8891270</v>
+      </c>
+      <c r="B121" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="1">
+        <v>23040681</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>8891143</v>
+      </c>
+      <c r="B122" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="1">
+        <v>23040682</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>8892020</v>
+      </c>
+      <c r="B123" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="1">
+        <v>23044387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>8892019</v>
+      </c>
+      <c r="B124" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="1">
+        <v>23044393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>8892786</v>
+      </c>
+      <c r="B125" s="3">
+        <v>44628</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="1">
+        <v>23048542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>8892785</v>
+      </c>
+      <c r="B126" s="3">
+        <v>44628</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="1">
+        <v>23048564</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>8892538</v>
+      </c>
+      <c r="B127" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="1">
+        <v>23048569</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>8893451</v>
+      </c>
+      <c r="B128" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="1">
+        <v>23053630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>8893450</v>
+      </c>
+      <c r="B129" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="1">
+        <v>23053650</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>8893291</v>
+      </c>
+      <c r="B130" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="1">
+        <v>23053673</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>8894137</v>
+      </c>
+      <c r="B131" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="1">
+        <v>23058881</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>8894136</v>
+      </c>
+      <c r="B132" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="1">
+        <v>23058920</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>8893992</v>
+      </c>
+      <c r="B133" s="3">
+        <v>44629</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="1">
+        <v>23058929</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>8895041</v>
+      </c>
+      <c r="B134" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1">
+        <v>23061002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>8894962</v>
+      </c>
+      <c r="B135" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1">
+        <v>23061011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>8894791</v>
+      </c>
+      <c r="B136" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1">
+        <v>23061017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>8895639</v>
+      </c>
+      <c r="B137" s="3">
+        <v>44632</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1">
+        <v>23065129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>8895638</v>
+      </c>
+      <c r="B138" s="3">
+        <v>44632</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>23065135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>8895471</v>
+      </c>
+      <c r="B139" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="1">
+        <v>23065136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D113" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DC964-4A80-4C56-B147-4769C1CF059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375551C-69A5-481C-A70C-3EE9ADA255D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>1.465,45 EUR</t>
+  </si>
+  <si>
+    <t>  15-03-2022</t>
+  </si>
+  <si>
+    <t>  134,66 EUR</t>
   </si>
 </sst>
 </file>
@@ -810,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +876,6 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -884,7 +884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="A140" sqref="A140"/>
@@ -2797,6 +2797,20 @@
         <v>23065136</v>
       </c>
     </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>8896520</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="1">
+        <v>23074514</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D113" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375551C-69A5-481C-A70C-3EE9ADA255D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEDE67-BDC1-4535-9ACB-0418569F6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,6 +52,432 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t>2.939,87 EUR</t>
+  </si>
+  <si>
+    <t>1.139,60 EUR</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>663,61 EUR</t>
+  </si>
+  <si>
+    <t>1.775,05 EUR</t>
+  </si>
+  <si>
+    <t>691,44 EUR</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>32,37 EUR</t>
+  </si>
+  <si>
+    <t>3.195,46 EUR</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>8.234,00 EUR</t>
+  </si>
+  <si>
+    <t>14,73 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>1.122,69 EUR</t>
+  </si>
+  <si>
+    <t>410,91 EUR</t>
+  </si>
+  <si>
+    <t>561,59 EUR</t>
+  </si>
+  <si>
+    <t>329,81 EUR</t>
+  </si>
+  <si>
+    <t>3.450,52 EUR</t>
+  </si>
+  <si>
+    <t>321,87 EUR</t>
+  </si>
+  <si>
+    <t>279,21 EUR</t>
+  </si>
+  <si>
+    <t>7.570,94 EUR</t>
+  </si>
+  <si>
+    <t>129,58 EUR</t>
+  </si>
+  <si>
+    <t>194,20 EUR</t>
+  </si>
+  <si>
+    <t>3.480,28 EUR</t>
+  </si>
+  <si>
+    <t>354,81 EUR</t>
+  </si>
+  <si>
+    <t>332,71 EUR</t>
+  </si>
+  <si>
+    <t>2.132,19 EUR</t>
+  </si>
+  <si>
+    <t>578,98 EUR</t>
+  </si>
+  <si>
+    <t>5.278,43 EUR</t>
+  </si>
+  <si>
+    <t>18,73 EUR</t>
+  </si>
+  <si>
+    <t>548,57 EUR</t>
+  </si>
+  <si>
+    <t>4.269,33 EUR</t>
+  </si>
+  <si>
+    <t>1.081,42 EUR</t>
+  </si>
+  <si>
+    <t>691,72 EUR</t>
+  </si>
+  <si>
+    <t>3.258,23 EUR</t>
+  </si>
+  <si>
+    <t>239,34 EUR</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>2.565,03 EUR</t>
+  </si>
+  <si>
+    <t>423,91 EUR</t>
+  </si>
+  <si>
+    <t>127,95 EUR</t>
+  </si>
+  <si>
+    <t>361,74 EUR</t>
+  </si>
+  <si>
+    <t>1.688,58 EUR</t>
+  </si>
+  <si>
+    <t>381,86 EUR</t>
+  </si>
+  <si>
+    <t>2.577,78 EUR</t>
+  </si>
+  <si>
+    <t>789,82 EUR</t>
+  </si>
+  <si>
+    <t>72,14 EUR</t>
+  </si>
+  <si>
+    <t>1.895,74 EUR</t>
+  </si>
+  <si>
+    <t>315,35 EUR</t>
+  </si>
+  <si>
+    <t>354,31 EUR</t>
+  </si>
+  <si>
+    <t>4.773,22 EUR</t>
+  </si>
+  <si>
+    <t>326,06 EUR</t>
+  </si>
+  <si>
+    <t>2.020,63 EUR</t>
+  </si>
+  <si>
+    <t>6.010,66 EUR</t>
+  </si>
+  <si>
+    <t>238,79 EUR</t>
+  </si>
+  <si>
+    <t>402,15 EUR</t>
+  </si>
+  <si>
+    <t>1.589,20 EUR</t>
+  </si>
+  <si>
+    <t>777,42 EUR</t>
+  </si>
+  <si>
+    <t>1.262,61 EUR</t>
+  </si>
+  <si>
+    <t>338,24 EUR</t>
+  </si>
+  <si>
+    <t>247,00 EUR</t>
+  </si>
+  <si>
+    <t>2.002,35 EUR</t>
+  </si>
+  <si>
+    <t>18,06 EUR</t>
+  </si>
+  <si>
+    <t>282,29 EUR</t>
+  </si>
+  <si>
+    <t>1.440,81 EUR</t>
+  </si>
+  <si>
+    <t>159,25 EUR</t>
+  </si>
+  <si>
+    <t>1.901,44 EUR</t>
+  </si>
+  <si>
+    <t>73,15 EUR</t>
+  </si>
+  <si>
+    <t>147,35 EUR</t>
+  </si>
+  <si>
+    <t>431,30 EUR</t>
+  </si>
+  <si>
+    <t>1.424,80 EUR</t>
+  </si>
+  <si>
+    <t>141,15 EUR</t>
+  </si>
+  <si>
+    <t>1.223,83 EUR</t>
+  </si>
+  <si>
+    <t>802,97 EUR</t>
+  </si>
+  <si>
+    <t>401,12 EUR</t>
+  </si>
+  <si>
+    <t>1.949,79 EUR</t>
+  </si>
+  <si>
+    <t>478,20 EUR</t>
+  </si>
+  <si>
+    <t>384,31 EUR</t>
+  </si>
+  <si>
+    <t>1.226,67 EUR</t>
+  </si>
+  <si>
+    <t>235,74 EUR</t>
+  </si>
+  <si>
+    <t>995,45 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>4.765,99 EUR</t>
+  </si>
+  <si>
+    <t>2.148,31 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>284,46 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.688,80 EUR</t>
+  </si>
+  <si>
+    <t>68,43 EUR</t>
+  </si>
+  <si>
+    <t>441,80 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>3.523,64 EUR</t>
+  </si>
+  <si>
+    <t>28,95 EUR</t>
+  </si>
+  <si>
+    <t>172,73 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>2.009,04 EUR</t>
+  </si>
+  <si>
+    <t>1.947,46 EUR</t>
+  </si>
+  <si>
+    <t>331,53 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>2.493,77 EUR</t>
+  </si>
+  <si>
+    <t>165,45 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>2.346,97 EUR</t>
+  </si>
+  <si>
+    <t>609,50 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>1.078,38 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>9.415,96 EUR</t>
+  </si>
+  <si>
+    <t>197,71 EUR</t>
+  </si>
+  <si>
+    <t>283,65 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>4.616,37 EUR</t>
+  </si>
+  <si>
+    <t>121,39 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>1.780,69 EUR</t>
+  </si>
+  <si>
+    <t>265,14 EUR</t>
+  </si>
+  <si>
+    <t>4.684,82 EUR</t>
+  </si>
+  <si>
+    <t>220,87 EUR</t>
+  </si>
+  <si>
+    <t>1.080,03 EUR</t>
+  </si>
+  <si>
+    <t>62,68 EUR</t>
+  </si>
+  <si>
+    <t>245,59 EUR</t>
+  </si>
+  <si>
+    <t>615,88 EUR</t>
+  </si>
+  <si>
+    <t>734,27 EUR</t>
+  </si>
+  <si>
+    <t>497,45 EUR</t>
+  </si>
+  <si>
+    <t>124,87 EUR</t>
+  </si>
+  <si>
+    <t>386,31 EUR</t>
+  </si>
+  <si>
+    <t>400,24 EUR</t>
+  </si>
+  <si>
+    <t>167,19 EUR</t>
+  </si>
+  <si>
+    <t>1.821,41 EUR</t>
+  </si>
+  <si>
+    <t>1.825,31 EUR</t>
+  </si>
+  <si>
+    <t>155,80 EUR</t>
+  </si>
+  <si>
+    <t>1.195,49 EUR</t>
+  </si>
+  <si>
+    <t>111,39 EUR</t>
+  </si>
+  <si>
+    <t>976,25 EUR</t>
+  </si>
+  <si>
+    <t>2.272,74 EUR</t>
+  </si>
+  <si>
+    <t>703,43 EUR</t>
+  </si>
+  <si>
+    <t>7.328,99 EUR</t>
+  </si>
+  <si>
+    <t>476,33 EUR</t>
+  </si>
+  <si>
+    <t>1.465,45 EUR</t>
+  </si>
+  <si>
+    <t>261,41 EUR</t>
+  </si>
+  <si>
+    <t>2.402,04 EUR</t>
+  </si>
+  <si>
     <t>3.191,31 EUR</t>
   </si>
   <si>
@@ -61,397 +487,67 @@
     <t>286,06 EUR</t>
   </si>
   <si>
-    <t>261,41 EUR</t>
-  </si>
-  <si>
-    <t>2.402,04 EUR</t>
-  </si>
-  <si>
-    <t>247,00 EUR</t>
-  </si>
-  <si>
-    <t>7.328,99 EUR</t>
-  </si>
-  <si>
-    <t>476,33 EUR</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>1.122,69 EUR</t>
-  </si>
-  <si>
-    <t>410,91 EUR</t>
-  </si>
-  <si>
-    <t>561,59 EUR</t>
-  </si>
-  <si>
-    <t>329,81 EUR</t>
-  </si>
-  <si>
-    <t>3.450,52 EUR</t>
-  </si>
-  <si>
-    <t>321,87 EUR</t>
-  </si>
-  <si>
-    <t>279,21 EUR</t>
-  </si>
-  <si>
-    <t>7.570,94 EUR</t>
-  </si>
-  <si>
-    <t>129,58 EUR</t>
-  </si>
-  <si>
-    <t>194,20 EUR</t>
-  </si>
-  <si>
-    <t>3.480,28 EUR</t>
-  </si>
-  <si>
-    <t>354,81 EUR</t>
-  </si>
-  <si>
-    <t>332,71 EUR</t>
-  </si>
-  <si>
-    <t>2.132,19 EUR</t>
-  </si>
-  <si>
-    <t>578,98 EUR</t>
-  </si>
-  <si>
-    <t>5.278,43 EUR</t>
-  </si>
-  <si>
-    <t>18,73 EUR</t>
-  </si>
-  <si>
-    <t>548,57 EUR</t>
-  </si>
-  <si>
-    <t>4.269,33 EUR</t>
-  </si>
-  <si>
-    <t>1.081,42 EUR</t>
-  </si>
-  <si>
-    <t>691,72 EUR</t>
-  </si>
-  <si>
-    <t>3.258,23 EUR</t>
-  </si>
-  <si>
-    <t>239,34 EUR</t>
-  </si>
-  <si>
-    <t>47,95 EUR</t>
-  </si>
-  <si>
-    <t>2.565,03 EUR</t>
-  </si>
-  <si>
-    <t>423,91 EUR</t>
-  </si>
-  <si>
-    <t>127,95 EUR</t>
-  </si>
-  <si>
-    <t>361,74 EUR</t>
-  </si>
-  <si>
-    <t>1.688,58 EUR</t>
-  </si>
-  <si>
-    <t>381,86 EUR</t>
-  </si>
-  <si>
-    <t>2.577,78 EUR</t>
-  </si>
-  <si>
-    <t>789,82 EUR</t>
-  </si>
-  <si>
-    <t>72,14 EUR</t>
-  </si>
-  <si>
-    <t>1.895,74 EUR</t>
-  </si>
-  <si>
-    <t>315,35 EUR</t>
-  </si>
-  <si>
-    <t>354,31 EUR</t>
-  </si>
-  <si>
-    <t>4.773,22 EUR</t>
-  </si>
-  <si>
-    <t>326,06 EUR</t>
-  </si>
-  <si>
-    <t>2.020,63 EUR</t>
-  </si>
-  <si>
-    <t>6.010,66 EUR</t>
-  </si>
-  <si>
-    <t>238,79 EUR</t>
-  </si>
-  <si>
-    <t>402,15 EUR</t>
-  </si>
-  <si>
-    <t>1.589,20 EUR</t>
-  </si>
-  <si>
-    <t>777,42 EUR</t>
-  </si>
-  <si>
-    <t>1.262,61 EUR</t>
-  </si>
-  <si>
-    <t>338,24 EUR</t>
-  </si>
-  <si>
-    <t>2.002,35 EUR</t>
-  </si>
-  <si>
-    <t>18,06 EUR</t>
-  </si>
-  <si>
-    <t>282,29 EUR</t>
-  </si>
-  <si>
-    <t>1.440,81 EUR</t>
-  </si>
-  <si>
-    <t>159,25 EUR</t>
-  </si>
-  <si>
-    <t>1.901,44 EUR</t>
-  </si>
-  <si>
-    <t>73,15 EUR</t>
-  </si>
-  <si>
-    <t>147,35 EUR</t>
-  </si>
-  <si>
-    <t>431,30 EUR</t>
-  </si>
-  <si>
-    <t>1.424,80 EUR</t>
-  </si>
-  <si>
-    <t>141,15 EUR</t>
-  </si>
-  <si>
-    <t>1.223,83 EUR</t>
-  </si>
-  <si>
-    <t>802,97 EUR</t>
-  </si>
-  <si>
-    <t>401,12 EUR</t>
-  </si>
-  <si>
-    <t>1.949,79 EUR</t>
-  </si>
-  <si>
-    <t>478,20 EUR</t>
-  </si>
-  <si>
-    <t>384,31 EUR</t>
-  </si>
-  <si>
-    <t>1.226,67 EUR</t>
-  </si>
-  <si>
-    <t>235,74 EUR</t>
-  </si>
-  <si>
-    <t>995,45 EUR</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>4.765,99 EUR</t>
-  </si>
-  <si>
-    <t>2.148,31 EUR</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>284,46 EUR</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>2.688,80 EUR</t>
-  </si>
-  <si>
-    <t>68,43 EUR</t>
-  </si>
-  <si>
-    <t>441,80 EUR</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>3.523,64 EUR</t>
-  </si>
-  <si>
-    <t>28,95 EUR</t>
-  </si>
-  <si>
-    <t>172,73 EUR</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>2.009,04 EUR</t>
-  </si>
-  <si>
-    <t>1.947,46 EUR</t>
-  </si>
-  <si>
-    <t>331,53 EUR</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>2.493,77 EUR</t>
-  </si>
-  <si>
-    <t>165,45 EUR</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>2.346,97 EUR</t>
-  </si>
-  <si>
-    <t>609,50 EUR</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>1.078,38 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>9.415,96 EUR</t>
-  </si>
-  <si>
-    <t>197,71 EUR</t>
-  </si>
-  <si>
-    <t>283,65 EUR</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>4.616,37 EUR</t>
-  </si>
-  <si>
-    <t>121,39 EUR</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>1.780,69 EUR</t>
-  </si>
-  <si>
-    <t>265,14 EUR</t>
-  </si>
-  <si>
-    <t>4.684,82 EUR</t>
-  </si>
-  <si>
-    <t>220,87 EUR</t>
-  </si>
-  <si>
-    <t>1.080,03 EUR</t>
-  </si>
-  <si>
-    <t>62,68 EUR</t>
-  </si>
-  <si>
-    <t>245,59 EUR</t>
-  </si>
-  <si>
-    <t>615,88 EUR</t>
-  </si>
-  <si>
-    <t>734,27 EUR</t>
-  </si>
-  <si>
-    <t>497,45 EUR</t>
-  </si>
-  <si>
-    <t>124,87 EUR</t>
-  </si>
-  <si>
-    <t>386,31 EUR</t>
-  </si>
-  <si>
-    <t>400,24 EUR</t>
-  </si>
-  <si>
-    <t>167,19 EUR</t>
-  </si>
-  <si>
-    <t>1.821,41 EUR</t>
-  </si>
-  <si>
-    <t>1.825,31 EUR</t>
-  </si>
-  <si>
-    <t>155,80 EUR</t>
-  </si>
-  <si>
-    <t>1.195,49 EUR</t>
-  </si>
-  <si>
-    <t>111,39 EUR</t>
-  </si>
-  <si>
-    <t>976,25 EUR</t>
-  </si>
-  <si>
-    <t>2.272,74 EUR</t>
-  </si>
-  <si>
-    <t>703,43 EUR</t>
-  </si>
-  <si>
-    <t>1.465,45 EUR</t>
-  </si>
-  <si>
     <t>  15-03-2022</t>
   </si>
   <si>
     <t>  134,66 EUR</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>684,36 EUR</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>1.934,95 EUR</t>
+  </si>
+  <si>
+    <t>881,14 EUR</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>269,31 EUR</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>1.058,92 EUR</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>10.767,89 EUR</t>
+  </si>
+  <si>
+    <t>78,60 EUR</t>
+  </si>
+  <si>
+    <t>2.705,18 EUR</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>58,79 EUR</t>
+  </si>
+  <si>
+    <t>2.015,73 EUR</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>8,00 EUR</t>
+  </si>
+  <si>
+    <t>825,40 EUR</t>
   </si>
 </sst>
 </file>
@@ -819,7 +915,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="A140" sqref="A140 A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1097,7 +1193,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
         <v>22880540</v>
@@ -1111,7 +1207,7 @@
         <v>44574</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>22880561</v>
@@ -1125,7 +1221,7 @@
         <v>44574</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>22880565</v>
@@ -1139,7 +1235,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>22880602</v>
@@ -1153,7 +1249,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <v>22883949</v>
@@ -1167,7 +1263,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
         <v>22883970</v>
@@ -1181,7 +1277,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
         <v>22884000</v>
@@ -1195,7 +1291,7 @@
         <v>44576</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>22887862</v>
@@ -1209,7 +1305,7 @@
         <v>44576</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1">
         <v>22887865</v>
@@ -1223,7 +1319,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
         <v>22887900</v>
@@ -1237,7 +1333,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
         <v>22892132</v>
@@ -1251,7 +1347,7 @@
         <v>44579</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1">
         <v>22892162</v>
@@ -1265,7 +1361,7 @@
         <v>44578</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1">
         <v>22892167</v>
@@ -1279,7 +1375,7 @@
         <v>44580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
         <v>22896062</v>
@@ -1293,7 +1389,7 @@
         <v>44580</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1">
         <v>22896075</v>
@@ -1307,7 +1403,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1">
         <v>22900131</v>
@@ -1321,7 +1417,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1">
         <v>22900150</v>
@@ -1335,7 +1431,7 @@
         <v>44580</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1">
         <v>22900154</v>
@@ -1349,7 +1445,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1">
         <v>22903020</v>
@@ -1363,7 +1459,7 @@
         <v>44582</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1">
         <v>22903061</v>
@@ -1377,7 +1473,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
         <v>22903068</v>
@@ -1391,7 +1487,7 @@
         <v>44583</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
         <v>22907522</v>
@@ -1405,7 +1501,7 @@
         <v>44583</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>22907540</v>
@@ -1419,7 +1515,7 @@
         <v>44586</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1">
         <v>22913240</v>
@@ -1433,7 +1529,7 @@
         <v>44586</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1">
         <v>22913262</v>
@@ -1447,7 +1543,7 @@
         <v>44586</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1">
         <v>22913330</v>
@@ -1461,7 +1557,7 @@
         <v>44585</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1">
         <v>22913351</v>
@@ -1475,7 +1571,7 @@
         <v>44587</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1">
         <v>22915442</v>
@@ -1489,7 +1585,7 @@
         <v>44587</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1">
         <v>22915470</v>
@@ -1503,7 +1599,7 @@
         <v>44587</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1">
         <v>22915474</v>
@@ -1517,7 +1613,7 @@
         <v>44586</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1">
         <v>22915478</v>
@@ -1531,7 +1627,7 @@
         <v>44588</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D49" s="1">
         <v>22920250</v>
@@ -1545,7 +1641,7 @@
         <v>44588</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1">
         <v>22920256</v>
@@ -1559,7 +1655,7 @@
         <v>44589</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
         <v>22925080</v>
@@ -1573,7 +1669,7 @@
         <v>44589</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D52" s="1">
         <v>22925082</v>
@@ -1587,7 +1683,7 @@
         <v>44588</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1">
         <v>22925100</v>
@@ -1601,7 +1697,7 @@
         <v>44590</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1">
         <v>22928530</v>
@@ -1615,7 +1711,7 @@
         <v>44590</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D55" s="1">
         <v>22928610</v>
@@ -1629,7 +1725,7 @@
         <v>44589</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D56" s="1">
         <v>22928680</v>
@@ -1643,7 +1739,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1">
         <v>22934681</v>
@@ -1657,7 +1753,7 @@
         <v>44593</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D58" s="1">
         <v>22934700</v>
@@ -1671,7 +1767,7 @@
         <v>44592</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D59" s="1">
         <v>22934741</v>
@@ -1685,7 +1781,7 @@
         <v>44594</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D60" s="1">
         <v>22952915</v>
@@ -1699,7 +1795,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1">
         <v>22952930</v>
@@ -1713,7 +1809,7 @@
         <v>44596</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1">
         <v>22961961</v>
@@ -1727,7 +1823,7 @@
         <v>44596</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1">
         <v>22961983</v>
@@ -1741,7 +1837,7 @@
         <v>44595</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D64" s="1">
         <v>22961988</v>
@@ -1755,7 +1851,7 @@
         <v>44595</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1">
         <v>22961990</v>
@@ -1769,7 +1865,7 @@
         <v>44595</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1">
         <v>22961998</v>
@@ -1783,7 +1879,7 @@
         <v>44595</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1">
         <v>22962006</v>
@@ -1797,7 +1893,7 @@
         <v>44597</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1">
         <v>22965320</v>
@@ -1811,7 +1907,7 @@
         <v>44597</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1">
         <v>22965343</v>
@@ -1825,7 +1921,7 @@
         <v>44596</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D70" s="1">
         <v>22965382</v>
@@ -1839,7 +1935,7 @@
         <v>44600</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>22971260</v>
@@ -1853,7 +1949,7 @@
         <v>44600</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>22971265</v>
@@ -1867,7 +1963,7 @@
         <v>44599</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1">
         <v>22971280</v>
@@ -1881,7 +1977,7 @@
         <v>44601</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1">
         <v>22975346</v>
@@ -1895,7 +1991,7 @@
         <v>44601</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1">
         <v>22975349</v>
@@ -1909,7 +2005,7 @@
         <v>44601</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1">
         <v>22975373</v>
@@ -1923,7 +2019,7 @@
         <v>44602</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>22979490</v>
@@ -1937,7 +2033,7 @@
         <v>44602</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>22979500</v>
@@ -1951,7 +2047,7 @@
         <v>44601</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D79" s="1">
         <v>22979527</v>
@@ -1965,7 +2061,7 @@
         <v>44603</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1">
         <v>22982976</v>
@@ -1979,7 +2075,7 @@
         <v>44603</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1">
         <v>22983000</v>
@@ -1993,7 +2089,7 @@
         <v>44602</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>22983026</v>
@@ -2007,7 +2103,7 @@
         <v>44604</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D83" s="1">
         <v>22986180</v>
@@ -2021,7 +2117,7 @@
         <v>44604</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1">
         <v>22986189</v>
@@ -2035,7 +2131,7 @@
         <v>44603</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D85" s="1">
         <v>22986192</v>
@@ -2046,10 +2142,10 @@
         <v>8882092</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D86" s="1">
         <v>22991973</v>
@@ -2060,10 +2156,10 @@
         <v>8882091</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D87" s="1">
         <v>22991992</v>
@@ -2074,10 +2170,10 @@
         <v>8881914</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D88" s="1">
         <v>22992010</v>
@@ -2088,10 +2184,10 @@
         <v>8882828</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D89" s="1">
         <v>22996430</v>
@@ -2102,10 +2198,10 @@
         <v>8882827</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D90" s="1">
         <v>22996432</v>
@@ -2116,10 +2212,10 @@
         <v>8882641</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D91" s="1">
         <v>22996470</v>
@@ -2130,10 +2226,10 @@
         <v>8883577</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D92" s="1">
         <v>23001020</v>
@@ -2144,10 +2240,10 @@
         <v>8883576</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1">
         <v>23001041</v>
@@ -2158,10 +2254,10 @@
         <v>8883467</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D94" s="1">
         <v>23001062</v>
@@ -2172,10 +2268,10 @@
         <v>8884309</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D95" s="1">
         <v>23003013</v>
@@ -2186,10 +2282,10 @@
         <v>8884308</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D96" s="1">
         <v>23003017</v>
@@ -2200,10 +2296,10 @@
         <v>8884126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D97" s="1">
         <v>23003030</v>
@@ -2214,10 +2310,10 @@
         <v>8885007</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D98" s="1">
         <v>23007111</v>
@@ -2228,10 +2324,10 @@
         <v>8885006</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D99" s="1">
         <v>23007492</v>
@@ -2242,10 +2338,10 @@
         <v>8885722</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D100" s="1">
         <v>23011250</v>
@@ -2256,10 +2352,10 @@
         <v>8885721</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D101" s="1">
         <v>23011272</v>
@@ -2270,10 +2366,10 @@
         <v>8885610</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D102" s="1">
         <v>23011293</v>
@@ -2284,10 +2380,10 @@
         <v>8886502</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D103" s="1">
         <v>23015272</v>
@@ -2298,10 +2394,10 @@
         <v>8886501</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D104" s="1">
         <v>23015303</v>
@@ -2312,10 +2408,10 @@
         <v>8886283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D105" s="1">
         <v>23015350</v>
@@ -2326,10 +2422,10 @@
         <v>8887204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D106" s="1">
         <v>23018820</v>
@@ -2340,10 +2436,10 @@
         <v>8887203</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D107" s="1">
         <v>23018861</v>
@@ -2354,10 +2450,10 @@
         <v>8887882</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D108" s="1">
         <v>23023023</v>
@@ -2368,10 +2464,10 @@
         <v>8887706</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D109" s="1">
         <v>23023271</v>
@@ -2385,7 +2481,7 @@
         <v>44621</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D110" s="1">
         <v>23029770</v>
@@ -2399,7 +2495,7 @@
         <v>44621</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D111" s="1">
         <v>23029775</v>
@@ -2410,10 +2506,10 @@
         <v>8888435</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D112" s="1">
         <v>23029813</v>
@@ -2424,10 +2520,10 @@
         <v>8887881</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D113" s="1">
         <v>23023041</v>
@@ -2441,7 +2537,7 @@
         <v>44622</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D114" s="1">
         <v>23033790</v>
@@ -2455,7 +2551,7 @@
         <v>44622</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D115" s="1">
         <v>23033841</v>
@@ -2469,7 +2565,7 @@
         <v>44621</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1">
         <v>23033846</v>
@@ -2483,7 +2579,7 @@
         <v>44623</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D117" s="1">
         <v>23036470</v>
@@ -2497,7 +2593,7 @@
         <v>44623</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D118" s="1">
         <v>23036473</v>
@@ -2511,7 +2607,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D119" s="1">
         <v>23036479</v>
@@ -2525,7 +2621,7 @@
         <v>44624</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D120" s="1">
         <v>23040676</v>
@@ -2539,7 +2635,7 @@
         <v>44624</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D121" s="1">
         <v>23040681</v>
@@ -2553,7 +2649,7 @@
         <v>44624</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D122" s="1">
         <v>23040682</v>
@@ -2567,7 +2663,7 @@
         <v>44625</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D123" s="1">
         <v>23044387</v>
@@ -2581,7 +2677,7 @@
         <v>44625</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1">
         <v>23044393</v>
@@ -2595,7 +2691,7 @@
         <v>44628</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D125" s="1">
         <v>23048542</v>
@@ -2609,7 +2705,7 @@
         <v>44628</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D126" s="1">
         <v>23048564</v>
@@ -2623,7 +2719,7 @@
         <v>44627</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D127" s="1">
         <v>23048569</v>
@@ -2637,7 +2733,7 @@
         <v>44629</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D128" s="1">
         <v>23053630</v>
@@ -2651,7 +2747,7 @@
         <v>44629</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D129" s="1">
         <v>23053650</v>
@@ -2665,7 +2761,7 @@
         <v>44629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D130" s="1">
         <v>23053673</v>
@@ -2679,7 +2775,7 @@
         <v>44630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="D131" s="1">
         <v>23058881</v>
@@ -2693,7 +2789,7 @@
         <v>44630</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="D132" s="1">
         <v>23058920</v>
@@ -2707,7 +2803,7 @@
         <v>44629</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D133" s="1">
         <v>23058929</v>
@@ -2721,7 +2817,7 @@
         <v>44631</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D134" s="1">
         <v>23061002</v>
@@ -2735,7 +2831,7 @@
         <v>44631</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D135" s="1">
         <v>23061011</v>
@@ -2749,7 +2845,7 @@
         <v>44630</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D136" s="1">
         <v>23061017</v>
@@ -2763,7 +2859,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D137" s="1">
         <v>23065129</v>
@@ -2777,7 +2873,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1">
         <v>23065135</v>
@@ -2791,7 +2887,7 @@
         <v>44631</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="D139" s="1">
         <v>23065136</v>
@@ -2802,13 +2898,307 @@
         <v>8896520</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D140" s="1">
         <v>23074514</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>8897059</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="1">
+        <v>23077004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>8898493</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="1">
+        <v>23083173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>8898482</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D143" s="1">
+        <v>23083210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>8898723</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="1">
+        <v>23086948</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>8899668</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" s="1">
+        <v>23091031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>8899220</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="1">
+        <v>23091037</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>8899117</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147" s="1">
+        <v>23091084</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>8899886</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="1">
+        <v>23094229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>8900775</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" s="1">
+        <v>23098085</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>8900718</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="1">
+        <v>23098090</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>8900582</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" s="1">
+        <v>23098120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>8900335</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D152" s="1">
+        <v>23098145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>8901776</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1">
+        <v>23103150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>8901755</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="1">
+        <v>23103172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>8901330</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="1">
+        <v>23103191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>8901329</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="1">
+        <v>23103194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>8902166</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="1">
+        <v>23106854</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>8902165</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1">
+        <v>23106873</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>8902885</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1">
+        <v>23111770</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>8902884</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>23111822</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>8902729</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="1">
+        <v>23111862</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEDE67-BDC1-4535-9ACB-0418569F6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F897A253-663C-4B87-BB2A-99CCD22E24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="187">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,6 +52,516 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>2.175,72 EUR</t>
+  </si>
+  <si>
+    <t>92,44 EUR</t>
+  </si>
+  <si>
+    <t>239,83 EUR</t>
+  </si>
+  <si>
+    <t>1.015,19 EUR</t>
+  </si>
+  <si>
+    <t>244,89 EUR</t>
+  </si>
+  <si>
+    <t>22,83 EUR</t>
+  </si>
+  <si>
+    <t>1.318,29 EUR</t>
+  </si>
+  <si>
+    <t>857,27 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>1.122,69 EUR</t>
+  </si>
+  <si>
+    <t>410,91 EUR</t>
+  </si>
+  <si>
+    <t>561,59 EUR</t>
+  </si>
+  <si>
+    <t>329,81 EUR</t>
+  </si>
+  <si>
+    <t>3.450,52 EUR</t>
+  </si>
+  <si>
+    <t>321,87 EUR</t>
+  </si>
+  <si>
+    <t>279,21 EUR</t>
+  </si>
+  <si>
+    <t>7.570,94 EUR</t>
+  </si>
+  <si>
+    <t>129,58 EUR</t>
+  </si>
+  <si>
+    <t>194,20 EUR</t>
+  </si>
+  <si>
+    <t>3.480,28 EUR</t>
+  </si>
+  <si>
+    <t>354,81 EUR</t>
+  </si>
+  <si>
+    <t>332,71 EUR</t>
+  </si>
+  <si>
+    <t>2.132,19 EUR</t>
+  </si>
+  <si>
+    <t>578,98 EUR</t>
+  </si>
+  <si>
+    <t>5.278,43 EUR</t>
+  </si>
+  <si>
+    <t>18,73 EUR</t>
+  </si>
+  <si>
+    <t>548,57 EUR</t>
+  </si>
+  <si>
+    <t>4.269,33 EUR</t>
+  </si>
+  <si>
+    <t>1.081,42 EUR</t>
+  </si>
+  <si>
+    <t>691,72 EUR</t>
+  </si>
+  <si>
+    <t>3.258,23 EUR</t>
+  </si>
+  <si>
+    <t>239,34 EUR</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>2.565,03 EUR</t>
+  </si>
+  <si>
+    <t>423,91 EUR</t>
+  </si>
+  <si>
+    <t>127,95 EUR</t>
+  </si>
+  <si>
+    <t>361,74 EUR</t>
+  </si>
+  <si>
+    <t>1.688,58 EUR</t>
+  </si>
+  <si>
+    <t>381,86 EUR</t>
+  </si>
+  <si>
+    <t>2.577,78 EUR</t>
+  </si>
+  <si>
+    <t>789,82 EUR</t>
+  </si>
+  <si>
+    <t>72,14 EUR</t>
+  </si>
+  <si>
+    <t>1.895,74 EUR</t>
+  </si>
+  <si>
+    <t>315,35 EUR</t>
+  </si>
+  <si>
+    <t>354,31 EUR</t>
+  </si>
+  <si>
+    <t>4.773,22 EUR</t>
+  </si>
+  <si>
+    <t>326,06 EUR</t>
+  </si>
+  <si>
+    <t>2.020,63 EUR</t>
+  </si>
+  <si>
+    <t>6.010,66 EUR</t>
+  </si>
+  <si>
+    <t>238,79 EUR</t>
+  </si>
+  <si>
+    <t>402,15 EUR</t>
+  </si>
+  <si>
+    <t>1.589,20 EUR</t>
+  </si>
+  <si>
+    <t>777,42 EUR</t>
+  </si>
+  <si>
+    <t>1.262,61 EUR</t>
+  </si>
+  <si>
+    <t>338,24 EUR</t>
+  </si>
+  <si>
+    <t>247,00 EUR</t>
+  </si>
+  <si>
+    <t>2.002,35 EUR</t>
+  </si>
+  <si>
+    <t>18,06 EUR</t>
+  </si>
+  <si>
+    <t>282,29 EUR</t>
+  </si>
+  <si>
+    <t>1.440,81 EUR</t>
+  </si>
+  <si>
+    <t>159,25 EUR</t>
+  </si>
+  <si>
+    <t>1.901,44 EUR</t>
+  </si>
+  <si>
+    <t>73,15 EUR</t>
+  </si>
+  <si>
+    <t>147,35 EUR</t>
+  </si>
+  <si>
+    <t>431,30 EUR</t>
+  </si>
+  <si>
+    <t>1.424,80 EUR</t>
+  </si>
+  <si>
+    <t>141,15 EUR</t>
+  </si>
+  <si>
+    <t>1.223,83 EUR</t>
+  </si>
+  <si>
+    <t>802,97 EUR</t>
+  </si>
+  <si>
+    <t>401,12 EUR</t>
+  </si>
+  <si>
+    <t>1.949,79 EUR</t>
+  </si>
+  <si>
+    <t>478,20 EUR</t>
+  </si>
+  <si>
+    <t>384,31 EUR</t>
+  </si>
+  <si>
+    <t>1.226,67 EUR</t>
+  </si>
+  <si>
+    <t>235,74 EUR</t>
+  </si>
+  <si>
+    <t>995,45 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>4.765,99 EUR</t>
+  </si>
+  <si>
+    <t>2.148,31 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>284,46 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.688,80 EUR</t>
+  </si>
+  <si>
+    <t>68,43 EUR</t>
+  </si>
+  <si>
+    <t>441,80 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>3.523,64 EUR</t>
+  </si>
+  <si>
+    <t>28,95 EUR</t>
+  </si>
+  <si>
+    <t>172,73 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>2.009,04 EUR</t>
+  </si>
+  <si>
+    <t>1.947,46 EUR</t>
+  </si>
+  <si>
+    <t>331,53 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>2.493,77 EUR</t>
+  </si>
+  <si>
+    <t>165,45 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>2.346,97 EUR</t>
+  </si>
+  <si>
+    <t>609,50 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>1.078,38 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>9.415,96 EUR</t>
+  </si>
+  <si>
+    <t>197,71 EUR</t>
+  </si>
+  <si>
+    <t>283,65 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>4.616,37 EUR</t>
+  </si>
+  <si>
+    <t>121,39 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>1.780,69 EUR</t>
+  </si>
+  <si>
+    <t>265,14 EUR</t>
+  </si>
+  <si>
+    <t>4.684,82 EUR</t>
+  </si>
+  <si>
+    <t>220,87 EUR</t>
+  </si>
+  <si>
+    <t>1.080,03 EUR</t>
+  </si>
+  <si>
+    <t>62,68 EUR</t>
+  </si>
+  <si>
+    <t>245,59 EUR</t>
+  </si>
+  <si>
+    <t>615,88 EUR</t>
+  </si>
+  <si>
+    <t>734,27 EUR</t>
+  </si>
+  <si>
+    <t>497,45 EUR</t>
+  </si>
+  <si>
+    <t>124,87 EUR</t>
+  </si>
+  <si>
+    <t>386,31 EUR</t>
+  </si>
+  <si>
+    <t>400,24 EUR</t>
+  </si>
+  <si>
+    <t>167,19 EUR</t>
+  </si>
+  <si>
+    <t>1.821,41 EUR</t>
+  </si>
+  <si>
+    <t>1.825,31 EUR</t>
+  </si>
+  <si>
+    <t>155,80 EUR</t>
+  </si>
+  <si>
+    <t>1.195,49 EUR</t>
+  </si>
+  <si>
+    <t>111,39 EUR</t>
+  </si>
+  <si>
+    <t>976,25 EUR</t>
+  </si>
+  <si>
+    <t>2.272,74 EUR</t>
+  </si>
+  <si>
+    <t>703,43 EUR</t>
+  </si>
+  <si>
+    <t>7.328,99 EUR</t>
+  </si>
+  <si>
+    <t>476,33 EUR</t>
+  </si>
+  <si>
+    <t>1.465,45 EUR</t>
+  </si>
+  <si>
+    <t>261,41 EUR</t>
+  </si>
+  <si>
+    <t>2.402,04 EUR</t>
+  </si>
+  <si>
+    <t>3.191,31 EUR</t>
+  </si>
+  <si>
+    <t>9.506,05 EUR</t>
+  </si>
+  <si>
+    <t>286,06 EUR</t>
+  </si>
+  <si>
+    <t>  15-03-2022</t>
+  </si>
+  <si>
+    <t>  134,66 EUR</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>684,36 EUR</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>1.934,95 EUR</t>
+  </si>
+  <si>
+    <t>881,14 EUR</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>269,31 EUR</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>1.058,92 EUR</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>10.767,89 EUR</t>
+  </si>
+  <si>
+    <t>78,60 EUR</t>
+  </si>
+  <si>
+    <t>2.705,18 EUR</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>58,79 EUR</t>
+  </si>
+  <si>
+    <t>2.015,73 EUR</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>8,00 EUR</t>
+  </si>
+  <si>
+    <t>825,40 EUR</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>32,37 EUR</t>
+  </si>
+  <si>
+    <t>3.195,46 EUR</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>8.234,00 EUR</t>
+  </si>
+  <si>
+    <t>14,73 EUR</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>1.775,05 EUR</t>
+  </si>
+  <si>
+    <t>691,44 EUR</t>
+  </si>
+  <si>
     <t>30-03-2022</t>
   </si>
   <si>
@@ -61,493 +571,34 @@
     <t>1.139,60 EUR</t>
   </si>
   <si>
-    <t>29-03-2022</t>
-  </si>
-  <si>
     <t>663,61 EUR</t>
   </si>
   <si>
-    <t>1.775,05 EUR</t>
-  </si>
-  <si>
-    <t>691,44 EUR</t>
-  </si>
-  <si>
-    <t>27-03-2022</t>
-  </si>
-  <si>
-    <t>32,37 EUR</t>
-  </si>
-  <si>
-    <t>3.195,46 EUR</t>
-  </si>
-  <si>
-    <t>26-03-2022</t>
-  </si>
-  <si>
-    <t>8.234,00 EUR</t>
-  </si>
-  <si>
-    <t>14,73 EUR</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>1.122,69 EUR</t>
-  </si>
-  <si>
-    <t>410,91 EUR</t>
-  </si>
-  <si>
-    <t>561,59 EUR</t>
-  </si>
-  <si>
-    <t>329,81 EUR</t>
-  </si>
-  <si>
-    <t>3.450,52 EUR</t>
-  </si>
-  <si>
-    <t>321,87 EUR</t>
-  </si>
-  <si>
-    <t>279,21 EUR</t>
-  </si>
-  <si>
-    <t>7.570,94 EUR</t>
-  </si>
-  <si>
-    <t>129,58 EUR</t>
-  </si>
-  <si>
-    <t>194,20 EUR</t>
-  </si>
-  <si>
-    <t>3.480,28 EUR</t>
-  </si>
-  <si>
-    <t>354,81 EUR</t>
-  </si>
-  <si>
-    <t>332,71 EUR</t>
-  </si>
-  <si>
-    <t>2.132,19 EUR</t>
-  </si>
-  <si>
-    <t>578,98 EUR</t>
-  </si>
-  <si>
-    <t>5.278,43 EUR</t>
-  </si>
-  <si>
-    <t>18,73 EUR</t>
-  </si>
-  <si>
-    <t>548,57 EUR</t>
-  </si>
-  <si>
-    <t>4.269,33 EUR</t>
-  </si>
-  <si>
-    <t>1.081,42 EUR</t>
-  </si>
-  <si>
-    <t>691,72 EUR</t>
-  </si>
-  <si>
-    <t>3.258,23 EUR</t>
-  </si>
-  <si>
-    <t>239,34 EUR</t>
-  </si>
-  <si>
-    <t>47,95 EUR</t>
-  </si>
-  <si>
-    <t>2.565,03 EUR</t>
-  </si>
-  <si>
-    <t>423,91 EUR</t>
-  </si>
-  <si>
-    <t>127,95 EUR</t>
-  </si>
-  <si>
-    <t>361,74 EUR</t>
-  </si>
-  <si>
-    <t>1.688,58 EUR</t>
-  </si>
-  <si>
-    <t>381,86 EUR</t>
-  </si>
-  <si>
-    <t>2.577,78 EUR</t>
-  </si>
-  <si>
-    <t>789,82 EUR</t>
-  </si>
-  <si>
-    <t>72,14 EUR</t>
-  </si>
-  <si>
-    <t>1.895,74 EUR</t>
-  </si>
-  <si>
-    <t>315,35 EUR</t>
-  </si>
-  <si>
-    <t>354,31 EUR</t>
-  </si>
-  <si>
-    <t>4.773,22 EUR</t>
-  </si>
-  <si>
-    <t>326,06 EUR</t>
-  </si>
-  <si>
-    <t>2.020,63 EUR</t>
-  </si>
-  <si>
-    <t>6.010,66 EUR</t>
-  </si>
-  <si>
-    <t>238,79 EUR</t>
-  </si>
-  <si>
-    <t>402,15 EUR</t>
-  </si>
-  <si>
-    <t>1.589,20 EUR</t>
-  </si>
-  <si>
-    <t>777,42 EUR</t>
-  </si>
-  <si>
-    <t>1.262,61 EUR</t>
-  </si>
-  <si>
-    <t>338,24 EUR</t>
-  </si>
-  <si>
-    <t>247,00 EUR</t>
-  </si>
-  <si>
-    <t>2.002,35 EUR</t>
-  </si>
-  <si>
-    <t>18,06 EUR</t>
-  </si>
-  <si>
-    <t>282,29 EUR</t>
-  </si>
-  <si>
-    <t>1.440,81 EUR</t>
-  </si>
-  <si>
-    <t>159,25 EUR</t>
-  </si>
-  <si>
-    <t>1.901,44 EUR</t>
-  </si>
-  <si>
-    <t>73,15 EUR</t>
-  </si>
-  <si>
-    <t>147,35 EUR</t>
-  </si>
-  <si>
-    <t>431,30 EUR</t>
-  </si>
-  <si>
-    <t>1.424,80 EUR</t>
-  </si>
-  <si>
-    <t>141,15 EUR</t>
-  </si>
-  <si>
-    <t>1.223,83 EUR</t>
-  </si>
-  <si>
-    <t>802,97 EUR</t>
-  </si>
-  <si>
-    <t>401,12 EUR</t>
-  </si>
-  <si>
-    <t>1.949,79 EUR</t>
-  </si>
-  <si>
-    <t>478,20 EUR</t>
-  </si>
-  <si>
-    <t>384,31 EUR</t>
-  </si>
-  <si>
-    <t>1.226,67 EUR</t>
-  </si>
-  <si>
-    <t>235,74 EUR</t>
-  </si>
-  <si>
-    <t>995,45 EUR</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>4.765,99 EUR</t>
-  </si>
-  <si>
-    <t>2.148,31 EUR</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>284,46 EUR</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>2.688,80 EUR</t>
-  </si>
-  <si>
-    <t>68,43 EUR</t>
-  </si>
-  <si>
-    <t>441,80 EUR</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>3.523,64 EUR</t>
-  </si>
-  <si>
-    <t>28,95 EUR</t>
-  </si>
-  <si>
-    <t>172,73 EUR</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>2.009,04 EUR</t>
-  </si>
-  <si>
-    <t>1.947,46 EUR</t>
-  </si>
-  <si>
-    <t>331,53 EUR</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>2.493,77 EUR</t>
-  </si>
-  <si>
-    <t>165,45 EUR</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>2.346,97 EUR</t>
-  </si>
-  <si>
-    <t>609,50 EUR</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>1.078,38 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>9.415,96 EUR</t>
-  </si>
-  <si>
-    <t>197,71 EUR</t>
-  </si>
-  <si>
-    <t>283,65 EUR</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>4.616,37 EUR</t>
-  </si>
-  <si>
-    <t>121,39 EUR</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>1.780,69 EUR</t>
-  </si>
-  <si>
-    <t>265,14 EUR</t>
-  </si>
-  <si>
-    <t>4.684,82 EUR</t>
-  </si>
-  <si>
-    <t>220,87 EUR</t>
-  </si>
-  <si>
-    <t>1.080,03 EUR</t>
-  </si>
-  <si>
-    <t>62,68 EUR</t>
-  </si>
-  <si>
-    <t>245,59 EUR</t>
-  </si>
-  <si>
-    <t>615,88 EUR</t>
-  </si>
-  <si>
-    <t>734,27 EUR</t>
-  </si>
-  <si>
-    <t>497,45 EUR</t>
-  </si>
-  <si>
-    <t>124,87 EUR</t>
-  </si>
-  <si>
-    <t>386,31 EUR</t>
-  </si>
-  <si>
-    <t>400,24 EUR</t>
-  </si>
-  <si>
-    <t>167,19 EUR</t>
-  </si>
-  <si>
-    <t>1.821,41 EUR</t>
-  </si>
-  <si>
-    <t>1.825,31 EUR</t>
-  </si>
-  <si>
-    <t>155,80 EUR</t>
-  </si>
-  <si>
-    <t>1.195,49 EUR</t>
-  </si>
-  <si>
-    <t>111,39 EUR</t>
-  </si>
-  <si>
-    <t>976,25 EUR</t>
-  </si>
-  <si>
-    <t>2.272,74 EUR</t>
-  </si>
-  <si>
-    <t>703,43 EUR</t>
-  </si>
-  <si>
-    <t>7.328,99 EUR</t>
-  </si>
-  <si>
-    <t>476,33 EUR</t>
-  </si>
-  <si>
-    <t>1.465,45 EUR</t>
-  </si>
-  <si>
-    <t>261,41 EUR</t>
-  </si>
-  <si>
-    <t>2.402,04 EUR</t>
-  </si>
-  <si>
-    <t>3.191,31 EUR</t>
-  </si>
-  <si>
-    <t>9.506,05 EUR</t>
-  </si>
-  <si>
-    <t>286,06 EUR</t>
-  </si>
-  <si>
-    <t>  15-03-2022</t>
-  </si>
-  <si>
-    <t>  134,66 EUR</t>
-  </si>
-  <si>
-    <t>16-03-2022</t>
-  </si>
-  <si>
-    <t>684,36 EUR</t>
-  </si>
-  <si>
-    <t>19-03-2022</t>
-  </si>
-  <si>
-    <t>1.934,95 EUR</t>
-  </si>
-  <si>
-    <t>881,14 EUR</t>
-  </si>
-  <si>
-    <t>21-03-2022</t>
-  </si>
-  <si>
-    <t>269,31 EUR</t>
-  </si>
-  <si>
-    <t>23-03-2022</t>
-  </si>
-  <si>
-    <t>1.058,92 EUR</t>
-  </si>
-  <si>
-    <t>22-03-2022</t>
-  </si>
-  <si>
-    <t>10.767,89 EUR</t>
-  </si>
-  <si>
-    <t>78,60 EUR</t>
-  </si>
-  <si>
-    <t>2.705,18 EUR</t>
-  </si>
-  <si>
-    <t>25-03-2022</t>
-  </si>
-  <si>
-    <t>58,79 EUR</t>
-  </si>
-  <si>
-    <t>2.015,73 EUR</t>
-  </si>
-  <si>
-    <t>24-03-2022</t>
-  </si>
-  <si>
-    <t>8,00 EUR</t>
-  </si>
-  <si>
-    <t>825,40 EUR</t>
+    <t>31-03-2022</t>
+  </si>
+  <si>
+    <t>3.627,96 EUR</t>
+  </si>
+  <si>
+    <t>658,99 EUR</t>
+  </si>
+  <si>
+    <t>325,83 EUR</t>
+  </si>
+  <si>
+    <t>1.734,63 EUR</t>
+  </si>
+  <si>
+    <t>280,42 EUR</t>
+  </si>
+  <si>
+    <t>1.892,53 EUR</t>
+  </si>
+  <si>
+    <t>1.460,46 EUR</t>
+  </si>
+  <si>
+    <t>95,48 EUR</t>
   </si>
 </sst>
 </file>
@@ -912,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3 A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,15 +1014,6 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -980,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140 A140"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1193,7 +1235,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>22880540</v>
@@ -1207,7 +1249,7 @@
         <v>44574</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>22880561</v>
@@ -1221,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <v>22880565</v>
@@ -1235,7 +1277,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>22880602</v>
@@ -1249,7 +1291,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>22883949</v>
@@ -1263,7 +1305,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
         <v>22883970</v>
@@ -1277,7 +1319,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
         <v>22884000</v>
@@ -1291,7 +1333,7 @@
         <v>44576</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>22887862</v>
@@ -1305,7 +1347,7 @@
         <v>44576</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1">
         <v>22887865</v>
@@ -1319,7 +1361,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>22887900</v>
@@ -1333,7 +1375,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
         <v>22892132</v>
@@ -1347,7 +1389,7 @@
         <v>44579</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
         <v>22892162</v>
@@ -1361,7 +1403,7 @@
         <v>44578</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
         <v>22892167</v>
@@ -1375,7 +1417,7 @@
         <v>44580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1">
         <v>22896062</v>
@@ -1389,7 +1431,7 @@
         <v>44580</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>22896075</v>
@@ -1403,7 +1445,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1">
         <v>22900131</v>
@@ -1417,7 +1459,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1">
         <v>22900150</v>
@@ -1431,7 +1473,7 @@
         <v>44580</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>22900154</v>
@@ -1445,7 +1487,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>22903020</v>
@@ -1459,7 +1501,7 @@
         <v>44582</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>22903061</v>
@@ -1473,7 +1515,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>22903068</v>
@@ -1487,7 +1529,7 @@
         <v>44583</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>22907522</v>
@@ -1501,7 +1543,7 @@
         <v>44583</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>22907540</v>
@@ -1515,7 +1557,7 @@
         <v>44586</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>22913240</v>
@@ -1529,7 +1571,7 @@
         <v>44586</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>22913262</v>
@@ -1543,7 +1585,7 @@
         <v>44586</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>22913330</v>
@@ -1557,7 +1599,7 @@
         <v>44585</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
         <v>22913351</v>
@@ -1571,7 +1613,7 @@
         <v>44587</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>22915442</v>
@@ -1585,7 +1627,7 @@
         <v>44587</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>22915470</v>
@@ -1599,7 +1641,7 @@
         <v>44587</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1">
         <v>22915474</v>
@@ -1613,7 +1655,7 @@
         <v>44586</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
         <v>22915478</v>
@@ -1627,7 +1669,7 @@
         <v>44588</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>22920250</v>
@@ -1641,7 +1683,7 @@
         <v>44588</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>22920256</v>
@@ -1655,7 +1697,7 @@
         <v>44589</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>22925080</v>
@@ -1669,7 +1711,7 @@
         <v>44589</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>22925082</v>
@@ -1683,7 +1725,7 @@
         <v>44588</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>22925100</v>
@@ -1697,7 +1739,7 @@
         <v>44590</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1">
         <v>22928530</v>
@@ -1711,7 +1753,7 @@
         <v>44590</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
         <v>22928610</v>
@@ -1725,7 +1767,7 @@
         <v>44589</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
         <v>22928680</v>
@@ -1739,7 +1781,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>22934681</v>
@@ -1753,7 +1795,7 @@
         <v>44593</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>22934700</v>
@@ -1767,7 +1809,7 @@
         <v>44592</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
         <v>22934741</v>
@@ -1781,7 +1823,7 @@
         <v>44594</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
         <v>22952915</v>
@@ -1795,7 +1837,7 @@
         <v>44594</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1">
         <v>22952930</v>
@@ -1809,7 +1851,7 @@
         <v>44596</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
         <v>22961961</v>
@@ -1823,7 +1865,7 @@
         <v>44596</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1">
         <v>22961983</v>
@@ -1837,7 +1879,7 @@
         <v>44595</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
         <v>22961988</v>
@@ -1851,7 +1893,7 @@
         <v>44595</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D65" s="1">
         <v>22961990</v>
@@ -1865,7 +1907,7 @@
         <v>44595</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1">
         <v>22961998</v>
@@ -1879,7 +1921,7 @@
         <v>44595</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D67" s="1">
         <v>22962006</v>
@@ -1893,7 +1935,7 @@
         <v>44597</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1">
         <v>22965320</v>
@@ -1907,7 +1949,7 @@
         <v>44597</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1">
         <v>22965343</v>
@@ -1921,7 +1963,7 @@
         <v>44596</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D70" s="1">
         <v>22965382</v>
@@ -1935,7 +1977,7 @@
         <v>44600</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>22971260</v>
@@ -1949,7 +1991,7 @@
         <v>44600</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D72" s="1">
         <v>22971265</v>
@@ -1963,7 +2005,7 @@
         <v>44599</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1">
         <v>22971280</v>
@@ -1977,7 +2019,7 @@
         <v>44601</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D74" s="1">
         <v>22975346</v>
@@ -1991,7 +2033,7 @@
         <v>44601</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1">
         <v>22975349</v>
@@ -2005,7 +2047,7 @@
         <v>44601</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1">
         <v>22975373</v>
@@ -2019,7 +2061,7 @@
         <v>44602</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D77" s="1">
         <v>22979490</v>
@@ -2033,7 +2075,7 @@
         <v>44602</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D78" s="1">
         <v>22979500</v>
@@ -2047,7 +2089,7 @@
         <v>44601</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1">
         <v>22979527</v>
@@ -2061,7 +2103,7 @@
         <v>44603</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D80" s="1">
         <v>22982976</v>
@@ -2075,7 +2117,7 @@
         <v>44603</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D81" s="1">
         <v>22983000</v>
@@ -2089,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D82" s="1">
         <v>22983026</v>
@@ -2103,7 +2145,7 @@
         <v>44604</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D83" s="1">
         <v>22986180</v>
@@ -2117,7 +2159,7 @@
         <v>44604</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D84" s="1">
         <v>22986189</v>
@@ -2131,7 +2173,7 @@
         <v>44603</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1">
         <v>22986192</v>
@@ -2142,10 +2184,10 @@
         <v>8882092</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D86" s="1">
         <v>22991973</v>
@@ -2156,10 +2198,10 @@
         <v>8882091</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D87" s="1">
         <v>22991992</v>
@@ -2170,10 +2212,10 @@
         <v>8881914</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D88" s="1">
         <v>22992010</v>
@@ -2184,10 +2226,10 @@
         <v>8882828</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1">
         <v>22996430</v>
@@ -2198,10 +2240,10 @@
         <v>8882827</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1">
         <v>22996432</v>
@@ -2212,10 +2254,10 @@
         <v>8882641</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1">
         <v>22996470</v>
@@ -2226,10 +2268,10 @@
         <v>8883577</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>23001020</v>
@@ -2240,10 +2282,10 @@
         <v>8883576</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D93" s="1">
         <v>23001041</v>
@@ -2254,10 +2296,10 @@
         <v>8883467</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D94" s="1">
         <v>23001062</v>
@@ -2268,10 +2310,10 @@
         <v>8884309</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1">
         <v>23003013</v>
@@ -2282,10 +2324,10 @@
         <v>8884308</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1">
         <v>23003017</v>
@@ -2296,10 +2338,10 @@
         <v>8884126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1">
         <v>23003030</v>
@@ -2310,10 +2352,10 @@
         <v>8885007</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1">
         <v>23007111</v>
@@ -2324,10 +2366,10 @@
         <v>8885006</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D99" s="1">
         <v>23007492</v>
@@ -2338,10 +2380,10 @@
         <v>8885722</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D100" s="1">
         <v>23011250</v>
@@ -2352,10 +2394,10 @@
         <v>8885721</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D101" s="1">
         <v>23011272</v>
@@ -2366,10 +2408,10 @@
         <v>8885610</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D102" s="1">
         <v>23011293</v>
@@ -2380,10 +2422,10 @@
         <v>8886502</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D103" s="1">
         <v>23015272</v>
@@ -2394,10 +2436,10 @@
         <v>8886501</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D104" s="1">
         <v>23015303</v>
@@ -2408,10 +2450,10 @@
         <v>8886283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D105" s="1">
         <v>23015350</v>
@@ -2422,10 +2464,10 @@
         <v>8887204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D106" s="1">
         <v>23018820</v>
@@ -2436,10 +2478,10 @@
         <v>8887203</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D107" s="1">
         <v>23018861</v>
@@ -2450,10 +2492,10 @@
         <v>8887882</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D108" s="1">
         <v>23023023</v>
@@ -2464,10 +2506,10 @@
         <v>8887706</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D109" s="1">
         <v>23023271</v>
@@ -2481,7 +2523,7 @@
         <v>44621</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D110" s="1">
         <v>23029770</v>
@@ -2495,7 +2537,7 @@
         <v>44621</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D111" s="1">
         <v>23029775</v>
@@ -2506,10 +2548,10 @@
         <v>8888435</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D112" s="1">
         <v>23029813</v>
@@ -2520,10 +2562,10 @@
         <v>8887881</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1">
         <v>23023041</v>
@@ -2537,7 +2579,7 @@
         <v>44622</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D114" s="1">
         <v>23033790</v>
@@ -2551,7 +2593,7 @@
         <v>44622</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D115" s="1">
         <v>23033841</v>
@@ -2565,7 +2607,7 @@
         <v>44621</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D116" s="1">
         <v>23033846</v>
@@ -2579,7 +2621,7 @@
         <v>44623</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D117" s="1">
         <v>23036470</v>
@@ -2593,7 +2635,7 @@
         <v>44623</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D118" s="1">
         <v>23036473</v>
@@ -2607,7 +2649,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D119" s="1">
         <v>23036479</v>
@@ -2621,7 +2663,7 @@
         <v>44624</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D120" s="1">
         <v>23040676</v>
@@ -2635,7 +2677,7 @@
         <v>44624</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D121" s="1">
         <v>23040681</v>
@@ -2649,7 +2691,7 @@
         <v>44624</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D122" s="1">
         <v>23040682</v>
@@ -2663,7 +2705,7 @@
         <v>44625</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D123" s="1">
         <v>23044387</v>
@@ -2677,7 +2719,7 @@
         <v>44625</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D124" s="1">
         <v>23044393</v>
@@ -2691,7 +2733,7 @@
         <v>44628</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D125" s="1">
         <v>23048542</v>
@@ -2705,7 +2747,7 @@
         <v>44628</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D126" s="1">
         <v>23048564</v>
@@ -2719,7 +2761,7 @@
         <v>44627</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D127" s="1">
         <v>23048569</v>
@@ -2733,7 +2775,7 @@
         <v>44629</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D128" s="1">
         <v>23053630</v>
@@ -2747,7 +2789,7 @@
         <v>44629</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D129" s="1">
         <v>23053650</v>
@@ -2761,7 +2803,7 @@
         <v>44629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D130" s="1">
         <v>23053673</v>
@@ -2775,7 +2817,7 @@
         <v>44630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D131" s="1">
         <v>23058881</v>
@@ -2789,7 +2831,7 @@
         <v>44630</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D132" s="1">
         <v>23058920</v>
@@ -2803,7 +2845,7 @@
         <v>44629</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D133" s="1">
         <v>23058929</v>
@@ -2817,7 +2859,7 @@
         <v>44631</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D134" s="1">
         <v>23061002</v>
@@ -2831,7 +2873,7 @@
         <v>44631</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D135" s="1">
         <v>23061011</v>
@@ -2845,7 +2887,7 @@
         <v>44630</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D136" s="1">
         <v>23061017</v>
@@ -2859,7 +2901,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D137" s="1">
         <v>23065129</v>
@@ -2873,7 +2915,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1">
         <v>23065135</v>
@@ -2887,7 +2929,7 @@
         <v>44631</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D139" s="1">
         <v>23065136</v>
@@ -2898,10 +2940,10 @@
         <v>8896520</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D140" s="1">
         <v>23074514</v>
@@ -2912,10 +2954,10 @@
         <v>8897059</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D141" s="1">
         <v>23077004</v>
@@ -2926,10 +2968,10 @@
         <v>8898493</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D142" s="1">
         <v>23083173</v>
@@ -2940,10 +2982,10 @@
         <v>8898482</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D143" s="1">
         <v>23083210</v>
@@ -2954,10 +2996,10 @@
         <v>8898723</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D144" s="1">
         <v>23086948</v>
@@ -2968,10 +3010,10 @@
         <v>8899668</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D145" s="1">
         <v>23091031</v>
@@ -2982,10 +3024,10 @@
         <v>8899220</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D146" s="1">
         <v>23091037</v>
@@ -2996,10 +3038,10 @@
         <v>8899117</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D147" s="1">
         <v>23091084</v>
@@ -3010,10 +3052,10 @@
         <v>8899886</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D148" s="1">
         <v>23094229</v>
@@ -3024,10 +3066,10 @@
         <v>8900775</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D149" s="1">
         <v>23098085</v>
@@ -3038,10 +3080,10 @@
         <v>8900718</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D150" s="1">
         <v>23098090</v>
@@ -3052,10 +3094,10 @@
         <v>8900582</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1">
         <v>23098120</v>
@@ -3066,10 +3108,10 @@
         <v>8900335</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1">
         <v>23098145</v>
@@ -3080,10 +3122,10 @@
         <v>8901776</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D153" s="1">
         <v>23103150</v>
@@ -3094,10 +3136,10 @@
         <v>8901755</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="D154" s="1">
         <v>23103172</v>
@@ -3108,10 +3150,10 @@
         <v>8901330</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D155" s="1">
         <v>23103191</v>
@@ -3122,10 +3164,10 @@
         <v>8901329</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D156" s="1">
         <v>23103194</v>
@@ -3136,10 +3178,10 @@
         <v>8902166</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D157" s="1">
         <v>23106854</v>
@@ -3150,10 +3192,10 @@
         <v>8902165</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="D158" s="1">
         <v>23106873</v>
@@ -3164,10 +3206,10 @@
         <v>8902885</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="D159" s="1">
         <v>23111770</v>
@@ -3178,10 +3220,10 @@
         <v>8902884</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="D160" s="1">
         <v>23111822</v>
@@ -3192,13 +3234,251 @@
         <v>8902729</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D161" s="1">
         <v>23111862</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>8903601</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="1">
+        <v>23116265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>8903600</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="1">
+        <v>23116287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>8903437</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="1">
+        <v>23116294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>8904355</v>
+      </c>
+      <c r="B165" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165" s="1">
+        <v>23119629</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>8904354</v>
+      </c>
+      <c r="B166" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" s="1">
+        <v>23119632</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>8904124</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" s="1">
+        <v>23119635</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>8905020</v>
+      </c>
+      <c r="B168" s="3">
+        <v>44653</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="1">
+        <v>23123880</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>8905019</v>
+      </c>
+      <c r="B169" s="3">
+        <v>44653</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D169" s="1">
+        <v>23123932</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>8904879</v>
+      </c>
+      <c r="B170" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D170" s="1">
+        <v>23123970</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>8905738</v>
+      </c>
+      <c r="B171" s="3">
+        <v>44656</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1">
+        <v>23128220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>8905589</v>
+      </c>
+      <c r="B172" s="3">
+        <v>44655</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="1">
+        <v>23128226</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>8906417</v>
+      </c>
+      <c r="B173" s="3">
+        <v>44657</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="1">
+        <v>23134152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>8906416</v>
+      </c>
+      <c r="B174" s="3">
+        <v>44657</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="1">
+        <v>23134466</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>8906279</v>
+      </c>
+      <c r="B175" s="3">
+        <v>44656</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="1">
+        <v>23134510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>8907153</v>
+      </c>
+      <c r="B176" s="3">
+        <v>44658</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1">
+        <v>23136060</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>8907152</v>
+      </c>
+      <c r="B177" s="3">
+        <v>44658</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>23136090</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>8907074</v>
+      </c>
+      <c r="B178" s="3">
+        <v>44657</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="1">
+        <v>23136114</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F897A253-663C-4B87-BB2A-99CCD22E24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4F0E1-B20C-4183-83AE-A66D77B81043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="32190" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,6 +52,705 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>14-04-2022</t>
+  </si>
+  <si>
+    <t>468,76 EUR</t>
+  </si>
+  <si>
+    <t>137,09 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>44565</t>
+  </si>
+  <si>
+    <t>44566</t>
+  </si>
+  <si>
+    <t>44568</t>
+  </si>
+  <si>
+    <t>44571</t>
+  </si>
+  <si>
+    <t>44572</t>
+  </si>
+  <si>
+    <t>44573</t>
+  </si>
+  <si>
+    <t>44574</t>
+  </si>
+  <si>
+    <t>1.122,69 EUR</t>
+  </si>
+  <si>
+    <t>410,91 EUR</t>
+  </si>
+  <si>
+    <t>561,59 EUR</t>
+  </si>
+  <si>
+    <t>329,81 EUR</t>
+  </si>
+  <si>
+    <t>44575</t>
+  </si>
+  <si>
+    <t>3.450,52 EUR</t>
+  </si>
+  <si>
+    <t>321,87 EUR</t>
+  </si>
+  <si>
+    <t>279,21 EUR</t>
+  </si>
+  <si>
+    <t>44576</t>
+  </si>
+  <si>
+    <t>7.570,94 EUR</t>
+  </si>
+  <si>
+    <t>129,58 EUR</t>
+  </si>
+  <si>
+    <t>194,20 EUR</t>
+  </si>
+  <si>
+    <t>44579</t>
+  </si>
+  <si>
+    <t>3.480,28 EUR</t>
+  </si>
+  <si>
+    <t>354,81 EUR</t>
+  </si>
+  <si>
+    <t>44578</t>
+  </si>
+  <si>
+    <t>332,71 EUR</t>
+  </si>
+  <si>
+    <t>44580</t>
+  </si>
+  <si>
+    <t>2.132,19 EUR</t>
+  </si>
+  <si>
+    <t>578,98 EUR</t>
+  </si>
+  <si>
+    <t>44581</t>
+  </si>
+  <si>
+    <t>5.278,43 EUR</t>
+  </si>
+  <si>
+    <t>18,73 EUR</t>
+  </si>
+  <si>
+    <t>548,57 EUR</t>
+  </si>
+  <si>
+    <t>44582</t>
+  </si>
+  <si>
+    <t>4.269,33 EUR</t>
+  </si>
+  <si>
+    <t>1.081,42 EUR</t>
+  </si>
+  <si>
+    <t>691,72 EUR</t>
+  </si>
+  <si>
+    <t>44583</t>
+  </si>
+  <si>
+    <t>3.258,23 EUR</t>
+  </si>
+  <si>
+    <t>239,34 EUR</t>
+  </si>
+  <si>
+    <t>44586</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>2.565,03 EUR</t>
+  </si>
+  <si>
+    <t>423,91 EUR</t>
+  </si>
+  <si>
+    <t>44585</t>
+  </si>
+  <si>
+    <t>127,95 EUR</t>
+  </si>
+  <si>
+    <t>44587</t>
+  </si>
+  <si>
+    <t>361,74 EUR</t>
+  </si>
+  <si>
+    <t>1.688,58 EUR</t>
+  </si>
+  <si>
+    <t>381,86 EUR</t>
+  </si>
+  <si>
+    <t>2.577,78 EUR</t>
+  </si>
+  <si>
+    <t>44588</t>
+  </si>
+  <si>
+    <t>789,82 EUR</t>
+  </si>
+  <si>
+    <t>72,14 EUR</t>
+  </si>
+  <si>
+    <t>44589</t>
+  </si>
+  <si>
+    <t>1.895,74 EUR</t>
+  </si>
+  <si>
+    <t>315,35 EUR</t>
+  </si>
+  <si>
+    <t>354,31 EUR</t>
+  </si>
+  <si>
+    <t>44590</t>
+  </si>
+  <si>
+    <t>4.773,22 EUR</t>
+  </si>
+  <si>
+    <t>326,06 EUR</t>
+  </si>
+  <si>
+    <t>2.020,63 EUR</t>
+  </si>
+  <si>
+    <t>44593</t>
+  </si>
+  <si>
+    <t>6.010,66 EUR</t>
+  </si>
+  <si>
+    <t>238,79 EUR</t>
+  </si>
+  <si>
+    <t>44592</t>
+  </si>
+  <si>
+    <t>402,15 EUR</t>
+  </si>
+  <si>
+    <t>44594</t>
+  </si>
+  <si>
+    <t>1.589,20 EUR</t>
+  </si>
+  <si>
+    <t>777,42 EUR</t>
+  </si>
+  <si>
+    <t>44596</t>
+  </si>
+  <si>
+    <t>1.262,61 EUR</t>
+  </si>
+  <si>
+    <t>338,24 EUR</t>
+  </si>
+  <si>
+    <t>44595</t>
+  </si>
+  <si>
+    <t>247,00 EUR</t>
+  </si>
+  <si>
+    <t>2.002,35 EUR</t>
+  </si>
+  <si>
+    <t>18,06 EUR</t>
+  </si>
+  <si>
+    <t>282,29 EUR</t>
+  </si>
+  <si>
+    <t>44597</t>
+  </si>
+  <si>
+    <t>1.440,81 EUR</t>
+  </si>
+  <si>
+    <t>159,25 EUR</t>
+  </si>
+  <si>
+    <t>44600</t>
+  </si>
+  <si>
+    <t>1.901,44 EUR</t>
+  </si>
+  <si>
+    <t>73,15 EUR</t>
+  </si>
+  <si>
+    <t>44599</t>
+  </si>
+  <si>
+    <t>147,35 EUR</t>
+  </si>
+  <si>
+    <t>44601</t>
+  </si>
+  <si>
+    <t>431,30 EUR</t>
+  </si>
+  <si>
+    <t>1.424,80 EUR</t>
+  </si>
+  <si>
+    <t>141,15 EUR</t>
+  </si>
+  <si>
+    <t>44602</t>
+  </si>
+  <si>
+    <t>1.223,83 EUR</t>
+  </si>
+  <si>
+    <t>802,97 EUR</t>
+  </si>
+  <si>
+    <t>401,12 EUR</t>
+  </si>
+  <si>
+    <t>44603</t>
+  </si>
+  <si>
+    <t>1.949,79 EUR</t>
+  </si>
+  <si>
+    <t>478,20 EUR</t>
+  </si>
+  <si>
+    <t>384,31 EUR</t>
+  </si>
+  <si>
+    <t>44604</t>
+  </si>
+  <si>
+    <t>1.226,67 EUR</t>
+  </si>
+  <si>
+    <t>235,74 EUR</t>
+  </si>
+  <si>
+    <t>995,45 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>4.765,99 EUR</t>
+  </si>
+  <si>
+    <t>2.148,31 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>284,46 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.688,80 EUR</t>
+  </si>
+  <si>
+    <t>68,43 EUR</t>
+  </si>
+  <si>
+    <t>441,80 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>3.523,64 EUR</t>
+  </si>
+  <si>
+    <t>28,95 EUR</t>
+  </si>
+  <si>
+    <t>172,73 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>2.009,04 EUR</t>
+  </si>
+  <si>
+    <t>1.947,46 EUR</t>
+  </si>
+  <si>
+    <t>331,53 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>2.493,77 EUR</t>
+  </si>
+  <si>
+    <t>165,45 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>2.346,97 EUR</t>
+  </si>
+  <si>
+    <t>609,50 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>1.078,38 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>9.415,96 EUR</t>
+  </si>
+  <si>
+    <t>197,71 EUR</t>
+  </si>
+  <si>
+    <t>283,65 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>4.616,37 EUR</t>
+  </si>
+  <si>
+    <t>121,39 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>1.780,69 EUR</t>
+  </si>
+  <si>
+    <t>265,14 EUR</t>
+  </si>
+  <si>
+    <t>44621</t>
+  </si>
+  <si>
+    <t>4.684,82 EUR</t>
+  </si>
+  <si>
+    <t>220,87 EUR</t>
+  </si>
+  <si>
+    <t>1.080,03 EUR</t>
+  </si>
+  <si>
+    <t>62,68 EUR</t>
+  </si>
+  <si>
+    <t>44622</t>
+  </si>
+  <si>
+    <t>245,59 EUR</t>
+  </si>
+  <si>
+    <t>615,88 EUR</t>
+  </si>
+  <si>
+    <t>734,27 EUR</t>
+  </si>
+  <si>
+    <t>44623</t>
+  </si>
+  <si>
+    <t>497,45 EUR</t>
+  </si>
+  <si>
+    <t>124,87 EUR</t>
+  </si>
+  <si>
+    <t>386,31 EUR</t>
+  </si>
+  <si>
+    <t>44624</t>
+  </si>
+  <si>
+    <t>400,24 EUR</t>
+  </si>
+  <si>
+    <t>167,19 EUR</t>
+  </si>
+  <si>
+    <t>1.821,41 EUR</t>
+  </si>
+  <si>
+    <t>44625</t>
+  </si>
+  <si>
+    <t>1.825,31 EUR</t>
+  </si>
+  <si>
+    <t>155,80 EUR</t>
+  </si>
+  <si>
+    <t>44628</t>
+  </si>
+  <si>
+    <t>1.195,49 EUR</t>
+  </si>
+  <si>
+    <t>111,39 EUR</t>
+  </si>
+  <si>
+    <t>44627</t>
+  </si>
+  <si>
+    <t>976,25 EUR</t>
+  </si>
+  <si>
+    <t>44629</t>
+  </si>
+  <si>
+    <t>2.272,74 EUR</t>
+  </si>
+  <si>
+    <t>703,43 EUR</t>
+  </si>
+  <si>
+    <t>44630</t>
+  </si>
+  <si>
+    <t>7.328,99 EUR</t>
+  </si>
+  <si>
+    <t>476,33 EUR</t>
+  </si>
+  <si>
+    <t>1.465,45 EUR</t>
+  </si>
+  <si>
+    <t>44631</t>
+  </si>
+  <si>
+    <t>261,41 EUR</t>
+  </si>
+  <si>
+    <t>2.402,04 EUR</t>
+  </si>
+  <si>
+    <t>44632</t>
+  </si>
+  <si>
+    <t>3.191,31 EUR</t>
+  </si>
+  <si>
+    <t>9.506,05 EUR</t>
+  </si>
+  <si>
+    <t>286,06 EUR</t>
+  </si>
+  <si>
+    <t>  15-03-2022</t>
+  </si>
+  <si>
+    <t>  134,66 EUR</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>684,36 EUR</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>1.934,95 EUR</t>
+  </si>
+  <si>
+    <t>881,14 EUR</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>269,31 EUR</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>1.058,92 EUR</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>10.767,89 EUR</t>
+  </si>
+  <si>
+    <t>78,60 EUR</t>
+  </si>
+  <si>
+    <t>2.705,18 EUR</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>58,79 EUR</t>
+  </si>
+  <si>
+    <t>2.015,73 EUR</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>8,00 EUR</t>
+  </si>
+  <si>
+    <t>825,40 EUR</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>32,37 EUR</t>
+  </si>
+  <si>
+    <t>3.195,46 EUR</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>8.234,00 EUR</t>
+  </si>
+  <si>
+    <t>14,73 EUR</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>1.775,05 EUR</t>
+  </si>
+  <si>
+    <t>691,44 EUR</t>
+  </si>
+  <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t>2.939,87 EUR</t>
+  </si>
+  <si>
+    <t>1.139,60 EUR</t>
+  </si>
+  <si>
+    <t>663,61 EUR</t>
+  </si>
+  <si>
+    <t>31-03-2022</t>
+  </si>
+  <si>
+    <t>3.627,96 EUR</t>
+  </si>
+  <si>
+    <t>658,99 EUR</t>
+  </si>
+  <si>
+    <t>325,83 EUR</t>
+  </si>
+  <si>
+    <t>44652</t>
+  </si>
+  <si>
+    <t>1.734,63 EUR</t>
+  </si>
+  <si>
+    <t>280,42 EUR</t>
+  </si>
+  <si>
+    <t>1.892,53 EUR</t>
+  </si>
+  <si>
+    <t>44653</t>
+  </si>
+  <si>
+    <t>1.460,46 EUR</t>
+  </si>
+  <si>
+    <t>95,48 EUR</t>
+  </si>
+  <si>
+    <t>44656</t>
+  </si>
+  <si>
+    <t>1.318,29 EUR</t>
+  </si>
+  <si>
+    <t>44655</t>
+  </si>
+  <si>
+    <t>857,27 EUR</t>
+  </si>
+  <si>
+    <t>44657</t>
+  </si>
+  <si>
+    <t>1.015,19 EUR</t>
+  </si>
+  <si>
+    <t>244,89 EUR</t>
+  </si>
+  <si>
+    <t>22,83 EUR</t>
+  </si>
+  <si>
+    <t>44658</t>
+  </si>
+  <si>
     <t>2.175,72 EUR</t>
   </si>
   <si>
@@ -61,544 +760,58 @@
     <t>239,83 EUR</t>
   </si>
   <si>
-    <t>1.015,19 EUR</t>
-  </si>
-  <si>
-    <t>244,89 EUR</t>
-  </si>
-  <si>
-    <t>22,83 EUR</t>
-  </si>
-  <si>
-    <t>1.318,29 EUR</t>
-  </si>
-  <si>
-    <t>857,27 EUR</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>1.122,69 EUR</t>
-  </si>
-  <si>
-    <t>410,91 EUR</t>
-  </si>
-  <si>
-    <t>561,59 EUR</t>
-  </si>
-  <si>
-    <t>329,81 EUR</t>
-  </si>
-  <si>
-    <t>3.450,52 EUR</t>
-  </si>
-  <si>
-    <t>321,87 EUR</t>
-  </si>
-  <si>
-    <t>279,21 EUR</t>
-  </si>
-  <si>
-    <t>7.570,94 EUR</t>
-  </si>
-  <si>
-    <t>129,58 EUR</t>
-  </si>
-  <si>
-    <t>194,20 EUR</t>
-  </si>
-  <si>
-    <t>3.480,28 EUR</t>
-  </si>
-  <si>
-    <t>354,81 EUR</t>
-  </si>
-  <si>
-    <t>332,71 EUR</t>
-  </si>
-  <si>
-    <t>2.132,19 EUR</t>
-  </si>
-  <si>
-    <t>578,98 EUR</t>
-  </si>
-  <si>
-    <t>5.278,43 EUR</t>
-  </si>
-  <si>
-    <t>18,73 EUR</t>
-  </si>
-  <si>
-    <t>548,57 EUR</t>
-  </si>
-  <si>
-    <t>4.269,33 EUR</t>
-  </si>
-  <si>
-    <t>1.081,42 EUR</t>
-  </si>
-  <si>
-    <t>691,72 EUR</t>
-  </si>
-  <si>
-    <t>3.258,23 EUR</t>
-  </si>
-  <si>
-    <t>239,34 EUR</t>
-  </si>
-  <si>
-    <t>47,95 EUR</t>
-  </si>
-  <si>
-    <t>2.565,03 EUR</t>
-  </si>
-  <si>
-    <t>423,91 EUR</t>
-  </si>
-  <si>
-    <t>127,95 EUR</t>
-  </si>
-  <si>
-    <t>361,74 EUR</t>
-  </si>
-  <si>
-    <t>1.688,58 EUR</t>
-  </si>
-  <si>
-    <t>381,86 EUR</t>
-  </si>
-  <si>
-    <t>2.577,78 EUR</t>
-  </si>
-  <si>
-    <t>789,82 EUR</t>
-  </si>
-  <si>
-    <t>72,14 EUR</t>
-  </si>
-  <si>
-    <t>1.895,74 EUR</t>
-  </si>
-  <si>
-    <t>315,35 EUR</t>
-  </si>
-  <si>
-    <t>354,31 EUR</t>
-  </si>
-  <si>
-    <t>4.773,22 EUR</t>
-  </si>
-  <si>
-    <t>326,06 EUR</t>
-  </si>
-  <si>
-    <t>2.020,63 EUR</t>
-  </si>
-  <si>
-    <t>6.010,66 EUR</t>
-  </si>
-  <si>
-    <t>238,79 EUR</t>
-  </si>
-  <si>
-    <t>402,15 EUR</t>
-  </si>
-  <si>
-    <t>1.589,20 EUR</t>
-  </si>
-  <si>
-    <t>777,42 EUR</t>
-  </si>
-  <si>
-    <t>1.262,61 EUR</t>
-  </si>
-  <si>
-    <t>338,24 EUR</t>
-  </si>
-  <si>
-    <t>247,00 EUR</t>
-  </si>
-  <si>
-    <t>2.002,35 EUR</t>
-  </si>
-  <si>
-    <t>18,06 EUR</t>
-  </si>
-  <si>
-    <t>282,29 EUR</t>
-  </si>
-  <si>
-    <t>1.440,81 EUR</t>
-  </si>
-  <si>
-    <t>159,25 EUR</t>
-  </si>
-  <si>
-    <t>1.901,44 EUR</t>
-  </si>
-  <si>
-    <t>73,15 EUR</t>
-  </si>
-  <si>
-    <t>147,35 EUR</t>
-  </si>
-  <si>
-    <t>431,30 EUR</t>
-  </si>
-  <si>
-    <t>1.424,80 EUR</t>
-  </si>
-  <si>
-    <t>141,15 EUR</t>
-  </si>
-  <si>
-    <t>1.223,83 EUR</t>
-  </si>
-  <si>
-    <t>802,97 EUR</t>
-  </si>
-  <si>
-    <t>401,12 EUR</t>
-  </si>
-  <si>
-    <t>1.949,79 EUR</t>
-  </si>
-  <si>
-    <t>478,20 EUR</t>
-  </si>
-  <si>
-    <t>384,31 EUR</t>
-  </si>
-  <si>
-    <t>1.226,67 EUR</t>
-  </si>
-  <si>
-    <t>235,74 EUR</t>
-  </si>
-  <si>
-    <t>995,45 EUR</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>4.765,99 EUR</t>
-  </si>
-  <si>
-    <t>2.148,31 EUR</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>284,46 EUR</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>2.688,80 EUR</t>
-  </si>
-  <si>
-    <t>68,43 EUR</t>
-  </si>
-  <si>
-    <t>441,80 EUR</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>3.523,64 EUR</t>
-  </si>
-  <si>
-    <t>28,95 EUR</t>
-  </si>
-  <si>
-    <t>172,73 EUR</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>2.009,04 EUR</t>
-  </si>
-  <si>
-    <t>1.947,46 EUR</t>
-  </si>
-  <si>
-    <t>331,53 EUR</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>2.493,77 EUR</t>
-  </si>
-  <si>
-    <t>165,45 EUR</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>2.346,97 EUR</t>
-  </si>
-  <si>
-    <t>609,50 EUR</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>1.078,38 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>9.415,96 EUR</t>
-  </si>
-  <si>
-    <t>197,71 EUR</t>
-  </si>
-  <si>
-    <t>283,65 EUR</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>4.616,37 EUR</t>
-  </si>
-  <si>
-    <t>121,39 EUR</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>1.780,69 EUR</t>
-  </si>
-  <si>
-    <t>265,14 EUR</t>
-  </si>
-  <si>
-    <t>4.684,82 EUR</t>
-  </si>
-  <si>
-    <t>220,87 EUR</t>
-  </si>
-  <si>
-    <t>1.080,03 EUR</t>
-  </si>
-  <si>
-    <t>62,68 EUR</t>
-  </si>
-  <si>
-    <t>245,59 EUR</t>
-  </si>
-  <si>
-    <t>615,88 EUR</t>
-  </si>
-  <si>
-    <t>734,27 EUR</t>
-  </si>
-  <si>
-    <t>497,45 EUR</t>
-  </si>
-  <si>
-    <t>124,87 EUR</t>
-  </si>
-  <si>
-    <t>386,31 EUR</t>
-  </si>
-  <si>
-    <t>400,24 EUR</t>
-  </si>
-  <si>
-    <t>167,19 EUR</t>
-  </si>
-  <si>
-    <t>1.821,41 EUR</t>
-  </si>
-  <si>
-    <t>1.825,31 EUR</t>
-  </si>
-  <si>
-    <t>155,80 EUR</t>
-  </si>
-  <si>
-    <t>1.195,49 EUR</t>
-  </si>
-  <si>
-    <t>111,39 EUR</t>
-  </si>
-  <si>
-    <t>976,25 EUR</t>
-  </si>
-  <si>
-    <t>2.272,74 EUR</t>
-  </si>
-  <si>
-    <t>703,43 EUR</t>
-  </si>
-  <si>
-    <t>7.328,99 EUR</t>
-  </si>
-  <si>
-    <t>476,33 EUR</t>
-  </si>
-  <si>
-    <t>1.465,45 EUR</t>
-  </si>
-  <si>
-    <t>261,41 EUR</t>
-  </si>
-  <si>
-    <t>2.402,04 EUR</t>
-  </si>
-  <si>
-    <t>3.191,31 EUR</t>
-  </si>
-  <si>
-    <t>9.506,05 EUR</t>
-  </si>
-  <si>
-    <t>286,06 EUR</t>
-  </si>
-  <si>
-    <t>  15-03-2022</t>
-  </si>
-  <si>
-    <t>  134,66 EUR</t>
-  </si>
-  <si>
-    <t>16-03-2022</t>
-  </si>
-  <si>
-    <t>684,36 EUR</t>
-  </si>
-  <si>
-    <t>19-03-2022</t>
-  </si>
-  <si>
-    <t>1.934,95 EUR</t>
-  </si>
-  <si>
-    <t>881,14 EUR</t>
-  </si>
-  <si>
-    <t>21-03-2022</t>
-  </si>
-  <si>
-    <t>269,31 EUR</t>
-  </si>
-  <si>
-    <t>23-03-2022</t>
-  </si>
-  <si>
-    <t>1.058,92 EUR</t>
-  </si>
-  <si>
-    <t>22-03-2022</t>
-  </si>
-  <si>
-    <t>10.767,89 EUR</t>
-  </si>
-  <si>
-    <t>78,60 EUR</t>
-  </si>
-  <si>
-    <t>2.705,18 EUR</t>
-  </si>
-  <si>
-    <t>25-03-2022</t>
-  </si>
-  <si>
-    <t>58,79 EUR</t>
-  </si>
-  <si>
-    <t>2.015,73 EUR</t>
-  </si>
-  <si>
-    <t>24-03-2022</t>
-  </si>
-  <si>
-    <t>8,00 EUR</t>
-  </si>
-  <si>
-    <t>825,40 EUR</t>
-  </si>
-  <si>
-    <t>27-03-2022</t>
-  </si>
-  <si>
-    <t>32,37 EUR</t>
-  </si>
-  <si>
-    <t>3.195,46 EUR</t>
-  </si>
-  <si>
-    <t>26-03-2022</t>
-  </si>
-  <si>
-    <t>8.234,00 EUR</t>
-  </si>
-  <si>
-    <t>14,73 EUR</t>
-  </si>
-  <si>
-    <t>29-03-2022</t>
-  </si>
-  <si>
-    <t>1.775,05 EUR</t>
-  </si>
-  <si>
-    <t>691,44 EUR</t>
-  </si>
-  <si>
-    <t>30-03-2022</t>
-  </si>
-  <si>
-    <t>2.939,87 EUR</t>
-  </si>
-  <si>
-    <t>1.139,60 EUR</t>
-  </si>
-  <si>
-    <t>663,61 EUR</t>
-  </si>
-  <si>
-    <t>31-03-2022</t>
-  </si>
-  <si>
-    <t>3.627,96 EUR</t>
-  </si>
-  <si>
-    <t>658,99 EUR</t>
-  </si>
-  <si>
-    <t>325,83 EUR</t>
-  </si>
-  <si>
-    <t>1.734,63 EUR</t>
-  </si>
-  <si>
-    <t>280,42 EUR</t>
-  </si>
-  <si>
-    <t>1.892,53 EUR</t>
-  </si>
-  <si>
-    <t>1.460,46 EUR</t>
-  </si>
-  <si>
-    <t>95,48 EUR</t>
+    <t>44777</t>
+  </si>
+  <si>
+    <t>1.540,34 EUR</t>
+  </si>
+  <si>
+    <t>108,82 EUR</t>
+  </si>
+  <si>
+    <t>44746</t>
+  </si>
+  <si>
+    <t>248,98 EUR</t>
+  </si>
+  <si>
+    <t>09/04/2022</t>
+  </si>
+  <si>
+    <t>1.417,61 EUR</t>
+  </si>
+  <si>
+    <t>646,98 EUR</t>
+  </si>
+  <si>
+    <t>08/04/2022</t>
+  </si>
+  <si>
+    <t>206,86 EUR</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>2.828,54 EUR</t>
+  </si>
+  <si>
+    <t>637,23 EUR</t>
+  </si>
+  <si>
+    <t>11/04/2022</t>
+  </si>
+  <si>
+    <t>1.818,38 EUR</t>
+  </si>
+  <si>
+    <t>13-04-2022</t>
+  </si>
+  <si>
+    <t>423,65 EUR</t>
+  </si>
+  <si>
+    <t>425,61 EUR</t>
   </si>
 </sst>
 </file>
@@ -645,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -963,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1227,18 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1022,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182 A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1055,8 +1280,8 @@
       <c r="A2" s="1">
         <v>8860631</v>
       </c>
-      <c r="B2" s="3">
-        <v>44565</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>22857094</v>
@@ -1066,8 +1291,8 @@
       <c r="A3" s="1">
         <v>8860883</v>
       </c>
-      <c r="B3" s="3">
-        <v>44565</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>22857096</v>
@@ -1077,8 +1302,8 @@
       <c r="A4" s="1">
         <v>8860872</v>
       </c>
-      <c r="B4" s="3">
-        <v>44565</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>22857093</v>
@@ -1088,8 +1313,8 @@
       <c r="A5" s="1">
         <v>8861597</v>
       </c>
-      <c r="B5" s="3">
-        <v>44566</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>22860641</v>
@@ -1099,8 +1324,8 @@
       <c r="A6" s="1">
         <v>8861587</v>
       </c>
-      <c r="B6" s="3">
-        <v>44566</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>22860643</v>
@@ -1110,8 +1335,8 @@
       <c r="A7" s="1">
         <v>8862346</v>
       </c>
-      <c r="B7" s="3">
-        <v>44568</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>22863225</v>
@@ -1121,8 +1346,8 @@
       <c r="A8" s="1">
         <v>8862336</v>
       </c>
-      <c r="B8" s="3">
-        <v>44568</v>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>22863224</v>
@@ -1132,8 +1357,8 @@
       <c r="A9" s="1">
         <v>8862942</v>
       </c>
-      <c r="B9" s="3">
-        <v>44571</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>22866900</v>
@@ -1143,8 +1368,8 @@
       <c r="A10" s="1">
         <v>8862933</v>
       </c>
-      <c r="B10" s="3">
-        <v>44571</v>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>22866882</v>
@@ -1154,8 +1379,8 @@
       <c r="A11" s="1">
         <v>8862749</v>
       </c>
-      <c r="B11" s="3">
-        <v>44571</v>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>22866840</v>
@@ -1165,8 +1390,8 @@
       <c r="A12" s="1">
         <v>8151128</v>
       </c>
-      <c r="B12" s="3">
-        <v>44571</v>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>22866822</v>
@@ -1176,8 +1401,8 @@
       <c r="A13" s="1">
         <v>8863575</v>
       </c>
-      <c r="B13" s="3">
-        <v>44572</v>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>22872381</v>
@@ -1187,8 +1412,8 @@
       <c r="A14" s="1">
         <v>8863574</v>
       </c>
-      <c r="B14" s="3">
-        <v>44572</v>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>22872340</v>
@@ -1198,8 +1423,8 @@
       <c r="A15" s="1">
         <v>8863438</v>
       </c>
-      <c r="B15" s="3">
-        <v>44572</v>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>22872362</v>
@@ -1209,8 +1434,8 @@
       <c r="A16" s="1">
         <v>8864299</v>
       </c>
-      <c r="B16" s="3">
-        <v>44573</v>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>22876743</v>
@@ -1220,8 +1445,8 @@
       <c r="A17" s="1">
         <v>8864298</v>
       </c>
-      <c r="B17" s="3">
-        <v>44573</v>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>22876744</v>
@@ -1231,11 +1456,11 @@
       <c r="A18" s="1">
         <v>8865085</v>
       </c>
-      <c r="B18" s="3">
-        <v>44574</v>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>22880540</v>
@@ -1245,11 +1470,11 @@
       <c r="A19" s="1">
         <v>8865084</v>
       </c>
-      <c r="B19" s="3">
-        <v>44574</v>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>22880561</v>
@@ -1259,11 +1484,11 @@
       <c r="A20" s="1">
         <v>8865075</v>
       </c>
-      <c r="B20" s="3">
-        <v>44574</v>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>22880565</v>
@@ -1273,11 +1498,11 @@
       <c r="A21" s="1">
         <v>8865074</v>
       </c>
-      <c r="B21" s="3">
-        <v>44574</v>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>22880602</v>
@@ -1287,11 +1512,11 @@
       <c r="A22" s="1">
         <v>8865817</v>
       </c>
-      <c r="B22" s="3">
-        <v>44575</v>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>22883949</v>
@@ -1301,11 +1526,11 @@
       <c r="A23" s="1">
         <v>8865816</v>
       </c>
-      <c r="B23" s="3">
-        <v>44575</v>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>22883970</v>
@@ -1315,11 +1540,11 @@
       <c r="A24" s="1">
         <v>8865692</v>
       </c>
-      <c r="B24" s="3">
-        <v>44574</v>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1">
         <v>22884000</v>
@@ -1329,11 +1554,11 @@
       <c r="A25" s="1">
         <v>8866588</v>
       </c>
-      <c r="B25" s="3">
-        <v>44576</v>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>22887862</v>
@@ -1343,11 +1568,11 @@
       <c r="A26" s="1">
         <v>8866587</v>
       </c>
-      <c r="B26" s="3">
-        <v>44576</v>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>22887865</v>
@@ -1357,11 +1582,11 @@
       <c r="A27" s="1">
         <v>8866435</v>
       </c>
-      <c r="B27" s="3">
-        <v>44575</v>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>22887900</v>
@@ -1371,11 +1596,11 @@
       <c r="A28" s="1">
         <v>8867363</v>
       </c>
-      <c r="B28" s="3">
-        <v>44579</v>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
         <v>22892132</v>
@@ -1385,11 +1610,11 @@
       <c r="A29" s="1">
         <v>8867362</v>
       </c>
-      <c r="B29" s="3">
-        <v>44579</v>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1">
         <v>22892162</v>
@@ -1399,11 +1624,11 @@
       <c r="A30" s="1">
         <v>8867156</v>
       </c>
-      <c r="B30" s="3">
-        <v>44578</v>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>22892167</v>
@@ -1413,11 +1638,11 @@
       <c r="A31" s="1">
         <v>8868087</v>
       </c>
-      <c r="B31" s="3">
-        <v>44580</v>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
         <v>22896062</v>
@@ -1427,11 +1652,11 @@
       <c r="A32" s="1">
         <v>8868086</v>
       </c>
-      <c r="B32" s="3">
-        <v>44580</v>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1">
         <v>22896075</v>
@@ -1441,11 +1666,11 @@
       <c r="A33" s="1">
         <v>8868818</v>
       </c>
-      <c r="B33" s="3">
-        <v>44581</v>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1">
         <v>22900131</v>
@@ -1455,11 +1680,11 @@
       <c r="A34" s="1">
         <v>8868817</v>
       </c>
-      <c r="B34" s="3">
-        <v>44581</v>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
         <v>22900150</v>
@@ -1469,11 +1694,11 @@
       <c r="A35" s="1">
         <v>8868646</v>
       </c>
-      <c r="B35" s="3">
-        <v>44580</v>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
         <v>22900154</v>
@@ -1483,11 +1708,11 @@
       <c r="A36" s="1">
         <v>8869534</v>
       </c>
-      <c r="B36" s="3">
-        <v>44582</v>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
         <v>22903020</v>
@@ -1497,11 +1722,11 @@
       <c r="A37" s="1">
         <v>8869533</v>
       </c>
-      <c r="B37" s="3">
-        <v>44582</v>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1">
         <v>22903061</v>
@@ -1511,11 +1736,11 @@
       <c r="A38" s="1">
         <v>8869387</v>
       </c>
-      <c r="B38" s="3">
-        <v>44581</v>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1">
         <v>22903068</v>
@@ -1525,11 +1750,11 @@
       <c r="A39" s="1">
         <v>8870315</v>
       </c>
-      <c r="B39" s="3">
-        <v>44583</v>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1">
         <v>22907522</v>
@@ -1539,11 +1764,11 @@
       <c r="A40" s="1">
         <v>8870314</v>
       </c>
-      <c r="B40" s="3">
-        <v>44583</v>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
         <v>22907540</v>
@@ -1553,11 +1778,11 @@
       <c r="A41" s="1">
         <v>8871042</v>
       </c>
-      <c r="B41" s="3">
-        <v>44586</v>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1">
         <v>22913240</v>
@@ -1567,11 +1792,11 @@
       <c r="A42" s="1">
         <v>8871011</v>
       </c>
-      <c r="B42" s="3">
-        <v>44586</v>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
         <v>22913262</v>
@@ -1581,11 +1806,11 @@
       <c r="A43" s="1">
         <v>8871010</v>
       </c>
-      <c r="B43" s="3">
-        <v>44586</v>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1">
         <v>22913330</v>
@@ -1595,11 +1820,11 @@
       <c r="A44" s="1">
         <v>8870869</v>
       </c>
-      <c r="B44" s="3">
-        <v>44585</v>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
         <v>22913351</v>
@@ -1609,11 +1834,11 @@
       <c r="A45" s="1">
         <v>8871804</v>
       </c>
-      <c r="B45" s="3">
-        <v>44587</v>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1">
         <v>22915442</v>
@@ -1623,11 +1848,11 @@
       <c r="A46" s="1">
         <v>8871800</v>
       </c>
-      <c r="B46" s="3">
-        <v>44587</v>
+      <c r="B46" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1">
         <v>22915470</v>
@@ -1637,11 +1862,11 @@
       <c r="A47" s="1">
         <v>8871799</v>
       </c>
-      <c r="B47" s="3">
-        <v>44587</v>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1">
         <v>22915474</v>
@@ -1651,11 +1876,11 @@
       <c r="A48" s="1">
         <v>8871588</v>
       </c>
-      <c r="B48" s="3">
-        <v>44586</v>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <v>22915478</v>
@@ -1665,11 +1890,11 @@
       <c r="A49" s="1">
         <v>8872551</v>
       </c>
-      <c r="B49" s="3">
-        <v>44588</v>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1">
         <v>22920250</v>
@@ -1679,11 +1904,11 @@
       <c r="A50" s="1">
         <v>8872550</v>
       </c>
-      <c r="B50" s="3">
-        <v>44588</v>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1">
         <v>22920256</v>
@@ -1693,11 +1918,11 @@
       <c r="A51" s="1">
         <v>8873276</v>
       </c>
-      <c r="B51" s="3">
-        <v>44589</v>
+      <c r="B51" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1">
         <v>22925080</v>
@@ -1707,11 +1932,11 @@
       <c r="A52" s="1">
         <v>8873275</v>
       </c>
-      <c r="B52" s="3">
-        <v>44589</v>
+      <c r="B52" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1">
         <v>22925082</v>
@@ -1721,11 +1946,11 @@
       <c r="A53" s="1">
         <v>8873095</v>
       </c>
-      <c r="B53" s="3">
-        <v>44588</v>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1">
         <v>22925100</v>
@@ -1735,11 +1960,11 @@
       <c r="A54" s="1">
         <v>8873987</v>
       </c>
-      <c r="B54" s="3">
-        <v>44590</v>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1">
         <v>22928530</v>
@@ -1749,11 +1974,11 @@
       <c r="A55" s="1">
         <v>8873986</v>
       </c>
-      <c r="B55" s="3">
-        <v>44590</v>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1">
         <v>22928610</v>
@@ -1763,11 +1988,11 @@
       <c r="A56" s="1">
         <v>8873777</v>
       </c>
-      <c r="B56" s="3">
-        <v>44589</v>
+      <c r="B56" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>22928680</v>
@@ -1777,11 +2002,11 @@
       <c r="A57" s="1">
         <v>8874670</v>
       </c>
-      <c r="B57" s="3">
-        <v>44593</v>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D57" s="1">
         <v>22934681</v>
@@ -1791,11 +2016,11 @@
       <c r="A58" s="1">
         <v>8874669</v>
       </c>
-      <c r="B58" s="3">
-        <v>44593</v>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D58" s="1">
         <v>22934700</v>
@@ -1805,11 +2030,11 @@
       <c r="A59" s="1">
         <v>8874479</v>
       </c>
-      <c r="B59" s="3">
-        <v>44592</v>
+      <c r="B59" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D59" s="1">
         <v>22934741</v>
@@ -1819,11 +2044,11 @@
       <c r="A60" s="1">
         <v>8875394</v>
       </c>
-      <c r="B60" s="3">
-        <v>44594</v>
+      <c r="B60" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1">
         <v>22952915</v>
@@ -1833,11 +2058,11 @@
       <c r="A61" s="1">
         <v>8875393</v>
       </c>
-      <c r="B61" s="3">
-        <v>44594</v>
+      <c r="B61" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D61" s="1">
         <v>22952930</v>
@@ -1847,11 +2072,11 @@
       <c r="A62" s="1">
         <v>8876934</v>
       </c>
-      <c r="B62" s="3">
-        <v>44596</v>
+      <c r="B62" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1">
         <v>22961961</v>
@@ -1861,11 +2086,11 @@
       <c r="A63" s="1">
         <v>8876933</v>
       </c>
-      <c r="B63" s="3">
-        <v>44596</v>
+      <c r="B63" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1">
         <v>22961983</v>
@@ -1875,11 +2100,11 @@
       <c r="A64" s="1">
         <v>8876752</v>
       </c>
-      <c r="B64" s="3">
-        <v>44595</v>
+      <c r="B64" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D64" s="1">
         <v>22961988</v>
@@ -1889,11 +2114,11 @@
       <c r="A65" s="1">
         <v>8876182</v>
       </c>
-      <c r="B65" s="3">
-        <v>44595</v>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D65" s="1">
         <v>22961990</v>
@@ -1903,11 +2128,11 @@
       <c r="A66" s="1">
         <v>8876181</v>
       </c>
-      <c r="B66" s="3">
-        <v>44595</v>
+      <c r="B66" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D66" s="1">
         <v>22961998</v>
@@ -1917,11 +2142,11 @@
       <c r="A67" s="1">
         <v>8875986</v>
       </c>
-      <c r="B67" s="3">
-        <v>44595</v>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D67" s="1">
         <v>22962006</v>
@@ -1931,11 +2156,11 @@
       <c r="A68" s="1">
         <v>8877676</v>
       </c>
-      <c r="B68" s="3">
-        <v>44597</v>
+      <c r="B68" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D68" s="1">
         <v>22965320</v>
@@ -1945,11 +2170,11 @@
       <c r="A69" s="1">
         <v>8877675</v>
       </c>
-      <c r="B69" s="3">
-        <v>44597</v>
+      <c r="B69" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D69" s="1">
         <v>22965343</v>
@@ -1959,11 +2184,11 @@
       <c r="A70" s="1">
         <v>8877493</v>
       </c>
-      <c r="B70" s="3">
-        <v>44596</v>
+      <c r="B70" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1">
         <v>22965382</v>
@@ -1973,11 +2198,11 @@
       <c r="A71" s="1">
         <v>8878383</v>
       </c>
-      <c r="B71" s="3">
-        <v>44600</v>
+      <c r="B71" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1">
         <v>22971260</v>
@@ -1987,11 +2212,11 @@
       <c r="A72" s="1">
         <v>8878382</v>
       </c>
-      <c r="B72" s="3">
-        <v>44600</v>
+      <c r="B72" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D72" s="1">
         <v>22971265</v>
@@ -2001,11 +2226,11 @@
       <c r="A73" s="1">
         <v>8878231</v>
       </c>
-      <c r="B73" s="3">
-        <v>44599</v>
+      <c r="B73" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D73" s="1">
         <v>22971280</v>
@@ -2015,11 +2240,11 @@
       <c r="A74" s="1">
         <v>8879148</v>
       </c>
-      <c r="B74" s="3">
-        <v>44601</v>
+      <c r="B74" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D74" s="1">
         <v>22975346</v>
@@ -2029,11 +2254,11 @@
       <c r="A75" s="1">
         <v>8879147</v>
       </c>
-      <c r="B75" s="3">
-        <v>44601</v>
+      <c r="B75" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D75" s="1">
         <v>22975349</v>
@@ -2043,11 +2268,11 @@
       <c r="A76" s="1">
         <v>8878963</v>
       </c>
-      <c r="B76" s="3">
-        <v>44601</v>
+      <c r="B76" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D76" s="1">
         <v>22975373</v>
@@ -2057,11 +2282,11 @@
       <c r="A77" s="1">
         <v>8879901</v>
       </c>
-      <c r="B77" s="3">
-        <v>44602</v>
+      <c r="B77" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1">
         <v>22979490</v>
@@ -2071,11 +2296,11 @@
       <c r="A78" s="1">
         <v>8879900</v>
       </c>
-      <c r="B78" s="3">
-        <v>44602</v>
+      <c r="B78" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D78" s="1">
         <v>22979500</v>
@@ -2085,11 +2310,11 @@
       <c r="A79" s="1">
         <v>8879730</v>
       </c>
-      <c r="B79" s="3">
-        <v>44601</v>
+      <c r="B79" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1">
         <v>22979527</v>
@@ -2099,11 +2324,11 @@
       <c r="A80" s="1">
         <v>8880647</v>
       </c>
-      <c r="B80" s="3">
-        <v>44603</v>
+      <c r="B80" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1">
         <v>22982976</v>
@@ -2113,11 +2338,11 @@
       <c r="A81" s="1">
         <v>8880646</v>
       </c>
-      <c r="B81" s="3">
-        <v>44603</v>
+      <c r="B81" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1">
         <v>22983000</v>
@@ -2127,11 +2352,11 @@
       <c r="A82" s="1">
         <v>8880464</v>
       </c>
-      <c r="B82" s="3">
-        <v>44602</v>
+      <c r="B82" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D82" s="1">
         <v>22983026</v>
@@ -2141,11 +2366,11 @@
       <c r="A83" s="1">
         <v>8881313</v>
       </c>
-      <c r="B83" s="3">
-        <v>44604</v>
+      <c r="B83" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D83" s="1">
         <v>22986180</v>
@@ -2155,11 +2380,11 @@
       <c r="A84" s="1">
         <v>8881312</v>
       </c>
-      <c r="B84" s="3">
-        <v>44604</v>
+      <c r="B84" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D84" s="1">
         <v>22986189</v>
@@ -2169,11 +2394,11 @@
       <c r="A85" s="1">
         <v>8881206</v>
       </c>
-      <c r="B85" s="3">
-        <v>44603</v>
+      <c r="B85" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D85" s="1">
         <v>22986192</v>
@@ -2184,10 +2409,10 @@
         <v>8882092</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D86" s="1">
         <v>22991973</v>
@@ -2198,10 +2423,10 @@
         <v>8882091</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D87" s="1">
         <v>22991992</v>
@@ -2212,10 +2437,10 @@
         <v>8881914</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D88" s="1">
         <v>22992010</v>
@@ -2226,10 +2451,10 @@
         <v>8882828</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D89" s="1">
         <v>22996430</v>
@@ -2240,10 +2465,10 @@
         <v>8882827</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D90" s="1">
         <v>22996432</v>
@@ -2254,10 +2479,10 @@
         <v>8882641</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D91" s="1">
         <v>22996470</v>
@@ -2268,10 +2493,10 @@
         <v>8883577</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D92" s="1">
         <v>23001020</v>
@@ -2282,10 +2507,10 @@
         <v>8883576</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D93" s="1">
         <v>23001041</v>
@@ -2296,10 +2521,10 @@
         <v>8883467</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D94" s="1">
         <v>23001062</v>
@@ -2310,10 +2535,10 @@
         <v>8884309</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D95" s="1">
         <v>23003013</v>
@@ -2324,10 +2549,10 @@
         <v>8884308</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1">
         <v>23003017</v>
@@ -2338,10 +2563,10 @@
         <v>8884126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D97" s="1">
         <v>23003030</v>
@@ -2352,10 +2577,10 @@
         <v>8885007</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D98" s="1">
         <v>23007111</v>
@@ -2366,10 +2591,10 @@
         <v>8885006</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D99" s="1">
         <v>23007492</v>
@@ -2380,10 +2605,10 @@
         <v>8885722</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D100" s="1">
         <v>23011250</v>
@@ -2394,10 +2619,10 @@
         <v>8885721</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D101" s="1">
         <v>23011272</v>
@@ -2408,10 +2633,10 @@
         <v>8885610</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D102" s="1">
         <v>23011293</v>
@@ -2422,10 +2647,10 @@
         <v>8886502</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D103" s="1">
         <v>23015272</v>
@@ -2436,10 +2661,10 @@
         <v>8886501</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D104" s="1">
         <v>23015303</v>
@@ -2450,10 +2675,10 @@
         <v>8886283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D105" s="1">
         <v>23015350</v>
@@ -2464,10 +2689,10 @@
         <v>8887204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D106" s="1">
         <v>23018820</v>
@@ -2478,10 +2703,10 @@
         <v>8887203</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D107" s="1">
         <v>23018861</v>
@@ -2492,10 +2717,10 @@
         <v>8887882</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D108" s="1">
         <v>23023023</v>
@@ -2506,10 +2731,10 @@
         <v>8887706</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D109" s="1">
         <v>23023271</v>
@@ -2519,11 +2744,11 @@
       <c r="A110" s="1">
         <v>8889237</v>
       </c>
-      <c r="B110" s="3">
-        <v>44621</v>
+      <c r="B110" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D110" s="1">
         <v>23029770</v>
@@ -2533,11 +2758,11 @@
       <c r="A111" s="1">
         <v>8889236</v>
       </c>
-      <c r="B111" s="3">
-        <v>44621</v>
+      <c r="B111" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D111" s="1">
         <v>23029775</v>
@@ -2548,10 +2773,10 @@
         <v>8888435</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D112" s="1">
         <v>23029813</v>
@@ -2562,10 +2787,10 @@
         <v>8887881</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D113" s="1">
         <v>23023041</v>
@@ -2575,11 +2800,11 @@
       <c r="A114" s="1">
         <v>8889970</v>
       </c>
-      <c r="B114" s="3">
-        <v>44622</v>
+      <c r="B114" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D114" s="1">
         <v>23033790</v>
@@ -2589,11 +2814,11 @@
       <c r="A115" s="1">
         <v>8889969</v>
       </c>
-      <c r="B115" s="3">
-        <v>44622</v>
+      <c r="B115" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D115" s="1">
         <v>23033841</v>
@@ -2603,11 +2828,11 @@
       <c r="A116" s="1">
         <v>8889786</v>
       </c>
-      <c r="B116" s="3">
-        <v>44621</v>
+      <c r="B116" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D116" s="1">
         <v>23033846</v>
@@ -2617,11 +2842,11 @@
       <c r="A117" s="1">
         <v>8890603</v>
       </c>
-      <c r="B117" s="3">
-        <v>44623</v>
+      <c r="B117" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D117" s="1">
         <v>23036470</v>
@@ -2631,11 +2856,11 @@
       <c r="A118" s="1">
         <v>8890602</v>
       </c>
-      <c r="B118" s="3">
-        <v>44623</v>
+      <c r="B118" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D118" s="1">
         <v>23036473</v>
@@ -2645,11 +2870,11 @@
       <c r="A119" s="1">
         <v>8890439</v>
       </c>
-      <c r="B119" s="3">
-        <v>44622</v>
+      <c r="B119" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D119" s="1">
         <v>23036479</v>
@@ -2659,11 +2884,11 @@
       <c r="A120" s="1">
         <v>8891271</v>
       </c>
-      <c r="B120" s="3">
-        <v>44624</v>
+      <c r="B120" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D120" s="1">
         <v>23040676</v>
@@ -2673,11 +2898,11 @@
       <c r="A121" s="1">
         <v>8891270</v>
       </c>
-      <c r="B121" s="3">
-        <v>44624</v>
+      <c r="B121" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D121" s="1">
         <v>23040681</v>
@@ -2687,11 +2912,11 @@
       <c r="A122" s="1">
         <v>8891143</v>
       </c>
-      <c r="B122" s="3">
-        <v>44624</v>
+      <c r="B122" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D122" s="1">
         <v>23040682</v>
@@ -2701,11 +2926,11 @@
       <c r="A123" s="1">
         <v>8892020</v>
       </c>
-      <c r="B123" s="3">
-        <v>44625</v>
+      <c r="B123" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="D123" s="1">
         <v>23044387</v>
@@ -2715,11 +2940,11 @@
       <c r="A124" s="1">
         <v>8892019</v>
       </c>
-      <c r="B124" s="3">
-        <v>44625</v>
+      <c r="B124" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D124" s="1">
         <v>23044393</v>
@@ -2729,11 +2954,11 @@
       <c r="A125" s="1">
         <v>8892786</v>
       </c>
-      <c r="B125" s="3">
-        <v>44628</v>
+      <c r="B125" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D125" s="1">
         <v>23048542</v>
@@ -2743,11 +2968,11 @@
       <c r="A126" s="1">
         <v>8892785</v>
       </c>
-      <c r="B126" s="3">
-        <v>44628</v>
+      <c r="B126" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D126" s="1">
         <v>23048564</v>
@@ -2757,11 +2982,11 @@
       <c r="A127" s="1">
         <v>8892538</v>
       </c>
-      <c r="B127" s="3">
-        <v>44627</v>
+      <c r="B127" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="D127" s="1">
         <v>23048569</v>
@@ -2771,11 +2996,11 @@
       <c r="A128" s="1">
         <v>8893451</v>
       </c>
-      <c r="B128" s="3">
-        <v>44629</v>
+      <c r="B128" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D128" s="1">
         <v>23053630</v>
@@ -2785,11 +3010,11 @@
       <c r="A129" s="1">
         <v>8893450</v>
       </c>
-      <c r="B129" s="3">
-        <v>44629</v>
+      <c r="B129" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D129" s="1">
         <v>23053650</v>
@@ -2799,11 +3024,11 @@
       <c r="A130" s="1">
         <v>8893291</v>
       </c>
-      <c r="B130" s="3">
-        <v>44629</v>
+      <c r="B130" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D130" s="1">
         <v>23053673</v>
@@ -2813,11 +3038,11 @@
       <c r="A131" s="1">
         <v>8894137</v>
       </c>
-      <c r="B131" s="3">
-        <v>44630</v>
+      <c r="B131" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D131" s="1">
         <v>23058881</v>
@@ -2827,11 +3052,11 @@
       <c r="A132" s="1">
         <v>8894136</v>
       </c>
-      <c r="B132" s="3">
-        <v>44630</v>
+      <c r="B132" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D132" s="1">
         <v>23058920</v>
@@ -2841,11 +3066,11 @@
       <c r="A133" s="1">
         <v>8893992</v>
       </c>
-      <c r="B133" s="3">
-        <v>44629</v>
+      <c r="B133" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D133" s="1">
         <v>23058929</v>
@@ -2855,11 +3080,11 @@
       <c r="A134" s="1">
         <v>8895041</v>
       </c>
-      <c r="B134" s="3">
-        <v>44631</v>
+      <c r="B134" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D134" s="1">
         <v>23061002</v>
@@ -2869,11 +3094,11 @@
       <c r="A135" s="1">
         <v>8894962</v>
       </c>
-      <c r="B135" s="3">
-        <v>44631</v>
+      <c r="B135" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D135" s="1">
         <v>23061011</v>
@@ -2883,11 +3108,11 @@
       <c r="A136" s="1">
         <v>8894791</v>
       </c>
-      <c r="B136" s="3">
-        <v>44630</v>
+      <c r="B136" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D136" s="1">
         <v>23061017</v>
@@ -2897,11 +3122,11 @@
       <c r="A137" s="1">
         <v>8895639</v>
       </c>
-      <c r="B137" s="3">
-        <v>44632</v>
+      <c r="B137" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D137" s="1">
         <v>23065129</v>
@@ -2911,11 +3136,11 @@
       <c r="A138" s="1">
         <v>8895638</v>
       </c>
-      <c r="B138" s="3">
-        <v>44632</v>
+      <c r="B138" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D138" s="1">
         <v>23065135</v>
@@ -2925,11 +3150,11 @@
       <c r="A139" s="1">
         <v>8895471</v>
       </c>
-      <c r="B139" s="3">
-        <v>44631</v>
+      <c r="B139" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D139" s="1">
         <v>23065136</v>
@@ -2940,10 +3165,10 @@
         <v>8896520</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D140" s="1">
         <v>23074514</v>
@@ -2954,10 +3179,10 @@
         <v>8897059</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D141" s="1">
         <v>23077004</v>
@@ -2968,10 +3193,10 @@
         <v>8898493</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D142" s="1">
         <v>23083173</v>
@@ -2982,10 +3207,10 @@
         <v>8898482</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D143" s="1">
         <v>23083210</v>
@@ -2996,10 +3221,10 @@
         <v>8898723</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="D144" s="1">
         <v>23086948</v>
@@ -3010,10 +3235,10 @@
         <v>8899668</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="D145" s="1">
         <v>23091031</v>
@@ -3024,10 +3249,10 @@
         <v>8899220</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D146" s="1">
         <v>23091037</v>
@@ -3038,10 +3263,10 @@
         <v>8899117</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="D147" s="1">
         <v>23091084</v>
@@ -3052,10 +3277,10 @@
         <v>8899886</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="D148" s="1">
         <v>23094229</v>
@@ -3066,10 +3291,10 @@
         <v>8900775</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1">
         <v>23098085</v>
@@ -3080,10 +3305,10 @@
         <v>8900718</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D150" s="1">
         <v>23098090</v>
@@ -3094,10 +3319,10 @@
         <v>8900582</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="D151" s="1">
         <v>23098120</v>
@@ -3108,10 +3333,10 @@
         <v>8900335</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="D152" s="1">
         <v>23098145</v>
@@ -3122,10 +3347,10 @@
         <v>8901776</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D153" s="1">
         <v>23103150</v>
@@ -3136,10 +3361,10 @@
         <v>8901755</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D154" s="1">
         <v>23103172</v>
@@ -3150,10 +3375,10 @@
         <v>8901330</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="D155" s="1">
         <v>23103191</v>
@@ -3164,10 +3389,10 @@
         <v>8901329</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="D156" s="1">
         <v>23103194</v>
@@ -3178,10 +3403,10 @@
         <v>8902166</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D157" s="1">
         <v>23106854</v>
@@ -3192,10 +3417,10 @@
         <v>8902165</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="D158" s="1">
         <v>23106873</v>
@@ -3206,10 +3431,10 @@
         <v>8902885</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D159" s="1">
         <v>23111770</v>
@@ -3220,10 +3445,10 @@
         <v>8902884</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D160" s="1">
         <v>23111822</v>
@@ -3234,10 +3459,10 @@
         <v>8902729</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="D161" s="1">
         <v>23111862</v>
@@ -3248,10 +3473,10 @@
         <v>8903601</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="D162" s="1">
         <v>23116265</v>
@@ -3262,10 +3487,10 @@
         <v>8903600</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="D163" s="1">
         <v>23116287</v>
@@ -3276,10 +3501,10 @@
         <v>8903437</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="D164" s="1">
         <v>23116294</v>
@@ -3289,11 +3514,11 @@
       <c r="A165" s="1">
         <v>8904355</v>
       </c>
-      <c r="B165" s="3">
-        <v>44652</v>
+      <c r="B165" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D165" s="1">
         <v>23119629</v>
@@ -3303,11 +3528,11 @@
       <c r="A166" s="1">
         <v>8904354</v>
       </c>
-      <c r="B166" s="3">
-        <v>44652</v>
+      <c r="B166" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="D166" s="1">
         <v>23119632</v>
@@ -3318,10 +3543,10 @@
         <v>8904124</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="D167" s="1">
         <v>23119635</v>
@@ -3331,11 +3556,11 @@
       <c r="A168" s="1">
         <v>8905020</v>
       </c>
-      <c r="B168" s="3">
-        <v>44653</v>
+      <c r="B168" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="D168" s="1">
         <v>23123880</v>
@@ -3345,11 +3570,11 @@
       <c r="A169" s="1">
         <v>8905019</v>
       </c>
-      <c r="B169" s="3">
-        <v>44653</v>
+      <c r="B169" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="D169" s="1">
         <v>23123932</v>
@@ -3359,11 +3584,11 @@
       <c r="A170" s="1">
         <v>8904879</v>
       </c>
-      <c r="B170" s="3">
-        <v>44652</v>
+      <c r="B170" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D170" s="1">
         <v>23123970</v>
@@ -3373,11 +3598,11 @@
       <c r="A171" s="1">
         <v>8905738</v>
       </c>
-      <c r="B171" s="3">
-        <v>44656</v>
+      <c r="B171" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="D171" s="1">
         <v>23128220</v>
@@ -3387,11 +3612,11 @@
       <c r="A172" s="1">
         <v>8905589</v>
       </c>
-      <c r="B172" s="3">
-        <v>44655</v>
+      <c r="B172" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D172" s="1">
         <v>23128226</v>
@@ -3401,11 +3626,11 @@
       <c r="A173" s="1">
         <v>8906417</v>
       </c>
-      <c r="B173" s="3">
-        <v>44657</v>
+      <c r="B173" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="D173" s="1">
         <v>23134152</v>
@@ -3415,11 +3640,11 @@
       <c r="A174" s="1">
         <v>8906416</v>
       </c>
-      <c r="B174" s="3">
-        <v>44657</v>
+      <c r="B174" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="D174" s="1">
         <v>23134466</v>
@@ -3429,11 +3654,11 @@
       <c r="A175" s="1">
         <v>8906279</v>
       </c>
-      <c r="B175" s="3">
-        <v>44656</v>
+      <c r="B175" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="D175" s="1">
         <v>23134510</v>
@@ -3443,11 +3668,11 @@
       <c r="A176" s="1">
         <v>8907153</v>
       </c>
-      <c r="B176" s="3">
-        <v>44658</v>
+      <c r="B176" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="D176" s="1">
         <v>23136060</v>
@@ -3457,11 +3682,11 @@
       <c r="A177" s="1">
         <v>8907152</v>
       </c>
-      <c r="B177" s="3">
-        <v>44658</v>
+      <c r="B177" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D177" s="1">
         <v>23136090</v>
@@ -3471,14 +3696,196 @@
       <c r="A178" s="1">
         <v>8907074</v>
       </c>
-      <c r="B178" s="3">
-        <v>44657</v>
+      <c r="B178" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="D178" s="1">
         <v>23136114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>8907891</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" s="1">
+        <v>23139189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>8907890</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D180" s="1">
+        <v>23139199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>8907822</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D181" s="1">
+        <v>23139219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>8908678</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D182" s="1">
+        <v>23144010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>8908677</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D183" s="1">
+        <v>23144024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>8908495</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D184" s="1">
+        <v>23144063</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>8909373</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D185" s="1">
+        <v>23146321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>8909372</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D186" s="1">
+        <v>23146327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>8909279</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D187" s="1">
+        <v>23146360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>8910011</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D188" s="1">
+        <v>23148937</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>8910010</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23148970</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>8910784</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23151925</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>8910783</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23151928</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable_03404.xlsx
+++ b/DataTable_03404.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4F0E1-B20C-4183-83AE-A66D77B81043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E727A-66CE-400D-95D2-434B0379100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="348">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,6 +52,795 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>24-05-2022</t>
+  </si>
+  <si>
+    <t>968,07 EUR</t>
+  </si>
+  <si>
+    <t>19,62 EUR</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>99,25 EUR</t>
+  </si>
+  <si>
+    <t>21-05-2022</t>
+  </si>
+  <si>
+    <t>1.715,49 EUR</t>
+  </si>
+  <si>
+    <t>484,05 EUR</t>
+  </si>
+  <si>
+    <t>20-05-2022</t>
+  </si>
+  <si>
+    <t>491,17 EUR</t>
+  </si>
+  <si>
+    <t>1.140,42 EUR</t>
+  </si>
+  <si>
+    <t>118,76 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>44565</t>
+  </si>
+  <si>
+    <t>44566</t>
+  </si>
+  <si>
+    <t>44568</t>
+  </si>
+  <si>
+    <t>44571</t>
+  </si>
+  <si>
+    <t>44572</t>
+  </si>
+  <si>
+    <t>44573</t>
+  </si>
+  <si>
+    <t>44574</t>
+  </si>
+  <si>
+    <t>1.122,69 EUR</t>
+  </si>
+  <si>
+    <t>410,91 EUR</t>
+  </si>
+  <si>
+    <t>561,59 EUR</t>
+  </si>
+  <si>
+    <t>329,81 EUR</t>
+  </si>
+  <si>
+    <t>44575</t>
+  </si>
+  <si>
+    <t>3.450,52 EUR</t>
+  </si>
+  <si>
+    <t>321,87 EUR</t>
+  </si>
+  <si>
+    <t>279,21 EUR</t>
+  </si>
+  <si>
+    <t>44576</t>
+  </si>
+  <si>
+    <t>7.570,94 EUR</t>
+  </si>
+  <si>
+    <t>129,58 EUR</t>
+  </si>
+  <si>
+    <t>194,20 EUR</t>
+  </si>
+  <si>
+    <t>44579</t>
+  </si>
+  <si>
+    <t>3.480,28 EUR</t>
+  </si>
+  <si>
+    <t>354,81 EUR</t>
+  </si>
+  <si>
+    <t>44578</t>
+  </si>
+  <si>
+    <t>332,71 EUR</t>
+  </si>
+  <si>
+    <t>44580</t>
+  </si>
+  <si>
+    <t>2.132,19 EUR</t>
+  </si>
+  <si>
+    <t>578,98 EUR</t>
+  </si>
+  <si>
+    <t>44581</t>
+  </si>
+  <si>
+    <t>5.278,43 EUR</t>
+  </si>
+  <si>
+    <t>18,73 EUR</t>
+  </si>
+  <si>
+    <t>548,57 EUR</t>
+  </si>
+  <si>
+    <t>44582</t>
+  </si>
+  <si>
+    <t>4.269,33 EUR</t>
+  </si>
+  <si>
+    <t>1.081,42 EUR</t>
+  </si>
+  <si>
+    <t>691,72 EUR</t>
+  </si>
+  <si>
+    <t>44583</t>
+  </si>
+  <si>
+    <t>3.258,23 EUR</t>
+  </si>
+  <si>
+    <t>239,34 EUR</t>
+  </si>
+  <si>
+    <t>44586</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>2.565,03 EUR</t>
+  </si>
+  <si>
+    <t>423,91 EUR</t>
+  </si>
+  <si>
+    <t>44585</t>
+  </si>
+  <si>
+    <t>127,95 EUR</t>
+  </si>
+  <si>
+    <t>44587</t>
+  </si>
+  <si>
+    <t>361,74 EUR</t>
+  </si>
+  <si>
+    <t>1.688,58 EUR</t>
+  </si>
+  <si>
+    <t>381,86 EUR</t>
+  </si>
+  <si>
+    <t>2.577,78 EUR</t>
+  </si>
+  <si>
+    <t>44588</t>
+  </si>
+  <si>
+    <t>789,82 EUR</t>
+  </si>
+  <si>
+    <t>72,14 EUR</t>
+  </si>
+  <si>
+    <t>44589</t>
+  </si>
+  <si>
+    <t>1.895,74 EUR</t>
+  </si>
+  <si>
+    <t>315,35 EUR</t>
+  </si>
+  <si>
+    <t>354,31 EUR</t>
+  </si>
+  <si>
+    <t>44590</t>
+  </si>
+  <si>
+    <t>4.773,22 EUR</t>
+  </si>
+  <si>
+    <t>326,06 EUR</t>
+  </si>
+  <si>
+    <t>2.020,63 EUR</t>
+  </si>
+  <si>
+    <t>44593</t>
+  </si>
+  <si>
+    <t>6.010,66 EUR</t>
+  </si>
+  <si>
+    <t>238,79 EUR</t>
+  </si>
+  <si>
+    <t>44592</t>
+  </si>
+  <si>
+    <t>402,15 EUR</t>
+  </si>
+  <si>
+    <t>44594</t>
+  </si>
+  <si>
+    <t>1.589,20 EUR</t>
+  </si>
+  <si>
+    <t>777,42 EUR</t>
+  </si>
+  <si>
+    <t>44596</t>
+  </si>
+  <si>
+    <t>1.262,61 EUR</t>
+  </si>
+  <si>
+    <t>338,24 EUR</t>
+  </si>
+  <si>
+    <t>44595</t>
+  </si>
+  <si>
+    <t>247,00 EUR</t>
+  </si>
+  <si>
+    <t>2.002,35 EUR</t>
+  </si>
+  <si>
+    <t>18,06 EUR</t>
+  </si>
+  <si>
+    <t>282,29 EUR</t>
+  </si>
+  <si>
+    <t>44597</t>
+  </si>
+  <si>
+    <t>1.440,81 EUR</t>
+  </si>
+  <si>
+    <t>159,25 EUR</t>
+  </si>
+  <si>
+    <t>44600</t>
+  </si>
+  <si>
+    <t>1.901,44 EUR</t>
+  </si>
+  <si>
+    <t>73,15 EUR</t>
+  </si>
+  <si>
+    <t>44599</t>
+  </si>
+  <si>
+    <t>147,35 EUR</t>
+  </si>
+  <si>
+    <t>44601</t>
+  </si>
+  <si>
+    <t>431,30 EUR</t>
+  </si>
+  <si>
+    <t>1.424,80 EUR</t>
+  </si>
+  <si>
+    <t>141,15 EUR</t>
+  </si>
+  <si>
+    <t>44602</t>
+  </si>
+  <si>
+    <t>1.223,83 EUR</t>
+  </si>
+  <si>
+    <t>802,97 EUR</t>
+  </si>
+  <si>
+    <t>401,12 EUR</t>
+  </si>
+  <si>
+    <t>44603</t>
+  </si>
+  <si>
+    <t>1.949,79 EUR</t>
+  </si>
+  <si>
+    <t>478,20 EUR</t>
+  </si>
+  <si>
+    <t>384,31 EUR</t>
+  </si>
+  <si>
+    <t>44604</t>
+  </si>
+  <si>
+    <t>1.226,67 EUR</t>
+  </si>
+  <si>
+    <t>235,74 EUR</t>
+  </si>
+  <si>
+    <t>995,45 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>4.765,99 EUR</t>
+  </si>
+  <si>
+    <t>2.148,31 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>284,46 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.688,80 EUR</t>
+  </si>
+  <si>
+    <t>68,43 EUR</t>
+  </si>
+  <si>
+    <t>441,80 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>3.523,64 EUR</t>
+  </si>
+  <si>
+    <t>28,95 EUR</t>
+  </si>
+  <si>
+    <t>172,73 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>2.009,04 EUR</t>
+  </si>
+  <si>
+    <t>1.947,46 EUR</t>
+  </si>
+  <si>
+    <t>331,53 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>2.493,77 EUR</t>
+  </si>
+  <si>
+    <t>165,45 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>2.346,97 EUR</t>
+  </si>
+  <si>
+    <t>609,50 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>1.078,38 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>9.415,96 EUR</t>
+  </si>
+  <si>
+    <t>197,71 EUR</t>
+  </si>
+  <si>
+    <t>283,65 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>4.616,37 EUR</t>
+  </si>
+  <si>
+    <t>121,39 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>1.780,69 EUR</t>
+  </si>
+  <si>
+    <t>265,14 EUR</t>
+  </si>
+  <si>
+    <t>44621</t>
+  </si>
+  <si>
+    <t>4.684,82 EUR</t>
+  </si>
+  <si>
+    <t>220,87 EUR</t>
+  </si>
+  <si>
+    <t>1.080,03 EUR</t>
+  </si>
+  <si>
+    <t>62,68 EUR</t>
+  </si>
+  <si>
+    <t>44622</t>
+  </si>
+  <si>
+    <t>245,59 EUR</t>
+  </si>
+  <si>
+    <t>615,88 EUR</t>
+  </si>
+  <si>
+    <t>734,27 EUR</t>
+  </si>
+  <si>
+    <t>44623</t>
+  </si>
+  <si>
+    <t>497,45 EUR</t>
+  </si>
+  <si>
+    <t>124,87 EUR</t>
+  </si>
+  <si>
+    <t>386,31 EUR</t>
+  </si>
+  <si>
+    <t>44624</t>
+  </si>
+  <si>
+    <t>400,24 EUR</t>
+  </si>
+  <si>
+    <t>167,19 EUR</t>
+  </si>
+  <si>
+    <t>1.821,41 EUR</t>
+  </si>
+  <si>
+    <t>44625</t>
+  </si>
+  <si>
+    <t>1.825,31 EUR</t>
+  </si>
+  <si>
+    <t>155,80 EUR</t>
+  </si>
+  <si>
+    <t>44628</t>
+  </si>
+  <si>
+    <t>1.195,49 EUR</t>
+  </si>
+  <si>
+    <t>111,39 EUR</t>
+  </si>
+  <si>
+    <t>44627</t>
+  </si>
+  <si>
+    <t>976,25 EUR</t>
+  </si>
+  <si>
+    <t>44629</t>
+  </si>
+  <si>
+    <t>2.272,74 EUR</t>
+  </si>
+  <si>
+    <t>703,43 EUR</t>
+  </si>
+  <si>
+    <t>44630</t>
+  </si>
+  <si>
+    <t>7.328,99 EUR</t>
+  </si>
+  <si>
+    <t>476,33 EUR</t>
+  </si>
+  <si>
+    <t>1.465,45 EUR</t>
+  </si>
+  <si>
+    <t>44631</t>
+  </si>
+  <si>
+    <t>261,41 EUR</t>
+  </si>
+  <si>
+    <t>2.402,04 EUR</t>
+  </si>
+  <si>
+    <t>44632</t>
+  </si>
+  <si>
+    <t>3.191,31 EUR</t>
+  </si>
+  <si>
+    <t>9.506,05 EUR</t>
+  </si>
+  <si>
+    <t>286,06 EUR</t>
+  </si>
+  <si>
+    <t>  15-03-2022</t>
+  </si>
+  <si>
+    <t>  134,66 EUR</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>684,36 EUR</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>1.934,95 EUR</t>
+  </si>
+  <si>
+    <t>881,14 EUR</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>269,31 EUR</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>1.058,92 EUR</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>10.767,89 EUR</t>
+  </si>
+  <si>
+    <t>78,60 EUR</t>
+  </si>
+  <si>
+    <t>2.705,18 EUR</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>58,79 EUR</t>
+  </si>
+  <si>
+    <t>2.015,73 EUR</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>8,00 EUR</t>
+  </si>
+  <si>
+    <t>825,40 EUR</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>32,37 EUR</t>
+  </si>
+  <si>
+    <t>3.195,46 EUR</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>8.234,00 EUR</t>
+  </si>
+  <si>
+    <t>14,73 EUR</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>1.775,05 EUR</t>
+  </si>
+  <si>
+    <t>691,44 EUR</t>
+  </si>
+  <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t>2.939,87 EUR</t>
+  </si>
+  <si>
+    <t>1.139,60 EUR</t>
+  </si>
+  <si>
+    <t>663,61 EUR</t>
+  </si>
+  <si>
+    <t>31-03-2022</t>
+  </si>
+  <si>
+    <t>3.627,96 EUR</t>
+  </si>
+  <si>
+    <t>658,99 EUR</t>
+  </si>
+  <si>
+    <t>325,83 EUR</t>
+  </si>
+  <si>
+    <t>44652</t>
+  </si>
+  <si>
+    <t>1.734,63 EUR</t>
+  </si>
+  <si>
+    <t>280,42 EUR</t>
+  </si>
+  <si>
+    <t>1.892,53 EUR</t>
+  </si>
+  <si>
+    <t>44653</t>
+  </si>
+  <si>
+    <t>1.460,46 EUR</t>
+  </si>
+  <si>
+    <t>95,48 EUR</t>
+  </si>
+  <si>
+    <t>44656</t>
+  </si>
+  <si>
+    <t>1.318,29 EUR</t>
+  </si>
+  <si>
+    <t>44655</t>
+  </si>
+  <si>
+    <t>857,27 EUR</t>
+  </si>
+  <si>
+    <t>44657</t>
+  </si>
+  <si>
+    <t>1.015,19 EUR</t>
+  </si>
+  <si>
+    <t>244,89 EUR</t>
+  </si>
+  <si>
+    <t>22,83 EUR</t>
+  </si>
+  <si>
+    <t>44658</t>
+  </si>
+  <si>
+    <t>2.175,72 EUR</t>
+  </si>
+  <si>
+    <t>92,44 EUR</t>
+  </si>
+  <si>
+    <t>239,83 EUR</t>
+  </si>
+  <si>
+    <t>44777</t>
+  </si>
+  <si>
+    <t>1.540,34 EUR</t>
+  </si>
+  <si>
+    <t>108,82 EUR</t>
+  </si>
+  <si>
+    <t>44746</t>
+  </si>
+  <si>
+    <t>248,98 EUR</t>
+  </si>
+  <si>
+    <t>09/04/2022</t>
+  </si>
+  <si>
+    <t>1.417,61 EUR</t>
+  </si>
+  <si>
+    <t>646,98 EUR</t>
+  </si>
+  <si>
+    <t>08/04/2022</t>
+  </si>
+  <si>
+    <t>206,86 EUR</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>2.828,54 EUR</t>
+  </si>
+  <si>
+    <t>637,23 EUR</t>
+  </si>
+  <si>
+    <t>11/04/2022</t>
+  </si>
+  <si>
+    <t>1.818,38 EUR</t>
+  </si>
+  <si>
+    <t>13-04-2022</t>
+  </si>
+  <si>
+    <t>423,65 EUR</t>
+  </si>
+  <si>
+    <t>425,61 EUR</t>
+  </si>
+  <si>
     <t>14-04-2022</t>
   </si>
   <si>
@@ -61,757 +850,238 @@
     <t>137,09 EUR</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>44565</t>
-  </si>
-  <si>
-    <t>44566</t>
-  </si>
-  <si>
-    <t>44568</t>
-  </si>
-  <si>
-    <t>44571</t>
-  </si>
-  <si>
-    <t>44572</t>
-  </si>
-  <si>
-    <t>44573</t>
-  </si>
-  <si>
-    <t>44574</t>
-  </si>
-  <si>
-    <t>1.122,69 EUR</t>
-  </si>
-  <si>
-    <t>410,91 EUR</t>
-  </si>
-  <si>
-    <t>561,59 EUR</t>
-  </si>
-  <si>
-    <t>329,81 EUR</t>
-  </si>
-  <si>
-    <t>44575</t>
-  </si>
-  <si>
-    <t>3.450,52 EUR</t>
-  </si>
-  <si>
-    <t>321,87 EUR</t>
-  </si>
-  <si>
-    <t>279,21 EUR</t>
-  </si>
-  <si>
-    <t>44576</t>
-  </si>
-  <si>
-    <t>7.570,94 EUR</t>
-  </si>
-  <si>
-    <t>129,58 EUR</t>
-  </si>
-  <si>
-    <t>194,20 EUR</t>
-  </si>
-  <si>
-    <t>44579</t>
-  </si>
-  <si>
-    <t>3.480,28 EUR</t>
-  </si>
-  <si>
-    <t>354,81 EUR</t>
-  </si>
-  <si>
-    <t>44578</t>
-  </si>
-  <si>
-    <t>332,71 EUR</t>
-  </si>
-  <si>
-    <t>44580</t>
-  </si>
-  <si>
-    <t>2.132,19 EUR</t>
-  </si>
-  <si>
-    <t>578,98 EUR</t>
-  </si>
-  <si>
-    <t>44581</t>
-  </si>
-  <si>
-    <t>5.278,43 EUR</t>
-  </si>
-  <si>
-    <t>18,73 EUR</t>
-  </si>
-  <si>
-    <t>548,57 EUR</t>
-  </si>
-  <si>
-    <t>44582</t>
-  </si>
-  <si>
-    <t>4.269,33 EUR</t>
-  </si>
-  <si>
-    <t>1.081,42 EUR</t>
-  </si>
-  <si>
-    <t>691,72 EUR</t>
-  </si>
-  <si>
-    <t>44583</t>
-  </si>
-  <si>
-    <t>3.258,23 EUR</t>
-  </si>
-  <si>
-    <t>239,34 EUR</t>
-  </si>
-  <si>
-    <t>44586</t>
-  </si>
-  <si>
-    <t>47,95 EUR</t>
-  </si>
-  <si>
-    <t>2.565,03 EUR</t>
-  </si>
-  <si>
-    <t>423,91 EUR</t>
-  </si>
-  <si>
-    <t>44585</t>
-  </si>
-  <si>
-    <t>127,95 EUR</t>
-  </si>
-  <si>
-    <t>44587</t>
-  </si>
-  <si>
-    <t>361,74 EUR</t>
-  </si>
-  <si>
-    <t>1.688,58 EUR</t>
-  </si>
-  <si>
-    <t>381,86 EUR</t>
-  </si>
-  <si>
-    <t>2.577,78 EUR</t>
-  </si>
-  <si>
-    <t>44588</t>
-  </si>
-  <si>
-    <t>789,82 EUR</t>
-  </si>
-  <si>
-    <t>72,14 EUR</t>
-  </si>
-  <si>
-    <t>44589</t>
-  </si>
-  <si>
-    <t>1.895,74 EUR</t>
-  </si>
-  <si>
-    <t>315,35 EUR</t>
-  </si>
-  <si>
-    <t>354,31 EUR</t>
-  </si>
-  <si>
-    <t>44590</t>
-  </si>
-  <si>
-    <t>4.773,22 EUR</t>
-  </si>
-  <si>
-    <t>326,06 EUR</t>
-  </si>
-  <si>
-    <t>2.020,63 EUR</t>
-  </si>
-  <si>
-    <t>44593</t>
-  </si>
-  <si>
-    <t>6.010,66 EUR</t>
-  </si>
-  <si>
-    <t>238,79 EUR</t>
-  </si>
-  <si>
-    <t>44592</t>
-  </si>
-  <si>
-    <t>402,15 EUR</t>
-  </si>
-  <si>
-    <t>44594</t>
-  </si>
-  <si>
-    <t>1.589,20 EUR</t>
-  </si>
-  <si>
-    <t>777,42 EUR</t>
-  </si>
-  <si>
-    <t>44596</t>
-  </si>
-  <si>
-    <t>1.262,61 EUR</t>
-  </si>
-  <si>
-    <t>338,24 EUR</t>
-  </si>
-  <si>
-    <t>44595</t>
-  </si>
-  <si>
-    <t>247,00 EUR</t>
-  </si>
-  <si>
-    <t>2.002,35 EUR</t>
-  </si>
-  <si>
-    <t>18,06 EUR</t>
-  </si>
-  <si>
-    <t>282,29 EUR</t>
-  </si>
-  <si>
-    <t>44597</t>
-  </si>
-  <si>
-    <t>1.440,81 EUR</t>
-  </si>
-  <si>
-    <t>159,25 EUR</t>
-  </si>
-  <si>
-    <t>44600</t>
-  </si>
-  <si>
-    <t>1.901,44 EUR</t>
-  </si>
-  <si>
-    <t>73,15 EUR</t>
-  </si>
-  <si>
-    <t>44599</t>
-  </si>
-  <si>
-    <t>147,35 EUR</t>
-  </si>
-  <si>
-    <t>44601</t>
-  </si>
-  <si>
-    <t>431,30 EUR</t>
-  </si>
-  <si>
-    <t>1.424,80 EUR</t>
-  </si>
-  <si>
-    <t>141,15 EUR</t>
-  </si>
-  <si>
-    <t>44602</t>
-  </si>
-  <si>
-    <t>1.223,83 EUR</t>
-  </si>
-  <si>
-    <t>802,97 EUR</t>
-  </si>
-  <si>
-    <t>401,12 EUR</t>
-  </si>
-  <si>
-    <t>44603</t>
-  </si>
-  <si>
-    <t>1.949,79 EUR</t>
-  </si>
-  <si>
-    <t>478,20 EUR</t>
-  </si>
-  <si>
-    <t>384,31 EUR</t>
-  </si>
-  <si>
-    <t>44604</t>
-  </si>
-  <si>
-    <t>1.226,67 EUR</t>
-  </si>
-  <si>
-    <t>235,74 EUR</t>
-  </si>
-  <si>
-    <t>995,45 EUR</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>4.765,99 EUR</t>
-  </si>
-  <si>
-    <t>2.148,31 EUR</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>284,46 EUR</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>2.688,80 EUR</t>
-  </si>
-  <si>
-    <t>68,43 EUR</t>
-  </si>
-  <si>
-    <t>441,80 EUR</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>3.523,64 EUR</t>
-  </si>
-  <si>
-    <t>28,95 EUR</t>
-  </si>
-  <si>
-    <t>172,73 EUR</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>2.009,04 EUR</t>
-  </si>
-  <si>
-    <t>1.947,46 EUR</t>
-  </si>
-  <si>
-    <t>331,53 EUR</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>2.493,77 EUR</t>
-  </si>
-  <si>
-    <t>165,45 EUR</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>2.346,97 EUR</t>
-  </si>
-  <si>
-    <t>609,50 EUR</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>1.078,38 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>9.415,96 EUR</t>
-  </si>
-  <si>
-    <t>197,71 EUR</t>
-  </si>
-  <si>
-    <t>283,65 EUR</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>4.616,37 EUR</t>
-  </si>
-  <si>
-    <t>121,39 EUR</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>1.780,69 EUR</t>
-  </si>
-  <si>
-    <t>265,14 EUR</t>
-  </si>
-  <si>
-    <t>44621</t>
-  </si>
-  <si>
-    <t>4.684,82 EUR</t>
-  </si>
-  <si>
-    <t>220,87 EUR</t>
-  </si>
-  <si>
-    <t>1.080,03 EUR</t>
-  </si>
-  <si>
-    <t>62,68 EUR</t>
-  </si>
-  <si>
-    <t>44622</t>
-  </si>
-  <si>
-    <t>245,59 EUR</t>
-  </si>
-  <si>
-    <t>615,88 EUR</t>
-  </si>
-  <si>
-    <t>734,27 EUR</t>
-  </si>
-  <si>
-    <t>44623</t>
-  </si>
-  <si>
-    <t>497,45 EUR</t>
-  </si>
-  <si>
-    <t>124,87 EUR</t>
-  </si>
-  <si>
-    <t>386,31 EUR</t>
-  </si>
-  <si>
-    <t>44624</t>
-  </si>
-  <si>
-    <t>400,24 EUR</t>
-  </si>
-  <si>
-    <t>167,19 EUR</t>
-  </si>
-  <si>
-    <t>1.821,41 EUR</t>
-  </si>
-  <si>
-    <t>44625</t>
-  </si>
-  <si>
-    <t>1.825,31 EUR</t>
-  </si>
-  <si>
-    <t>155,80 EUR</t>
-  </si>
-  <si>
-    <t>44628</t>
-  </si>
-  <si>
-    <t>1.195,49 EUR</t>
-  </si>
-  <si>
-    <t>111,39 EUR</t>
-  </si>
-  <si>
-    <t>44627</t>
-  </si>
-  <si>
-    <t>976,25 EUR</t>
-  </si>
-  <si>
-    <t>44629</t>
-  </si>
-  <si>
-    <t>2.272,74 EUR</t>
-  </si>
-  <si>
-    <t>703,43 EUR</t>
-  </si>
-  <si>
-    <t>44630</t>
-  </si>
-  <si>
-    <t>7.328,99 EUR</t>
-  </si>
-  <si>
-    <t>476,33 EUR</t>
-  </si>
-  <si>
-    <t>1.465,45 EUR</t>
-  </si>
-  <si>
-    <t>44631</t>
-  </si>
-  <si>
-    <t>261,41 EUR</t>
-  </si>
-  <si>
-    <t>2.402,04 EUR</t>
-  </si>
-  <si>
-    <t>44632</t>
-  </si>
-  <si>
-    <t>3.191,31 EUR</t>
-  </si>
-  <si>
-    <t>9.506,05 EUR</t>
-  </si>
-  <si>
-    <t>286,06 EUR</t>
-  </si>
-  <si>
-    <t>  15-03-2022</t>
-  </si>
-  <si>
-    <t>  134,66 EUR</t>
-  </si>
-  <si>
-    <t>16-03-2022</t>
-  </si>
-  <si>
-    <t>684,36 EUR</t>
-  </si>
-  <si>
-    <t>19-03-2022</t>
-  </si>
-  <si>
-    <t>1.934,95 EUR</t>
-  </si>
-  <si>
-    <t>881,14 EUR</t>
-  </si>
-  <si>
-    <t>21-03-2022</t>
-  </si>
-  <si>
-    <t>269,31 EUR</t>
-  </si>
-  <si>
-    <t>23-03-2022</t>
-  </si>
-  <si>
-    <t>1.058,92 EUR</t>
-  </si>
-  <si>
-    <t>22-03-2022</t>
-  </si>
-  <si>
-    <t>10.767,89 EUR</t>
-  </si>
-  <si>
-    <t>78,60 EUR</t>
-  </si>
-  <si>
-    <t>2.705,18 EUR</t>
-  </si>
-  <si>
-    <t>25-03-2022</t>
-  </si>
-  <si>
-    <t>58,79 EUR</t>
-  </si>
-  <si>
-    <t>2.015,73 EUR</t>
-  </si>
-  <si>
-    <t>24-03-2022</t>
-  </si>
-  <si>
-    <t>8,00 EUR</t>
-  </si>
-  <si>
-    <t>825,40 EUR</t>
-  </si>
-  <si>
-    <t>27-03-2022</t>
-  </si>
-  <si>
-    <t>32,37 EUR</t>
-  </si>
-  <si>
-    <t>3.195,46 EUR</t>
-  </si>
-  <si>
-    <t>26-03-2022</t>
-  </si>
-  <si>
-    <t>8.234,00 EUR</t>
-  </si>
-  <si>
-    <t>14,73 EUR</t>
-  </si>
-  <si>
-    <t>29-03-2022</t>
-  </si>
-  <si>
-    <t>1.775,05 EUR</t>
-  </si>
-  <si>
-    <t>691,44 EUR</t>
-  </si>
-  <si>
-    <t>30-03-2022</t>
-  </si>
-  <si>
-    <t>2.939,87 EUR</t>
-  </si>
-  <si>
-    <t>1.139,60 EUR</t>
-  </si>
-  <si>
-    <t>663,61 EUR</t>
-  </si>
-  <si>
-    <t>31-03-2022</t>
-  </si>
-  <si>
-    <t>3.627,96 EUR</t>
-  </si>
-  <si>
-    <t>658,99 EUR</t>
-  </si>
-  <si>
-    <t>325,83 EUR</t>
-  </si>
-  <si>
-    <t>44652</t>
-  </si>
-  <si>
-    <t>1.734,63 EUR</t>
-  </si>
-  <si>
-    <t>280,42 EUR</t>
-  </si>
-  <si>
-    <t>1.892,53 EUR</t>
-  </si>
-  <si>
-    <t>44653</t>
-  </si>
-  <si>
-    <t>1.460,46 EUR</t>
-  </si>
-  <si>
-    <t>95,48 EUR</t>
-  </si>
-  <si>
-    <t>44656</t>
-  </si>
-  <si>
-    <t>1.318,29 EUR</t>
-  </si>
-  <si>
-    <t>44655</t>
-  </si>
-  <si>
-    <t>857,27 EUR</t>
-  </si>
-  <si>
-    <t>44657</t>
-  </si>
-  <si>
-    <t>1.015,19 EUR</t>
-  </si>
-  <si>
-    <t>244,89 EUR</t>
-  </si>
-  <si>
-    <t>22,83 EUR</t>
-  </si>
-  <si>
-    <t>44658</t>
-  </si>
-  <si>
-    <t>2.175,72 EUR</t>
-  </si>
-  <si>
-    <t>92,44 EUR</t>
-  </si>
-  <si>
-    <t>239,83 EUR</t>
-  </si>
-  <si>
-    <t>44777</t>
-  </si>
-  <si>
-    <t>1.540,34 EUR</t>
-  </si>
-  <si>
-    <t>108,82 EUR</t>
-  </si>
-  <si>
-    <t>44746</t>
-  </si>
-  <si>
-    <t>248,98 EUR</t>
-  </si>
-  <si>
-    <t>09/04/2022</t>
-  </si>
-  <si>
-    <t>1.417,61 EUR</t>
-  </si>
-  <si>
-    <t>646,98 EUR</t>
-  </si>
-  <si>
-    <t>08/04/2022</t>
-  </si>
-  <si>
-    <t>206,86 EUR</t>
-  </si>
-  <si>
-    <t>12/04/2022</t>
-  </si>
-  <si>
-    <t>2.828,54 EUR</t>
-  </si>
-  <si>
-    <t>637,23 EUR</t>
-  </si>
-  <si>
-    <t>11/04/2022</t>
-  </si>
-  <si>
-    <t>1.818,38 EUR</t>
-  </si>
-  <si>
-    <t>13-04-2022</t>
-  </si>
-  <si>
-    <t>423,65 EUR</t>
-  </si>
-  <si>
-    <t>425,61 EUR</t>
+    <t>19-04-2022</t>
+  </si>
+  <si>
+    <t>368,05 EUR</t>
+  </si>
+  <si>
+    <t>373,97 EUR</t>
+  </si>
+  <si>
+    <t>18-04-2022</t>
+  </si>
+  <si>
+    <t>652,83 EUR</t>
+  </si>
+  <si>
+    <t>20-04-2022</t>
+  </si>
+  <si>
+    <t>172,90 EUR</t>
+  </si>
+  <si>
+    <t>83,42 EUR</t>
+  </si>
+  <si>
+    <t>85,17 EUR</t>
+  </si>
+  <si>
+    <t>21-04-2022</t>
+  </si>
+  <si>
+    <t>3.515,14 EUR</t>
+  </si>
+  <si>
+    <t>142,54 EUR</t>
+  </si>
+  <si>
+    <t>22-04-2022</t>
+  </si>
+  <si>
+    <t>2.159,54 EUR</t>
+  </si>
+  <si>
+    <t>262,83 EUR</t>
+  </si>
+  <si>
+    <t>13.925,86 EUR</t>
+  </si>
+  <si>
+    <t>23-04-2022</t>
+  </si>
+  <si>
+    <t>13.042,21 EUR</t>
+  </si>
+  <si>
+    <t>115,59 EUR</t>
+  </si>
+  <si>
+    <t>562,44 EUR</t>
+  </si>
+  <si>
+    <t>234,36 EUR</t>
+  </si>
+  <si>
+    <t>26-04-2022</t>
+  </si>
+  <si>
+    <t>2.148,54 EUR</t>
+  </si>
+  <si>
+    <t>27-04-2022</t>
+  </si>
+  <si>
+    <t>2.260,38 EUR</t>
+  </si>
+  <si>
+    <t>20,48 EUR</t>
+  </si>
+  <si>
+    <t>28-04-2022</t>
+  </si>
+  <si>
+    <t>2.559,03 EUR</t>
+  </si>
+  <si>
+    <t>182,75 EUR</t>
+  </si>
+  <si>
+    <t>29-04-2022</t>
+  </si>
+  <si>
+    <t>4.023,06 EUR</t>
+  </si>
+  <si>
+    <t>66,70 EUR</t>
+  </si>
+  <si>
+    <t>1.719,78 EUR</t>
+  </si>
+  <si>
+    <t>30-04-2022</t>
+  </si>
+  <si>
+    <t>1.255,81 EUR</t>
+  </si>
+  <si>
+    <t>173,81 EUR</t>
+  </si>
+  <si>
+    <t>1.123,86 EUR</t>
+  </si>
+  <si>
+    <t>05/05/2022</t>
+  </si>
+  <si>
+    <t>1.777,84 EUR</t>
+  </si>
+  <si>
+    <t>5,63 EUR</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>709,20 EUR</t>
+  </si>
+  <si>
+    <t>140,10 EUR</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>463,14 EUR</t>
+  </si>
+  <si>
+    <t>78,58 EUR</t>
+  </si>
+  <si>
+    <t>446,92 EUR</t>
+  </si>
+  <si>
+    <t>07/05/2022</t>
+  </si>
+  <si>
+    <t>642,81 EUR</t>
+  </si>
+  <si>
+    <t>46,52 EUR</t>
+  </si>
+  <si>
+    <t>10/05/2022</t>
+  </si>
+  <si>
+    <t>1.176,22 EUR</t>
+  </si>
+  <si>
+    <t>12,08 EUR</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
+  </si>
+  <si>
+    <t>557,43 EUR</t>
+  </si>
+  <si>
+    <t>309,23 EUR</t>
+  </si>
+  <si>
+    <t>85,62 EUR</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>238,29 EUR</t>
+  </si>
+  <si>
+    <t>13-05-2022</t>
+  </si>
+  <si>
+    <t>1.608,22 EUR</t>
+  </si>
+  <si>
+    <t>1.886,33 EUR</t>
+  </si>
+  <si>
+    <t>14-05-2022</t>
+  </si>
+  <si>
+    <t>223,63 EUR</t>
+  </si>
+  <si>
+    <t>146,89 EUR</t>
+  </si>
+  <si>
+    <t>1.859,32 EUR</t>
+  </si>
+  <si>
+    <t>1.315,93 EUR</t>
+  </si>
+  <si>
+    <t>17-05-2022</t>
+  </si>
+  <si>
+    <t>4.603,66 EUR</t>
+  </si>
+  <si>
+    <t>826,74 EUR</t>
+  </si>
+  <si>
+    <t>18-05-2022</t>
+  </si>
+  <si>
+    <t>2.054,21 EUR</t>
+  </si>
+  <si>
+    <t>193,11 EUR</t>
+  </si>
+  <si>
+    <t>104,74 EUR</t>
+  </si>
+  <si>
+    <t>19-05-2022</t>
+  </si>
+  <si>
+    <t>1.054,34 EUR</t>
+  </si>
+  <si>
+    <t>291,35 EUR</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1449,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="A5" sqref="A5 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="A182" sqref="A182 A182"/>
@@ -1267,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1281,7 +1551,7 @@
         <v>8860631</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>22857094</v>
@@ -1292,7 +1562,7 @@
         <v>8860883</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>22857096</v>
@@ -1303,7 +1573,7 @@
         <v>8860872</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>22857093</v>
@@ -1314,7 +1584,7 @@
         <v>8861597</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>22860641</v>
@@ -1325,7 +1595,7 @@
         <v>8861587</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>22860643</v>
@@ -1336,7 +1606,7 @@
         <v>8862346</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>22863225</v>
@@ -1347,7 +1617,7 @@
         <v>8862336</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>22863224</v>
@@ -1358,7 +1628,7 @@
         <v>8862942</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>22866900</v>
@@ -1369,7 +1639,7 @@
         <v>8862933</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>22866882</v>
@@ -1380,7 +1650,7 @@
         <v>8862749</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>22866840</v>
@@ -1391,7 +1661,7 @@
         <v>8151128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>22866822</v>
@@ -1402,7 +1672,7 @@
         <v>8863575</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>22872381</v>
@@ -1413,7 +1683,7 @@
         <v>8863574</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>22872340</v>
@@ -1424,7 +1694,7 @@
         <v>8863438</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>22872362</v>
@@ -1435,7 +1705,7 @@
         <v>8864299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>22876743</v>
@@ -1446,7 +1716,7 @@
         <v>8864298</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>22876744</v>
@@ -1457,10 +1727,10 @@
         <v>8865085</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>22880540</v>
@@ -1471,10 +1741,10 @@
         <v>8865084</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>22880561</v>
@@ -1485,10 +1755,10 @@
         <v>8865075</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>22880565</v>
@@ -1499,10 +1769,10 @@
         <v>8865074</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>22880602</v>
@@ -1513,10 +1783,10 @@
         <v>8865817</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
         <v>22883949</v>
@@ -1527,10 +1797,10 @@
         <v>8865816</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
         <v>22883970</v>
@@ -1541,10 +1811,10 @@
         <v>8865692</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>22884000</v>
@@ -1555,10 +1825,10 @@
         <v>8866588</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>22887862</v>
@@ -1569,10 +1839,10 @@
         <v>8866587</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1">
         <v>22887865</v>
@@ -1583,10 +1853,10 @@
         <v>8866435</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1">
         <v>22887900</v>
@@ -1597,10 +1867,10 @@
         <v>8867363</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>22892132</v>
@@ -1611,10 +1881,10 @@
         <v>8867362</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>22892162</v>
@@ -1625,10 +1895,10 @@
         <v>8867156</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>22892167</v>
@@ -1639,10 +1909,10 @@
         <v>8868087</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
         <v>22896062</v>
@@ -1653,10 +1923,10 @@
         <v>8868086</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>22896075</v>
@@ -1667,10 +1937,10 @@
         <v>8868818</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
         <v>22900131</v>
@@ -1681,10 +1951,10 @@
         <v>8868817</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1">
         <v>22900150</v>
@@ -1695,10 +1965,10 @@
         <v>8868646</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1">
         <v>22900154</v>
@@ -1709,10 +1979,10 @@
         <v>8869534</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1">
         <v>22903020</v>
@@ -1723,10 +1993,10 @@
         <v>8869533</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1">
         <v>22903061</v>
@@ -1737,10 +2007,10 @@
         <v>8869387</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
         <v>22903068</v>
@@ -1751,10 +2021,10 @@
         <v>8870315</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1">
         <v>22907522</v>
@@ -1765,10 +2035,10 @@
         <v>8870314</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1">
         <v>22907540</v>
@@ -1779,10 +2049,10 @@
         <v>8871042</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1">
         <v>22913240</v>
@@ -1793,10 +2063,10 @@
         <v>8871011</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1">
         <v>22913262</v>
@@ -1807,10 +2077,10 @@
         <v>8871010</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1">
         <v>22913330</v>
@@ -1821,10 +2091,10 @@
         <v>8870869</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1">
         <v>22913351</v>
@@ -1835,10 +2105,10 @@
         <v>8871804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1">
         <v>22915442</v>
@@ -1849,10 +2119,10 @@
         <v>8871800</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1">
         <v>22915470</v>
@@ -1863,10 +2133,10 @@
         <v>8871799</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1">
         <v>22915474</v>
@@ -1877,10 +2147,10 @@
         <v>8871588</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1">
         <v>22915478</v>
@@ -1891,10 +2161,10 @@
         <v>8872551</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1">
         <v>22920250</v>
@@ -1905,10 +2175,10 @@
         <v>8872550</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1">
         <v>22920256</v>
@@ -1919,10 +2189,10 @@
         <v>8873276</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1">
         <v>22925080</v>
@@ -1933,10 +2203,10 @@
         <v>8873275</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1">
         <v>22925082</v>
@@ -1947,10 +2217,10 @@
         <v>8873095</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1">
         <v>22925100</v>
@@ -1961,10 +2231,10 @@
         <v>8873987</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1">
         <v>22928530</v>
@@ -1975,10 +2245,10 @@
         <v>8873986</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D55" s="1">
         <v>22928610</v>
@@ -1989,10 +2259,10 @@
         <v>8873777</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1">
         <v>22928680</v>
@@ -2003,10 +2273,10 @@
         <v>8874670</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1">
         <v>22934681</v>
@@ -2017,10 +2287,10 @@
         <v>8874669</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1">
         <v>22934700</v>
@@ -2031,10 +2301,10 @@
         <v>8874479</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1">
         <v>22934741</v>
@@ -2045,10 +2315,10 @@
         <v>8875394</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1">
         <v>22952915</v>
@@ -2059,10 +2329,10 @@
         <v>8875393</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D61" s="1">
         <v>22952930</v>
@@ -2073,10 +2343,10 @@
         <v>8876934</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D62" s="1">
         <v>22961961</v>
@@ -2087,10 +2357,10 @@
         <v>8876933</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1">
         <v>22961983</v>
@@ -2101,10 +2371,10 @@
         <v>8876752</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1">
         <v>22961988</v>
@@ -2115,10 +2385,10 @@
         <v>8876182</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>22961990</v>
@@ -2129,10 +2399,10 @@
         <v>8876181</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D66" s="1">
         <v>22961998</v>
@@ -2143,10 +2413,10 @@
         <v>8875986</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1">
         <v>22962006</v>
@@ -2157,10 +2427,10 @@
         <v>8877676</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D68" s="1">
         <v>22965320</v>
@@ -2171,10 +2441,10 @@
         <v>8877675</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1">
         <v>22965343</v>
@@ -2185,10 +2455,10 @@
         <v>8877493</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D70" s="1">
         <v>22965382</v>
@@ -2199,10 +2469,10 @@
         <v>8878383</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D71" s="1">
         <v>22971260</v>
@@ -2213,10 +2483,10 @@
         <v>8878382</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D72" s="1">
         <v>22971265</v>
@@ -2227,10 +2497,10 @@
         <v>8878231</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D73" s="1">
         <v>22971280</v>
@@ -2241,10 +2511,10 @@
         <v>8879148</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1">
         <v>22975346</v>
@@ -2255,10 +2525,10 @@
         <v>8879147</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D75" s="1">
         <v>22975349</v>
@@ -2269,10 +2539,10 @@
         <v>8878963</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D76" s="1">
         <v>22975373</v>
@@ -2283,10 +2553,10 @@
         <v>8879901</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D77" s="1">
         <v>22979490</v>
@@ -2297,10 +2567,10 @@
         <v>8879900</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1">
         <v>22979500</v>
@@ -2311,10 +2581,10 @@
         <v>8879730</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D79" s="1">
         <v>22979527</v>
@@ -2325,10 +2595,10 @@
         <v>8880647</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D80" s="1">
         <v>22982976</v>
@@ -2339,10 +2609,10 @@
         <v>8880646</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1">
         <v>22983000</v>
@@ -2353,10 +2623,10 @@
         <v>8880464</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D82" s="1">
         <v>22983026</v>
@@ -2367,10 +2637,10 @@
         <v>8881313</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D83" s="1">
         <v>22986180</v>
@@ -2381,10 +2651,10 @@
         <v>8881312</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D84" s="1">
         <v>22986189</v>
@@ -2395,10 +2665,10 @@
         <v>8881206</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D85" s="1">
         <v>22986192</v>
@@ -2409,10 +2679,10 @@
         <v>8882092</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D86" s="1">
         <v>22991973</v>
@@ -2423,10 +2693,10 @@
         <v>8882091</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1">
         <v>22991992</v>
@@ -2437,10 +2707,10 @@
         <v>8881914</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D88" s="1">
         <v>22992010</v>
@@ -2451,10 +2721,10 @@
         <v>8882828</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1">
         <v>22996430</v>
@@ -2465,10 +2735,10 @@
         <v>8882827</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D90" s="1">
         <v>22996432</v>
@@ -2479,10 +2749,10 @@
         <v>8882641</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D91" s="1">
         <v>22996470</v>
@@ -2493,10 +2763,10 @@
         <v>8883577</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D92" s="1">
         <v>23001020</v>
@@ -2507,10 +2777,10 @@
         <v>8883576</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D93" s="1">
         <v>23001041</v>
@@ -2521,10 +2791,10 @@
         <v>8883467</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D94" s="1">
         <v>23001062</v>
@@ -2535,10 +2805,10 @@
         <v>8884309</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1">
         <v>23003013</v>
@@ -2549,10 +2819,10 @@
         <v>8884308</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D96" s="1">
         <v>23003017</v>
@@ -2563,10 +2833,10 @@
         <v>8884126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D97" s="1">
         <v>23003030</v>
@@ -2577,10 +2847,10 @@
         <v>8885007</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D98" s="1">
         <v>23007111</v>
@@ -2591,10 +2861,10 @@
         <v>8885006</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D99" s="1">
         <v>23007492</v>
@@ -2605,10 +2875,10 @@
         <v>8885722</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D100" s="1">
         <v>23011250</v>
@@ -2619,10 +2889,10 @@
         <v>8885721</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D101" s="1">
         <v>23011272</v>
@@ -2633,10 +2903,10 @@
         <v>8885610</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D102" s="1">
         <v>23011293</v>
@@ -2647,10 +2917,10 @@
         <v>8886502</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D103" s="1">
         <v>23015272</v>
@@ -2661,10 +2931,10 @@
         <v>8886501</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D104" s="1">
         <v>23015303</v>
@@ -2675,10 +2945,10 @@
         <v>8886283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D105" s="1">
         <v>23015350</v>
@@ -2689,10 +2959,10 @@
         <v>8887204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D106" s="1">
         <v>23018820</v>
@@ -2703,10 +2973,10 @@
         <v>8887203</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D107" s="1">
         <v>23018861</v>
@@ -2717,10 +2987,10 @@
         <v>8887882</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D108" s="1">
         <v>23023023</v>
@@ -2731,10 +3001,10 @@
         <v>8887706</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D109" s="1">
         <v>23023271</v>
@@ -2745,10 +3015,10 @@
         <v>8889237</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D110" s="1">
         <v>23029770</v>
@@ -2759,10 +3029,10 @@
         <v>8889236</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1">
         <v>23029775</v>
@@ -2773,10 +3043,10 @@
         <v>8888435</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D112" s="1">
         <v>23029813</v>
@@ -2787,10 +3057,10 @@
         <v>8887881</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D113" s="1">
         <v>23023041</v>
@@ -2801,10 +3071,10 @@
         <v>8889970</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D114" s="1">
         <v>23033790</v>
@@ -2815,10 +3085,10 @@
         <v>8889969</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D115" s="1">
         <v>23033841</v>
@@ -2829,10 +3099,10 @@
         <v>8889786</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D116" s="1">
         <v>23033846</v>
@@ -2843,10 +3113,10 @@
         <v>8890603</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D117" s="1">
         <v>23036470</v>
@@ -2857,10 +3127,10 @@
         <v>8890602</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D118" s="1">
         <v>23036473</v>
@@ -2871,10 +3141,10 @@
         <v>8890439</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D119" s="1">
         <v>23036479</v>
@@ -2885,10 +3155,10 @@
         <v>8891271</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D120" s="1">
         <v>23040676</v>
@@ -2899,10 +3169,10 @@
         <v>8891270</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D121" s="1">
         <v>23040681</v>
@@ -2913,10 +3183,10 @@
         <v>8891143</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D122" s="1">
         <v>23040682</v>
@@ -2927,10 +3197,10 @@
         <v>8892020</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D123" s="1">
         <v>23044387</v>
@@ -2941,10 +3211,10 @@
         <v>8892019</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D124" s="1">
         <v>23044393</v>
@@ -2955,10 +3225,10 @@
         <v>8892786</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D125" s="1">
         <v>23048542</v>
@@ -2969,10 +3239,10 @@
         <v>8892785</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D126" s="1">
         <v>23048564</v>
@@ -2983,10 +3253,10 @@
         <v>8892538</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D127" s="1">
         <v>23048569</v>
@@ -2997,10 +3267,10 @@
         <v>8893451</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D128" s="1">
         <v>23053630</v>
@@ -3011,10 +3281,10 @@
         <v>8893450</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D129" s="1">
         <v>23053650</v>
@@ -3025,10 +3295,10 @@
         <v>8893291</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D130" s="1">
         <v>23053673</v>
@@ -3039,10 +3309,10 @@
         <v>8894137</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D131" s="1">
         <v>23058881</v>
@@ -3053,10 +3323,10 @@
         <v>8894136</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D132" s="1">
         <v>23058920</v>
@@ -3067,10 +3337,10 @@
         <v>8893992</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D133" s="1">
         <v>23058929</v>
@@ -3081,10 +3351,10 @@
         <v>8895041</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D134" s="1">
         <v>23061002</v>
@@ -3095,10 +3365,10 @@
         <v>8894962</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D135" s="1">
         <v>23061011</v>
@@ -3109,10 +3379,10 @@
         <v>8894791</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D136" s="1">
         <v>23061017</v>
@@ -3123,10 +3393,10 @@
         <v>8895639</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D137" s="1">
         <v>23065129</v>
@@ -3137,10 +3407,10 @@
         <v>8895638</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D138" s="1">
         <v>23065135</v>
@@ -3151,10 +3421,10 @@
         <v>8895471</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D139" s="1">
         <v>23065136</v>
@@ -3165,10 +3435,10 @@
         <v>8896520</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D140" s="1">
         <v>23074514</v>
@@ -3179,10 +3449,10 @@
         <v>8897059</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D141" s="1">
         <v>23077004</v>
@@ -3193,10 +3463,10 @@
         <v>8898493</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D142" s="1">
         <v>23083173</v>
@@ -3207,10 +3477,10 @@
         <v>8898482</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D143" s="1">
         <v>23083210</v>
@@ -3221,10 +3491,10 @@
         <v>8898723</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D144" s="1">
         <v>23086948</v>
@@ -3235,10 +3505,10 @@
         <v>8899668</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D145" s="1">
         <v>23091031</v>
@@ -3249,10 +3519,10 @@
         <v>8899220</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D146" s="1">
         <v>23091037</v>
@@ -3263,10 +3533,10 @@
         <v>8899117</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D147" s="1">
         <v>23091084</v>
@@ -3277,10 +3547,10 @@
         <v>8899886</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D148" s="1">
         <v>23094229</v>
@@ -3291,10 +3561,10 @@
         <v>8900775</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D149" s="1">
         <v>23098085</v>
@@ -3305,10 +3575,10 @@
         <v>8900718</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D150" s="1">
         <v>23098090</v>
@@ -3319,10 +3589,10 @@
         <v>8900582</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D151" s="1">
         <v>23098120</v>
@@ -3333,10 +3603,10 @@
         <v>8900335</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D152" s="1">
         <v>23098145</v>
@@ -3347,10 +3617,10 @@
         <v>8901776</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D153" s="1">
         <v>23103150</v>
@@ -3361,10 +3631,10 @@
         <v>8901755</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D154" s="1">
         <v>23103172</v>
@@ -3375,10 +3645,10 @@
         <v>8901330</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D155" s="1">
         <v>23103191</v>
@@ -3389,10 +3659,10 @@
         <v>8901329</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D156" s="1">
         <v>23103194</v>
@@ -3403,10 +3673,10 @@
         <v>8902166</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D157" s="1">
         <v>23106854</v>
@@ -3417,10 +3687,10 @@
         <v>8902165</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D158" s="1">
         <v>23106873</v>
@@ -3431,10 +3701,10 @@
         <v>8902885</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D159" s="1">
         <v>23111770</v>
@@ -3445,10 +3715,10 @@
         <v>8902884</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D160" s="1">
         <v>23111822</v>
@@ -3459,10 +3729,10 @@
         <v>8902729</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D161" s="1">
         <v>23111862</v>
@@ -3473,10 +3743,10 @@
         <v>8903601</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D162" s="1">
         <v>23116265</v>
@@ -3487,10 +3757,10 @@
         <v>8903600</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D163" s="1">
         <v>23116287</v>
@@ -3501,10 +3771,10 @@
         <v>8903437</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D164" s="1">
         <v>23116294</v>
@@ -3515,10 +3785,10 @@
         <v>8904355</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D165" s="1">
         <v>23119629</v>
@@ -3529,10 +3799,10 @@
         <v>8904354</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D166" s="1">
         <v>23119632</v>
@@ -3543,10 +3813,10 @@
         <v>8904124</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D167" s="1">
         <v>23119635</v>
@@ -3557,10 +3827,10 @@
         <v>8905020</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D168" s="1">
         <v>23123880</v>
@@ -3571,10 +3841,10 @@
         <v>8905019</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D169" s="1">
         <v>23123932</v>
@@ -3585,10 +3855,10 @@
         <v>8904879</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D170" s="1">
         <v>23123970</v>
@@ -3599,10 +3869,10 @@
         <v>8905738</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D171" s="1">
         <v>23128220</v>
@@ -3613,10 +3883,10 @@
         <v>8905589</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D172" s="1">
         <v>23128226</v>
@@ -3627,10 +3897,10 @@
         <v>8906417</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D173" s="1">
         <v>23134152</v>
@@ -3641,10 +3911,10 @@
         <v>8906416</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D174" s="1">
         <v>23134466</v>
@@ -3655,10 +3925,10 @@
         <v>8906279</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D175" s="1">
         <v>23134510</v>
@@ -3669,10 +3939,10 @@
         <v>8907153</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D176" s="1">
         <v>23136060</v>
@@ -3683,10 +3953,10 @@
         <v>8907152</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D177" s="1">
         <v>23136090</v>
@@ -3697,10 +3967,10 @@
         <v>8907074</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D178" s="1">
         <v>23136114</v>
@@ -3711,10 +3981,10 @@
         <v>8907891</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D179" s="1">
         <v>23139189</v>
@@ -3725,10 +3995,10 @@
         <v>8907890</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D180" s="1">
         <v>23139199</v>
@@ -3739,10 +4009,10 @@
         <v>8907822</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D181" s="1">
         <v>23139219</v>
@@ -3753,10 +4023,10 @@
         <v>8908678</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D182" s="1">
         <v>23144010</v>
@@ -3767,10 +4037,10 @@
         <v>8908677</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D183" s="1">
         <v>23144024</v>
@@ -3781,10 +4051,10 @@
         <v>8908495</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D184" s="1">
         <v>23144063</v>
@@ -3795,10 +4065,10 @@
         <v>8909373</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D185" s="1">
         <v>23146321</v>
@@ -3809,10 +4079,10 @@
         <v>8909372</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D186" s="1">
         <v>23146327</v>
@@ -3823,10 +4093,10 @@
         <v>8909279</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D187" s="1">
         <v>23146360</v>
@@ -3837,10 +4107,10 @@
         <v>8910011</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D188" s="1">
         <v>23148937</v>
@@ -3851,10 +4121,10 @@
         <v>8910010</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1">
         <v>23148970</v>
@@ -3865,10 +4135,10 @@
         <v>8910784</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="D190" s="1">
         <v>23151925</v>
@@ -3879,13 +4149,951 @@
         <v>8910783</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="D191" s="1">
         <v>23151928</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>8911463</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23156840</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>8911462</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23157385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>8911339</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D194" s="1">
+        <v>23157409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>8911985</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D195" s="1">
+        <v>23160202</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>8911984</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D196" s="1">
+        <v>23160205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>8911852</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D197" s="1">
+        <v>23160208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>8912658</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D198" s="1">
+        <v>23164160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>8912657</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D199" s="1">
+        <v>23164185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>8913417</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D200" s="1">
+        <v>23168133</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>8913416</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D201" s="1">
+        <v>23168153</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>8913252</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D202" s="1">
+        <v>23168193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>8914149</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D203" s="1">
+        <v>23171790</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>8914148</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D204" s="1">
+        <v>23171793</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>8913992</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D205" s="1">
+        <v>23171796</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>8913849</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D206" s="1">
+        <v>23171798</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>8914836</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D207" s="1">
+        <v>23178573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>8915530</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D208" s="1">
+        <v>23182120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>8915529</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D209" s="1">
+        <v>23182163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>8916304</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D210" s="1">
+        <v>23185170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>8916303</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D211" s="1">
+        <v>23185190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>8916112</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D212" s="1">
+        <v>23185196</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>8916984</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D213" s="1">
+        <v>23189512</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>8916983</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="1">
+        <v>23189517</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>8916829</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D215" s="1">
+        <v>23189541</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>8917753</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D216" s="1">
+        <v>23195235</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>8917752</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D217" s="1">
+        <v>23195250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>8917509</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D218" s="1">
+        <v>23195251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>8919657</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D219" s="1">
+        <v>23196862</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>8919656</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D220" s="1">
+        <v>23196867</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>8918940</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D221" s="1">
+        <v>23196868</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>8918939</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D222" s="1">
+        <v>23196870</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>8918811</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D223" s="1">
+        <v>23196920</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>8920406</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D224" s="1">
+        <v>23201125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>8920405</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D225" s="1">
+        <v>23201190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>8920210</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D226" s="1">
+        <v>23201194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>8921145</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D227" s="1">
+        <v>23204667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>8921144</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D228" s="1">
+        <v>23204718</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>8921859</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D229" s="1">
+        <v>23208170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>8921858</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D230" s="1">
+        <v>23208176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>8922570</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D231" s="1">
+        <v>23211878</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>8922569</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D232" s="1">
+        <v>23211880</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>8922409</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D233" s="1">
+        <v>23211884</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>8923299</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D234" s="1">
+        <v>23215950</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>8923184</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D235" s="1">
+        <v>23215972</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>8924032</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D236" s="1">
+        <v>23220512</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>8924031</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D237" s="1">
+        <v>23220534</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>8923923</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D238" s="1">
+        <v>23220551</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>8924740</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D239" s="1">
+        <v>23223931</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>8924739</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D240" s="1">
+        <v>23223960</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>8924662</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" s="1">
+        <v>23223980</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>8924465</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D242" s="1">
+        <v>23224030</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>8925372</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D243" s="1">
+        <v>23228972</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>8925371</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D244" s="1">
+        <v>23228978</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>8926041</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D245" s="1">
+        <v>23233121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>8926040</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D246" s="1">
+        <v>23233123</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>8925945</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D247" s="1">
+        <v>23233141</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>8926742</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D248" s="1">
+        <v>23236966</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>8926741</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D249" s="1">
+        <v>23236982</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>8926592</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D250" s="1">
+        <v>23237009</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>8927474</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="1">
+        <v>23240390</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>8927473</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="1">
+        <v>23240392</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>8928226</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="1">
+        <v>23243937</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>8928225</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1">
+        <v>23243950</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>8928065</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="1">
+        <v>23243953</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>8928954</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1">
+        <v>23248719</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>8928953</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="1">
+        <v>23248723</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>8928846</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="1">
+        <v>23248724</v>
       </c>
     </row>
   </sheetData>
